--- a/mts_hahaton/searcher/file.xlsx
+++ b/mts_hahaton/searcher/file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\slovo_mts\MTS-Hahaton\mts_hahaton\searcher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavri\Programming\MTS-Hahaton\mts_hahaton\searcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58A8E21A-A297-4933-9F6A-898B142D65D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A21DD28-1BD8-4E4E-A94F-EEBE1625701D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1666,23 +1666,23 @@
   </sheetPr>
   <dimension ref="A1:M1128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" customWidth="1"/>
-    <col min="2" max="2" width="40.453125" customWidth="1"/>
-    <col min="3" max="3" width="45.08984375" customWidth="1"/>
-    <col min="4" max="4" width="30.08984375" customWidth="1"/>
-    <col min="5" max="5" width="27.7265625" customWidth="1"/>
-    <col min="6" max="6" width="45.26953125" customWidth="1"/>
-    <col min="7" max="7" width="20.90625" customWidth="1"/>
-    <col min="12" max="12" width="33.453125" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" customWidth="1"/>
+    <col min="6" max="6" width="45.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+    <col min="12" max="12" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.5">
+    <row r="1" spans="1:13" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="12.5">
+    <row r="2" spans="1:13" ht="13.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
@@ -1753,7 +1753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.5">
+    <row r="3" spans="1:13" ht="13.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="12.5">
+    <row r="4" spans="1:13" ht="13.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.5">
+    <row r="5" spans="1:13" ht="13.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12.5">
+    <row r="6" spans="1:13" ht="13.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12.5">
+    <row r="7" spans="1:13" ht="13.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12.5">
+    <row r="8" spans="1:13" ht="13.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12.5">
+    <row r="9" spans="1:13" ht="13.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12.5">
+    <row r="10" spans="1:13" ht="13.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12.5">
+    <row r="11" spans="1:13" ht="13.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12.5">
+    <row r="12" spans="1:13" ht="13.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12.5">
+    <row r="13" spans="1:13" ht="13.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="12.5">
+    <row r="14" spans="1:13" ht="13.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="12.5">
+    <row r="15" spans="1:13" ht="13.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12.5">
+    <row r="16" spans="1:13" ht="13.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="12.5">
+    <row r="17" spans="1:12" ht="13.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="12.5">
+    <row r="18" spans="1:12" ht="13.2">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="12.5">
+    <row r="19" spans="1:12" ht="13.2">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="12.5">
+    <row r="20" spans="1:12" ht="13.2">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="12.5">
+    <row r="21" spans="1:12" ht="13.2">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="12.5">
+    <row r="22" spans="1:12" ht="13.2">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="12.5">
+    <row r="23" spans="1:12" ht="13.2">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="12.5">
+    <row r="24" spans="1:12" ht="13.2">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="12.5">
+    <row r="25" spans="1:12" ht="13.2">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="12.5">
+    <row r="26" spans="1:12" ht="13.2">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="12.5">
+    <row r="27" spans="1:12" ht="13.2">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="12.5">
+    <row r="28" spans="1:12" ht="13.2">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="12.5">
+    <row r="29" spans="1:12" ht="13.2">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="12.5">
+    <row r="30" spans="1:12" ht="13.2">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="12.5">
+    <row r="31" spans="1:12" ht="13.2">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="12.5">
+    <row r="32" spans="1:12" ht="13.2">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="12.5">
+    <row r="33" spans="1:12" ht="13.2">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="12.5">
+    <row r="34" spans="1:12" ht="13.2">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.5">
+    <row r="35" spans="1:12" ht="13.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.5">
+    <row r="36" spans="1:12" ht="13.2">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.5">
+    <row r="37" spans="1:12" ht="13.2">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.5">
+    <row r="38" spans="1:12" ht="13.2">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.5">
+    <row r="39" spans="1:12" ht="13.2">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="12.5">
+    <row r="40" spans="1:12" ht="13.2">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="12.5">
+    <row r="41" spans="1:12" ht="13.2">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="12.5">
+    <row r="42" spans="1:12" ht="13.2">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="12.5">
+    <row r="43" spans="1:12" ht="13.2">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="12.5">
+    <row r="44" spans="1:12" ht="13.2">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="12.5">
+    <row r="45" spans="1:12" ht="13.2">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="12.5">
+    <row r="46" spans="1:12" ht="13.2">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="12.5">
+    <row r="47" spans="1:12" ht="13.2">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="12.5">
+    <row r="48" spans="1:12" ht="13.2">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="12.5">
+    <row r="49" spans="1:12" ht="13.2">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="12.5">
+    <row r="50" spans="1:12" ht="13.2">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="12.5">
+    <row r="51" spans="1:12" ht="13.2">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="12.5">
+    <row r="52" spans="1:12" ht="13.2">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="12.5">
+    <row r="53" spans="1:12" ht="13.2">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="12.5">
+    <row r="54" spans="1:12" ht="13.2">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="12.5">
+    <row r="55" spans="1:12" ht="13.2">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="12.5">
+    <row r="56" spans="1:12" ht="13.2">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="12.5">
+    <row r="57" spans="1:12" ht="13.2">
       <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="12.5">
+    <row r="58" spans="1:12" ht="13.2">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="12.5">
+    <row r="59" spans="1:12" ht="13.2">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="12.5">
+    <row r="60" spans="1:12" ht="13.2">
       <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="12.5">
+    <row r="61" spans="1:12" ht="13.2">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="12.5">
+    <row r="62" spans="1:12" ht="13.2">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="12.5">
+    <row r="63" spans="1:12" ht="13.2">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="12.5">
+    <row r="64" spans="1:12" ht="13.2">
       <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="12.5">
+    <row r="65" spans="1:12" ht="13.2">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="12.5">
+    <row r="66" spans="1:12" ht="13.2">
       <c r="A66" s="1" t="s">
         <v>13</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="12.5">
+    <row r="67" spans="1:12" ht="13.2">
       <c r="A67" s="1" t="s">
         <v>13</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="12.5">
+    <row r="68" spans="1:12" ht="13.2">
       <c r="A68" s="1" t="s">
         <v>222</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="12.5">
+    <row r="70" spans="1:12" ht="13.2">
       <c r="A70" s="1" t="s">
         <v>222</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="12.5">
+    <row r="71" spans="1:12" ht="13.2">
       <c r="A71" s="1" t="s">
         <v>222</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="12.5">
+    <row r="72" spans="1:12" ht="13.2">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="12.5">
+    <row r="73" spans="1:12" ht="13.2">
       <c r="A73" s="1" t="s">
         <v>222</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="12.5">
+    <row r="74" spans="1:12" ht="13.2">
       <c r="A74" s="1" t="s">
         <v>222</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="12.5">
+    <row r="75" spans="1:12" ht="13.2">
       <c r="A75" s="1" t="s">
         <v>222</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="12.5">
+    <row r="76" spans="1:12" ht="13.2">
       <c r="A76" s="1" t="s">
         <v>222</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="12.5">
+    <row r="77" spans="1:12" ht="13.2">
       <c r="A77" s="1" t="s">
         <v>222</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="12.5">
+    <row r="78" spans="1:12" ht="13.2">
       <c r="A78" s="1" t="s">
         <v>222</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="12.5">
+    <row r="79" spans="1:12" ht="13.2">
       <c r="A79" s="1" t="s">
         <v>222</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="12.5">
+    <row r="80" spans="1:12" ht="13.2">
       <c r="A80" s="1" t="s">
         <v>222</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="12.5">
+    <row r="81" spans="1:12" ht="13.2">
       <c r="A81" s="1" t="s">
         <v>222</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="12.5">
+    <row r="82" spans="1:12" ht="13.2">
       <c r="A82" s="1" t="s">
         <v>222</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="12.5">
+    <row r="83" spans="1:12" ht="13.2">
       <c r="A83" s="1" t="s">
         <v>222</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="12.5">
+    <row r="92" spans="1:12" ht="13.2">
       <c r="A92" s="1" t="s">
         <v>222</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="12.5">
+    <row r="93" spans="1:12" ht="13.2">
       <c r="A93" s="1" t="s">
         <v>222</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="12.5">
+    <row r="94" spans="1:12" ht="13.2">
       <c r="A94" s="1" t="s">
         <v>222</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="12.5">
+    <row r="95" spans="1:12" ht="13.2">
       <c r="A95" s="1" t="s">
         <v>222</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="12.5">
+    <row r="96" spans="1:12" ht="13.2">
       <c r="A96" s="1" t="s">
         <v>222</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="12.5">
+    <row r="97" spans="1:12" ht="13.2">
       <c r="A97" s="1" t="s">
         <v>222</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="12.5">
+    <row r="98" spans="1:12" ht="13.2">
       <c r="A98" s="1" t="s">
         <v>222</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="12.5">
+    <row r="99" spans="1:12" ht="13.2">
       <c r="A99" s="1" t="s">
         <v>222</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="12.5">
+    <row r="100" spans="1:12" ht="13.2">
       <c r="A100" s="1" t="s">
         <v>222</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="12.5">
+    <row r="101" spans="1:12" ht="13.2">
       <c r="A101" s="1" t="s">
         <v>222</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="12.5">
+    <row r="102" spans="1:12" ht="13.2">
       <c r="A102" s="1" t="s">
         <v>222</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="12.5">
+    <row r="103" spans="1:12" ht="13.2">
       <c r="A103" s="1" t="s">
         <v>222</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="12.5">
+    <row r="104" spans="1:12" ht="13.2">
       <c r="A104" s="1" t="s">
         <v>222</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="12.5">
+    <row r="105" spans="1:12" ht="13.2">
       <c r="A105" s="1" t="s">
         <v>222</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="12.5">
+    <row r="106" spans="1:12" ht="13.2">
       <c r="A106" s="1" t="s">
         <v>222</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="12.5">
+    <row r="107" spans="1:12" ht="13.2">
       <c r="A107" s="1" t="s">
         <v>222</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="12.5">
+    <row r="108" spans="1:12" ht="13.2">
       <c r="A108" s="1" t="s">
         <v>222</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="12.5">
+    <row r="109" spans="1:12" ht="13.2">
       <c r="A109" s="1" t="s">
         <v>222</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="12.5">
+    <row r="110" spans="1:12" ht="13.2">
       <c r="A110" s="1" t="s">
         <v>222</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="12.5">
+    <row r="111" spans="1:12" ht="13.2">
       <c r="A111" s="1" t="s">
         <v>222</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="12.5">
+    <row r="112" spans="1:12" ht="13.2">
       <c r="A112" s="1" t="s">
         <v>222</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="12.5">
+    <row r="113" spans="1:12" ht="13.2">
       <c r="A113" s="1" t="s">
         <v>222</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="12.5">
+    <row r="114" spans="1:12" ht="13.2">
       <c r="A114" s="1" t="s">
         <v>222</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="12.5">
+    <row r="115" spans="1:12" ht="13.2">
       <c r="A115" s="1" t="s">
         <v>222</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="12.5">
+    <row r="116" spans="1:12" ht="13.2">
       <c r="A116" s="1" t="s">
         <v>222</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="12.5">
+    <row r="117" spans="1:12" ht="13.2">
       <c r="A117" s="1" t="s">
         <v>222</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="12.5">
+    <row r="118" spans="1:12" ht="13.2">
       <c r="A118" s="1" t="s">
         <v>222</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="12.5">
+    <row r="119" spans="1:12" ht="13.2">
       <c r="A119" s="1" t="s">
         <v>222</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="12.5">
+    <row r="120" spans="1:12" ht="13.2">
       <c r="A120" s="1" t="s">
         <v>222</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="12.5">
+    <row r="121" spans="1:12" ht="13.2">
       <c r="A121" s="1" t="s">
         <v>222</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="12.5">
+    <row r="122" spans="1:12" ht="13.2">
       <c r="A122" s="1" t="s">
         <v>222</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="12.5">
+    <row r="123" spans="1:12" ht="13.2">
       <c r="A123" s="1" t="s">
         <v>222</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="12.5">
+    <row r="124" spans="1:12" ht="13.2">
       <c r="A124" s="1" t="s">
         <v>222</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="12.5">
+    <row r="125" spans="1:12" ht="13.2">
       <c r="A125" s="1" t="s">
         <v>222</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="12.5">
+    <row r="126" spans="1:12" ht="13.2">
       <c r="A126" s="1" t="s">
         <v>222</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="12.5">
+    <row r="127" spans="1:12" ht="13.2">
       <c r="A127" s="1" t="s">
         <v>222</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="12.5">
+    <row r="128" spans="1:12" ht="13.2">
       <c r="A128" s="1" t="s">
         <v>222</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="12.5">
+    <row r="129" spans="1:12" ht="13.2">
       <c r="A129" s="1" t="s">
         <v>222</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="12.5">
+    <row r="130" spans="1:12" ht="13.2">
       <c r="A130" s="1" t="s">
         <v>222</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="12.5">
+    <row r="131" spans="1:12" ht="13.2">
       <c r="A131" s="1" t="s">
         <v>222</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="12.5">
+    <row r="132" spans="1:12" ht="13.2">
       <c r="A132" s="1" t="s">
         <v>222</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="12.5">
+    <row r="133" spans="1:12" ht="13.2">
       <c r="A133" s="1" t="s">
         <v>222</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="12.5">
+    <row r="134" spans="1:12" ht="13.2">
       <c r="A134" s="1" t="s">
         <v>222</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="12.5">
+    <row r="135" spans="1:12" ht="13.2">
       <c r="A135" s="1" t="s">
         <v>222</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="12.5">
+    <row r="136" spans="1:12" ht="13.2">
       <c r="A136" s="1" t="s">
         <v>222</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="12.5">
+    <row r="137" spans="1:12" ht="13.2">
       <c r="A137" s="1" t="s">
         <v>222</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="12.5">
+    <row r="138" spans="1:12" ht="13.2">
       <c r="A138" s="1" t="s">
         <v>222</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="12.5">
+    <row r="139" spans="1:12" ht="13.2">
       <c r="A139" s="1" t="s">
         <v>222</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="12.5">
+    <row r="140" spans="1:12" ht="13.2">
       <c r="A140" s="1" t="s">
         <v>222</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="12.5">
+    <row r="141" spans="1:12" ht="13.2">
       <c r="A141" s="1" t="s">
         <v>222</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="12.5">
+    <row r="142" spans="1:12" ht="13.2">
       <c r="A142" s="1" t="s">
         <v>222</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="12.5">
+    <row r="143" spans="1:12" ht="13.2">
       <c r="A143" s="1" t="s">
         <v>222</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="12.5">
+    <row r="144" spans="1:12" ht="13.2">
       <c r="A144" s="1" t="s">
         <v>222</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="12.5">
+    <row r="145" spans="1:12" ht="13.2">
       <c r="A145" s="1" t="s">
         <v>354</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="12.5">
+    <row r="146" spans="1:12" ht="13.2">
       <c r="A146" s="1" t="s">
         <v>354</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="12.5">
+    <row r="147" spans="1:12" ht="13.2">
       <c r="A147" s="1" t="s">
         <v>354</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="12.5">
+    <row r="148" spans="1:12" ht="13.2">
       <c r="A148" s="1" t="s">
         <v>354</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="12.5">
+    <row r="149" spans="1:12" ht="13.2">
       <c r="A149" s="1" t="s">
         <v>354</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="12.5">
+    <row r="150" spans="1:12" ht="13.2">
       <c r="A150" s="1" t="s">
         <v>354</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="12.5">
+    <row r="151" spans="1:12" ht="13.2">
       <c r="A151" s="1" t="s">
         <v>354</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="12.5">
+    <row r="152" spans="1:12" ht="13.2">
       <c r="A152" s="1" t="s">
         <v>354</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="12.5">
+    <row r="153" spans="1:12" ht="13.2">
       <c r="A153" s="1" t="s">
         <v>354</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="12.5">
+    <row r="154" spans="1:12" ht="13.2">
       <c r="A154" s="1" t="s">
         <v>354</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="12.5">
+    <row r="155" spans="1:12" ht="13.2">
       <c r="A155" s="1" t="s">
         <v>354</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="12.5">
+    <row r="156" spans="1:12" ht="13.2">
       <c r="A156" s="1" t="s">
         <v>354</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="12.5">
+    <row r="157" spans="1:12" ht="13.2">
       <c r="A157" s="1" t="s">
         <v>354</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="12.5">
+    <row r="158" spans="1:12" ht="13.2">
       <c r="A158" s="1" t="s">
         <v>354</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="12.5">
+    <row r="159" spans="1:12" ht="13.2">
       <c r="A159" s="1" t="s">
         <v>354</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="12.5">
+    <row r="160" spans="1:12" ht="13.2">
       <c r="A160" s="1" t="s">
         <v>354</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="12.5">
+    <row r="161" spans="1:12" ht="13.2">
       <c r="A161" s="1" t="s">
         <v>354</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="12.5">
+    <row r="162" spans="1:12" ht="13.2">
       <c r="A162" s="1" t="s">
         <v>354</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="12.5">
+    <row r="163" spans="1:12" ht="13.2">
       <c r="A163" s="1" t="s">
         <v>354</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="12.5">
+    <row r="164" spans="1:12" ht="13.2">
       <c r="A164" s="1" t="s">
         <v>354</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="12.5">
+    <row r="165" spans="1:12" ht="13.2">
       <c r="A165" s="1" t="s">
         <v>354</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="12.5">
+    <row r="166" spans="1:12" ht="13.2">
       <c r="A166" s="1" t="s">
         <v>354</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="12.5">
+    <row r="167" spans="1:12" ht="13.2">
       <c r="A167" s="1" t="s">
         <v>354</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="12.5">
+    <row r="168" spans="1:12" ht="13.2">
       <c r="A168" s="1" t="s">
         <v>354</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="12.5">
+    <row r="169" spans="1:12" ht="13.2">
       <c r="A169" s="1" t="s">
         <v>354</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="12.5">
+    <row r="170" spans="1:12" ht="13.2">
       <c r="A170" s="1" t="s">
         <v>354</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="12.5">
+    <row r="171" spans="1:12" ht="13.2">
       <c r="A171" s="1" t="s">
         <v>354</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="12.5">
+    <row r="172" spans="1:12" ht="13.2">
       <c r="A172" s="1" t="s">
         <v>354</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="12.5">
+    <row r="173" spans="1:12" ht="13.2">
       <c r="A173" s="1" t="s">
         <v>354</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="12.5">
+    <row r="174" spans="1:12" ht="13.2">
       <c r="A174" s="1" t="s">
         <v>354</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="12.5">
+    <row r="175" spans="1:12" ht="13.2">
       <c r="A175" s="1" t="s">
         <v>354</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="12.5">
+    <row r="176" spans="1:12" ht="13.2">
       <c r="A176" s="1" t="s">
         <v>354</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="12.5">
+    <row r="177" spans="1:12" ht="13.2">
       <c r="A177" s="1" t="s">
         <v>354</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="12.5">
+    <row r="178" spans="1:12" ht="13.2">
       <c r="A178" s="1" t="s">
         <v>354</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="12.5">
+    <row r="179" spans="1:12" ht="13.2">
       <c r="A179" s="1" t="s">
         <v>354</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="12.5">
+    <row r="180" spans="1:12" ht="13.2">
       <c r="A180" s="1" t="s">
         <v>354</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="12.5">
+    <row r="181" spans="1:12" ht="13.2">
       <c r="A181" s="1" t="s">
         <v>354</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="12.5">
+    <row r="182" spans="1:12" ht="13.2">
       <c r="A182" s="1" t="s">
         <v>354</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="12.5">
+    <row r="183" spans="1:12" ht="13.2">
       <c r="A183" s="1" t="s">
         <v>354</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="12.5">
+    <row r="184" spans="1:12" ht="13.2">
       <c r="A184" s="1" t="s">
         <v>354</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="12.5">
+    <row r="185" spans="1:12" ht="13.2">
       <c r="A185" s="1" t="s">
         <v>354</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="12.5">
+    <row r="186" spans="1:12" ht="13.2">
       <c r="A186" s="1" t="s">
         <v>354</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="12.5">
+    <row r="187" spans="1:12" ht="13.2">
       <c r="A187" s="1" t="s">
         <v>354</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="12.5">
+    <row r="188" spans="1:12" ht="13.2">
       <c r="A188" s="1" t="s">
         <v>354</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="12.5">
+    <row r="189" spans="1:12" ht="13.2">
       <c r="A189" s="1" t="s">
         <v>354</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="12.5">
+    <row r="190" spans="1:12" ht="13.2">
       <c r="A190" s="1" t="s">
         <v>354</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="12.5">
+    <row r="191" spans="1:12" ht="13.2">
       <c r="A191" s="1" t="s">
         <v>354</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="12.5">
+    <row r="192" spans="1:12" ht="13.2">
       <c r="A192" s="1" t="s">
         <v>354</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="12.5">
+    <row r="193" spans="1:12" ht="13.2">
       <c r="A193" s="1" t="s">
         <v>354</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="12.5">
+    <row r="194" spans="1:12" ht="13.2">
       <c r="A194" s="1" t="s">
         <v>354</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="12.5">
+    <row r="195" spans="1:12" ht="13.2">
       <c r="A195" s="1" t="s">
         <v>354</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="12.5">
+    <row r="196" spans="1:12" ht="13.2">
       <c r="A196" s="1" t="s">
         <v>354</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="12.5">
+    <row r="197" spans="1:12" ht="13.2">
       <c r="A197" s="1" t="s">
         <v>354</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="12.5">
+    <row r="198" spans="1:12" ht="13.2">
       <c r="A198" s="1" t="s">
         <v>354</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="12.5">
+    <row r="199" spans="1:12" ht="13.2">
       <c r="A199" s="1" t="s">
         <v>354</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="12.5">
+    <row r="200" spans="1:12" ht="13.2">
       <c r="A200" s="1" t="s">
         <v>354</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="12.5">
+    <row r="201" spans="1:12" ht="13.2">
       <c r="A201" s="1" t="s">
         <v>354</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="12.5">
+    <row r="202" spans="1:12" ht="13.2">
       <c r="A202" s="1" t="s">
         <v>354</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="12.5">
+    <row r="203" spans="1:12" ht="13.2">
       <c r="A203" s="1" t="s">
         <v>354</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="12.5">
+    <row r="204" spans="1:12" ht="13.2">
       <c r="A204" s="1" t="s">
         <v>354</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="12.5">
+    <row r="205" spans="1:12" ht="13.2">
       <c r="A205" s="1" t="s">
         <v>354</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="12.5">
+    <row r="206" spans="1:12" ht="13.2">
       <c r="A206" s="1" t="s">
         <v>354</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="12.5">
+    <row r="207" spans="1:12" ht="13.2">
       <c r="A207" s="1" t="s">
         <v>354</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="12.5">
+    <row r="208" spans="1:12" ht="13.2">
       <c r="A208" s="1" t="s">
         <v>354</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="12.5">
+    <row r="209" spans="1:12" ht="13.2">
       <c r="A209" s="1" t="s">
         <v>354</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="12.5">
+    <row r="210" spans="1:12" ht="13.2">
       <c r="A210" s="1" t="s">
         <v>354</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="12.5">
+    <row r="211" spans="1:12" ht="13.2">
       <c r="A211" s="1" t="s">
         <v>354</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="12.5">
+    <row r="212" spans="1:12" ht="13.2">
       <c r="A212" s="1" t="s">
         <v>354</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="12.5">
+    <row r="213" spans="1:12" ht="13.2">
       <c r="A213" s="1" t="s">
         <v>354</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="12.5">
+    <row r="214" spans="1:12" ht="13.2">
       <c r="A214" s="1" t="s">
         <v>354</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="12.5">
+    <row r="215" spans="1:12" ht="13.2">
       <c r="A215" s="1" t="s">
         <v>354</v>
       </c>
@@ -9103,3655 +9103,3655 @@
         <v>435</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="12.5">
+    <row r="216" spans="1:12" ht="13.2">
       <c r="F216" s="2"/>
       <c r="J216" s="7"/>
     </row>
-    <row r="217" spans="1:12" ht="12.5">
+    <row r="217" spans="1:12" ht="13.2">
       <c r="F217" s="2"/>
       <c r="J217" s="7"/>
     </row>
-    <row r="218" spans="1:12" ht="12.5">
+    <row r="218" spans="1:12" ht="13.2">
       <c r="F218" s="2"/>
       <c r="J218" s="7"/>
     </row>
-    <row r="219" spans="1:12" ht="12.5">
+    <row r="219" spans="1:12" ht="13.2">
       <c r="F219" s="2"/>
       <c r="J219" s="7"/>
     </row>
-    <row r="220" spans="1:12" ht="12.5">
+    <row r="220" spans="1:12" ht="13.2">
       <c r="F220" s="2"/>
       <c r="J220" s="7"/>
     </row>
-    <row r="221" spans="1:12" ht="12.5">
+    <row r="221" spans="1:12" ht="13.2">
       <c r="F221" s="2"/>
       <c r="J221" s="7"/>
     </row>
-    <row r="222" spans="1:12" ht="12.5">
+    <row r="222" spans="1:12" ht="13.2">
       <c r="F222" s="2"/>
       <c r="J222" s="7"/>
     </row>
-    <row r="223" spans="1:12" ht="12.5">
+    <row r="223" spans="1:12" ht="13.2">
       <c r="F223" s="2"/>
       <c r="J223" s="7"/>
     </row>
-    <row r="224" spans="1:12" ht="12.5">
+    <row r="224" spans="1:12" ht="13.2">
       <c r="F224" s="2"/>
       <c r="J224" s="7"/>
     </row>
-    <row r="225" spans="6:10" ht="12.5">
+    <row r="225" spans="6:10" ht="13.2">
       <c r="F225" s="2"/>
       <c r="J225" s="7"/>
     </row>
-    <row r="226" spans="6:10" ht="12.5">
+    <row r="226" spans="6:10" ht="13.2">
       <c r="F226" s="2"/>
       <c r="J226" s="7"/>
     </row>
-    <row r="227" spans="6:10" ht="12.5">
+    <row r="227" spans="6:10" ht="13.2">
       <c r="F227" s="2"/>
       <c r="J227" s="7"/>
     </row>
-    <row r="228" spans="6:10" ht="12.5">
+    <row r="228" spans="6:10" ht="13.2">
       <c r="F228" s="2"/>
       <c r="J228" s="8"/>
     </row>
-    <row r="229" spans="6:10" ht="14">
+    <row r="229" spans="6:10" ht="13.8">
       <c r="F229" s="2"/>
       <c r="J229" s="9"/>
     </row>
-    <row r="230" spans="6:10" ht="12.5">
+    <row r="230" spans="6:10" ht="13.2">
       <c r="F230" s="2"/>
       <c r="J230" s="2"/>
     </row>
-    <row r="231" spans="6:10" ht="12.5">
+    <row r="231" spans="6:10" ht="13.2">
       <c r="F231" s="2"/>
       <c r="J231" s="2"/>
     </row>
-    <row r="232" spans="6:10" ht="12.5">
+    <row r="232" spans="6:10" ht="13.2">
       <c r="F232" s="2"/>
       <c r="J232" s="2"/>
     </row>
-    <row r="233" spans="6:10" ht="12.5">
+    <row r="233" spans="6:10" ht="13.2">
       <c r="F233" s="2"/>
       <c r="J233" s="2"/>
     </row>
-    <row r="234" spans="6:10" ht="12.5">
+    <row r="234" spans="6:10" ht="13.2">
       <c r="F234" s="2"/>
       <c r="J234" s="2"/>
     </row>
-    <row r="235" spans="6:10" ht="12.5">
+    <row r="235" spans="6:10" ht="13.2">
       <c r="F235" s="2"/>
       <c r="J235" s="2"/>
     </row>
-    <row r="236" spans="6:10" ht="12.5">
+    <row r="236" spans="6:10" ht="13.2">
       <c r="F236" s="2"/>
       <c r="J236" s="2"/>
     </row>
-    <row r="237" spans="6:10" ht="12.5">
+    <row r="237" spans="6:10" ht="13.2">
       <c r="F237" s="2"/>
       <c r="J237" s="2"/>
     </row>
-    <row r="238" spans="6:10" ht="12.5">
+    <row r="238" spans="6:10" ht="13.2">
       <c r="F238" s="2"/>
       <c r="J238" s="2"/>
     </row>
-    <row r="239" spans="6:10" ht="12.5">
+    <row r="239" spans="6:10" ht="13.2">
       <c r="F239" s="2"/>
       <c r="J239" s="2"/>
     </row>
-    <row r="240" spans="6:10" ht="12.5">
+    <row r="240" spans="6:10" ht="13.2">
       <c r="F240" s="2"/>
       <c r="J240" s="2"/>
     </row>
-    <row r="241" spans="6:10" ht="12.5">
+    <row r="241" spans="6:10" ht="13.2">
       <c r="F241" s="2"/>
       <c r="J241" s="2"/>
     </row>
-    <row r="242" spans="6:10" ht="12.5">
+    <row r="242" spans="6:10" ht="13.2">
       <c r="F242" s="2"/>
       <c r="J242" s="2"/>
     </row>
-    <row r="243" spans="6:10" ht="12.5">
+    <row r="243" spans="6:10" ht="13.2">
       <c r="F243" s="2"/>
       <c r="J243" s="2"/>
     </row>
-    <row r="244" spans="6:10" ht="12.5">
+    <row r="244" spans="6:10" ht="13.2">
       <c r="F244" s="2"/>
       <c r="J244" s="2"/>
     </row>
-    <row r="245" spans="6:10" ht="12.5">
+    <row r="245" spans="6:10" ht="13.2">
       <c r="F245" s="2"/>
       <c r="J245" s="2"/>
     </row>
-    <row r="246" spans="6:10" ht="12.5">
+    <row r="246" spans="6:10" ht="13.2">
       <c r="F246" s="2"/>
       <c r="J246" s="2"/>
     </row>
-    <row r="247" spans="6:10" ht="12.5">
+    <row r="247" spans="6:10" ht="13.2">
       <c r="F247" s="2"/>
       <c r="J247" s="2"/>
     </row>
-    <row r="248" spans="6:10" ht="12.5">
+    <row r="248" spans="6:10" ht="13.2">
       <c r="F248" s="2"/>
       <c r="J248" s="2"/>
     </row>
-    <row r="249" spans="6:10" ht="12.5">
+    <row r="249" spans="6:10" ht="13.2">
       <c r="F249" s="2"/>
       <c r="J249" s="2"/>
     </row>
-    <row r="250" spans="6:10" ht="12.5">
+    <row r="250" spans="6:10" ht="13.2">
       <c r="F250" s="2"/>
       <c r="J250" s="2"/>
     </row>
-    <row r="251" spans="6:10" ht="12.5">
+    <row r="251" spans="6:10" ht="13.2">
       <c r="F251" s="2"/>
       <c r="J251" s="2"/>
     </row>
-    <row r="252" spans="6:10" ht="12.5">
+    <row r="252" spans="6:10" ht="13.2">
       <c r="F252" s="2"/>
       <c r="J252" s="2"/>
     </row>
-    <row r="253" spans="6:10" ht="12.5">
+    <row r="253" spans="6:10" ht="13.2">
       <c r="F253" s="2"/>
       <c r="J253" s="2"/>
     </row>
-    <row r="254" spans="6:10" ht="12.5">
+    <row r="254" spans="6:10" ht="13.2">
       <c r="F254" s="2"/>
       <c r="J254" s="2"/>
     </row>
-    <row r="255" spans="6:10" ht="12.5">
+    <row r="255" spans="6:10" ht="13.2">
       <c r="F255" s="2"/>
       <c r="J255" s="2"/>
     </row>
-    <row r="256" spans="6:10" ht="12.5">
+    <row r="256" spans="6:10" ht="13.2">
       <c r="F256" s="2"/>
       <c r="J256" s="2"/>
     </row>
-    <row r="257" spans="6:10" ht="12.5">
+    <row r="257" spans="6:10" ht="13.2">
       <c r="F257" s="2"/>
       <c r="J257" s="2"/>
     </row>
-    <row r="258" spans="6:10" ht="12.5">
+    <row r="258" spans="6:10" ht="13.2">
       <c r="F258" s="2"/>
       <c r="J258" s="2"/>
     </row>
-    <row r="259" spans="6:10" ht="12.5">
+    <row r="259" spans="6:10" ht="13.2">
       <c r="F259" s="2"/>
       <c r="J259" s="2"/>
     </row>
-    <row r="260" spans="6:10" ht="12.5">
+    <row r="260" spans="6:10" ht="13.2">
       <c r="F260" s="2"/>
       <c r="J260" s="2"/>
     </row>
-    <row r="261" spans="6:10" ht="12.5">
+    <row r="261" spans="6:10" ht="13.2">
       <c r="F261" s="2"/>
       <c r="J261" s="2"/>
     </row>
-    <row r="262" spans="6:10" ht="12.5">
+    <row r="262" spans="6:10" ht="13.2">
       <c r="F262" s="2"/>
       <c r="J262" s="2"/>
     </row>
-    <row r="263" spans="6:10" ht="12.5">
+    <row r="263" spans="6:10" ht="13.2">
       <c r="F263" s="2"/>
       <c r="J263" s="2"/>
     </row>
-    <row r="264" spans="6:10" ht="12.5">
+    <row r="264" spans="6:10" ht="13.2">
       <c r="F264" s="2"/>
       <c r="J264" s="2"/>
     </row>
-    <row r="265" spans="6:10" ht="12.5">
+    <row r="265" spans="6:10" ht="13.2">
       <c r="F265" s="2"/>
       <c r="J265" s="2"/>
     </row>
-    <row r="266" spans="6:10" ht="12.5">
+    <row r="266" spans="6:10" ht="13.2">
       <c r="F266" s="2"/>
       <c r="J266" s="2"/>
     </row>
-    <row r="267" spans="6:10" ht="12.5">
+    <row r="267" spans="6:10" ht="13.2">
       <c r="F267" s="2"/>
       <c r="J267" s="2"/>
     </row>
-    <row r="268" spans="6:10" ht="12.5">
+    <row r="268" spans="6:10" ht="13.2">
       <c r="F268" s="2"/>
       <c r="J268" s="2"/>
     </row>
-    <row r="269" spans="6:10" ht="12.5">
+    <row r="269" spans="6:10" ht="13.2">
       <c r="F269" s="2"/>
       <c r="J269" s="2"/>
     </row>
-    <row r="270" spans="6:10" ht="12.5">
+    <row r="270" spans="6:10" ht="13.2">
       <c r="F270" s="2"/>
       <c r="J270" s="2"/>
     </row>
-    <row r="271" spans="6:10" ht="12.5">
+    <row r="271" spans="6:10" ht="13.2">
       <c r="F271" s="2"/>
       <c r="J271" s="2"/>
     </row>
-    <row r="272" spans="6:10" ht="12.5">
+    <row r="272" spans="6:10" ht="13.2">
       <c r="F272" s="2"/>
       <c r="J272" s="2"/>
     </row>
-    <row r="273" spans="6:10" ht="12.5">
+    <row r="273" spans="6:10" ht="13.2">
       <c r="F273" s="2"/>
       <c r="J273" s="2"/>
     </row>
-    <row r="274" spans="6:10" ht="12.5">
+    <row r="274" spans="6:10" ht="13.2">
       <c r="F274" s="2"/>
       <c r="J274" s="2"/>
     </row>
-    <row r="275" spans="6:10" ht="12.5">
+    <row r="275" spans="6:10" ht="13.2">
       <c r="F275" s="2"/>
       <c r="J275" s="2"/>
     </row>
-    <row r="276" spans="6:10" ht="12.5">
+    <row r="276" spans="6:10" ht="13.2">
       <c r="F276" s="2"/>
       <c r="J276" s="2"/>
     </row>
-    <row r="277" spans="6:10" ht="12.5">
+    <row r="277" spans="6:10" ht="13.2">
       <c r="F277" s="2"/>
       <c r="J277" s="2"/>
     </row>
-    <row r="278" spans="6:10" ht="12.5">
+    <row r="278" spans="6:10" ht="13.2">
       <c r="F278" s="2"/>
       <c r="J278" s="2"/>
     </row>
-    <row r="279" spans="6:10" ht="12.5">
+    <row r="279" spans="6:10" ht="13.2">
       <c r="F279" s="2"/>
       <c r="J279" s="2"/>
     </row>
-    <row r="280" spans="6:10" ht="12.5">
+    <row r="280" spans="6:10" ht="13.2">
       <c r="F280" s="2"/>
       <c r="J280" s="2"/>
     </row>
-    <row r="281" spans="6:10" ht="12.5">
+    <row r="281" spans="6:10" ht="13.2">
       <c r="F281" s="2"/>
       <c r="J281" s="2"/>
     </row>
-    <row r="282" spans="6:10" ht="12.5">
+    <row r="282" spans="6:10" ht="13.2">
       <c r="F282" s="2"/>
       <c r="J282" s="2"/>
     </row>
-    <row r="283" spans="6:10" ht="12.5">
+    <row r="283" spans="6:10" ht="13.2">
       <c r="F283" s="2"/>
       <c r="J283" s="2"/>
     </row>
-    <row r="284" spans="6:10" ht="12.5">
+    <row r="284" spans="6:10" ht="13.2">
       <c r="F284" s="2"/>
       <c r="J284" s="2"/>
     </row>
-    <row r="285" spans="6:10" ht="12.5">
+    <row r="285" spans="6:10" ht="13.2">
       <c r="F285" s="2"/>
       <c r="J285" s="2"/>
     </row>
-    <row r="286" spans="6:10" ht="12.5">
+    <row r="286" spans="6:10" ht="13.2">
       <c r="F286" s="2"/>
       <c r="J286" s="2"/>
     </row>
-    <row r="287" spans="6:10" ht="12.5">
+    <row r="287" spans="6:10" ht="13.2">
       <c r="F287" s="2"/>
       <c r="J287" s="2"/>
     </row>
-    <row r="288" spans="6:10" ht="12.5">
+    <row r="288" spans="6:10" ht="13.2">
       <c r="F288" s="2"/>
       <c r="J288" s="2"/>
     </row>
-    <row r="289" spans="6:10" ht="12.5">
+    <row r="289" spans="6:10" ht="13.2">
       <c r="F289" s="2"/>
       <c r="J289" s="2"/>
     </row>
-    <row r="290" spans="6:10" ht="12.5">
+    <row r="290" spans="6:10" ht="13.2">
       <c r="F290" s="2"/>
       <c r="J290" s="2"/>
     </row>
-    <row r="291" spans="6:10" ht="12.5">
+    <row r="291" spans="6:10" ht="13.2">
       <c r="F291" s="2"/>
       <c r="J291" s="2"/>
     </row>
-    <row r="292" spans="6:10" ht="12.5">
+    <row r="292" spans="6:10" ht="13.2">
       <c r="F292" s="2"/>
       <c r="J292" s="2"/>
     </row>
-    <row r="293" spans="6:10" ht="12.5">
+    <row r="293" spans="6:10" ht="13.2">
       <c r="F293" s="2"/>
       <c r="J293" s="2"/>
     </row>
-    <row r="294" spans="6:10" ht="12.5">
+    <row r="294" spans="6:10" ht="13.2">
       <c r="F294" s="2"/>
       <c r="J294" s="2"/>
     </row>
-    <row r="295" spans="6:10" ht="12.5">
+    <row r="295" spans="6:10" ht="13.2">
       <c r="F295" s="2"/>
       <c r="J295" s="2"/>
     </row>
-    <row r="296" spans="6:10" ht="12.5">
+    <row r="296" spans="6:10" ht="13.2">
       <c r="F296" s="2"/>
       <c r="J296" s="2"/>
     </row>
-    <row r="297" spans="6:10" ht="12.5">
+    <row r="297" spans="6:10" ht="13.2">
       <c r="F297" s="2"/>
       <c r="J297" s="2"/>
     </row>
-    <row r="298" spans="6:10" ht="12.5">
+    <row r="298" spans="6:10" ht="13.2">
       <c r="F298" s="2"/>
       <c r="J298" s="2"/>
     </row>
-    <row r="299" spans="6:10" ht="12.5">
+    <row r="299" spans="6:10" ht="13.2">
       <c r="F299" s="2"/>
       <c r="J299" s="2"/>
     </row>
-    <row r="300" spans="6:10" ht="12.5">
+    <row r="300" spans="6:10" ht="13.2">
       <c r="F300" s="2"/>
       <c r="J300" s="2"/>
     </row>
-    <row r="301" spans="6:10" ht="12.5">
+    <row r="301" spans="6:10" ht="13.2">
       <c r="F301" s="2"/>
       <c r="J301" s="2"/>
     </row>
-    <row r="302" spans="6:10" ht="12.5">
+    <row r="302" spans="6:10" ht="13.2">
       <c r="F302" s="2"/>
       <c r="J302" s="2"/>
     </row>
-    <row r="303" spans="6:10" ht="12.5">
+    <row r="303" spans="6:10" ht="13.2">
       <c r="F303" s="2"/>
       <c r="J303" s="2"/>
     </row>
-    <row r="304" spans="6:10" ht="12.5">
+    <row r="304" spans="6:10" ht="13.2">
       <c r="F304" s="2"/>
       <c r="J304" s="2"/>
     </row>
-    <row r="305" spans="6:10" ht="12.5">
+    <row r="305" spans="6:10" ht="13.2">
       <c r="F305" s="2"/>
       <c r="J305" s="2"/>
     </row>
-    <row r="306" spans="6:10" ht="12.5">
+    <row r="306" spans="6:10" ht="13.2">
       <c r="F306" s="2"/>
       <c r="J306" s="2"/>
     </row>
-    <row r="307" spans="6:10" ht="12.5">
+    <row r="307" spans="6:10" ht="13.2">
       <c r="F307" s="2"/>
       <c r="J307" s="2"/>
     </row>
-    <row r="308" spans="6:10" ht="12.5">
+    <row r="308" spans="6:10" ht="13.2">
       <c r="F308" s="2"/>
       <c r="J308" s="2"/>
     </row>
-    <row r="309" spans="6:10" ht="12.5">
+    <row r="309" spans="6:10" ht="13.2">
       <c r="F309" s="2"/>
       <c r="J309" s="2"/>
     </row>
-    <row r="310" spans="6:10" ht="12.5">
+    <row r="310" spans="6:10" ht="13.2">
       <c r="F310" s="2"/>
       <c r="J310" s="2"/>
     </row>
-    <row r="311" spans="6:10" ht="12.5">
+    <row r="311" spans="6:10" ht="13.2">
       <c r="F311" s="2"/>
       <c r="J311" s="2"/>
     </row>
-    <row r="312" spans="6:10" ht="12.5">
+    <row r="312" spans="6:10" ht="13.2">
       <c r="F312" s="2"/>
       <c r="J312" s="2"/>
     </row>
-    <row r="313" spans="6:10" ht="12.5">
+    <row r="313" spans="6:10" ht="13.2">
       <c r="F313" s="2"/>
       <c r="J313" s="2"/>
     </row>
-    <row r="314" spans="6:10" ht="12.5">
+    <row r="314" spans="6:10" ht="13.2">
       <c r="F314" s="2"/>
       <c r="J314" s="2"/>
     </row>
-    <row r="315" spans="6:10" ht="12.5">
+    <row r="315" spans="6:10" ht="13.2">
       <c r="F315" s="2"/>
       <c r="J315" s="2"/>
     </row>
-    <row r="316" spans="6:10" ht="12.5">
+    <row r="316" spans="6:10" ht="13.2">
       <c r="F316" s="2"/>
       <c r="J316" s="2"/>
     </row>
-    <row r="317" spans="6:10" ht="12.5">
+    <row r="317" spans="6:10" ht="13.2">
       <c r="F317" s="2"/>
       <c r="J317" s="2"/>
     </row>
-    <row r="318" spans="6:10" ht="12.5">
+    <row r="318" spans="6:10" ht="13.2">
       <c r="F318" s="2"/>
       <c r="J318" s="2"/>
     </row>
-    <row r="319" spans="6:10" ht="12.5">
+    <row r="319" spans="6:10" ht="13.2">
       <c r="F319" s="2"/>
       <c r="J319" s="2"/>
     </row>
-    <row r="320" spans="6:10" ht="12.5">
+    <row r="320" spans="6:10" ht="13.2">
       <c r="F320" s="2"/>
       <c r="J320" s="2"/>
     </row>
-    <row r="321" spans="6:10" ht="12.5">
+    <row r="321" spans="6:10" ht="13.2">
       <c r="F321" s="2"/>
       <c r="J321" s="2"/>
     </row>
-    <row r="322" spans="6:10" ht="12.5">
+    <row r="322" spans="6:10" ht="13.2">
       <c r="F322" s="2"/>
       <c r="J322" s="2"/>
     </row>
-    <row r="323" spans="6:10" ht="12.5">
+    <row r="323" spans="6:10" ht="13.2">
       <c r="F323" s="2"/>
       <c r="J323" s="2"/>
     </row>
-    <row r="324" spans="6:10" ht="12.5">
+    <row r="324" spans="6:10" ht="13.2">
       <c r="F324" s="2"/>
       <c r="J324" s="2"/>
     </row>
-    <row r="325" spans="6:10" ht="12.5">
+    <row r="325" spans="6:10" ht="13.2">
       <c r="F325" s="2"/>
       <c r="J325" s="2"/>
     </row>
-    <row r="326" spans="6:10" ht="12.5">
+    <row r="326" spans="6:10" ht="13.2">
       <c r="F326" s="2"/>
       <c r="J326" s="2"/>
     </row>
-    <row r="327" spans="6:10" ht="12.5">
+    <row r="327" spans="6:10" ht="13.2">
       <c r="F327" s="2"/>
       <c r="J327" s="2"/>
     </row>
-    <row r="328" spans="6:10" ht="12.5">
+    <row r="328" spans="6:10" ht="13.2">
       <c r="F328" s="2"/>
       <c r="J328" s="2"/>
     </row>
-    <row r="329" spans="6:10" ht="12.5">
+    <row r="329" spans="6:10" ht="13.2">
       <c r="F329" s="2"/>
       <c r="J329" s="2"/>
     </row>
-    <row r="330" spans="6:10" ht="12.5">
+    <row r="330" spans="6:10" ht="13.2">
       <c r="F330" s="2"/>
       <c r="J330" s="2"/>
     </row>
-    <row r="331" spans="6:10" ht="12.5">
+    <row r="331" spans="6:10" ht="13.2">
       <c r="F331" s="2"/>
       <c r="J331" s="2"/>
     </row>
-    <row r="332" spans="6:10" ht="12.5">
+    <row r="332" spans="6:10" ht="13.2">
       <c r="F332" s="2"/>
       <c r="J332" s="2"/>
     </row>
-    <row r="333" spans="6:10" ht="12.5">
+    <row r="333" spans="6:10" ht="13.2">
       <c r="F333" s="2"/>
       <c r="J333" s="2"/>
     </row>
-    <row r="334" spans="6:10" ht="12.5">
+    <row r="334" spans="6:10" ht="13.2">
       <c r="F334" s="2"/>
       <c r="J334" s="2"/>
     </row>
-    <row r="335" spans="6:10" ht="12.5">
+    <row r="335" spans="6:10" ht="13.2">
       <c r="F335" s="2"/>
       <c r="J335" s="2"/>
     </row>
-    <row r="336" spans="6:10" ht="12.5">
+    <row r="336" spans="6:10" ht="13.2">
       <c r="F336" s="2"/>
       <c r="J336" s="2"/>
     </row>
-    <row r="337" spans="6:10" ht="12.5">
+    <row r="337" spans="6:10" ht="13.2">
       <c r="F337" s="2"/>
       <c r="J337" s="2"/>
     </row>
-    <row r="338" spans="6:10" ht="12.5">
+    <row r="338" spans="6:10" ht="13.2">
       <c r="F338" s="2"/>
       <c r="J338" s="2"/>
     </row>
-    <row r="339" spans="6:10" ht="12.5">
+    <row r="339" spans="6:10" ht="13.2">
       <c r="F339" s="2"/>
       <c r="J339" s="2"/>
     </row>
-    <row r="340" spans="6:10" ht="12.5">
+    <row r="340" spans="6:10" ht="13.2">
       <c r="F340" s="2"/>
       <c r="J340" s="2"/>
     </row>
-    <row r="341" spans="6:10" ht="12.5">
+    <row r="341" spans="6:10" ht="13.2">
       <c r="F341" s="2"/>
       <c r="J341" s="2"/>
     </row>
-    <row r="342" spans="6:10" ht="12.5">
+    <row r="342" spans="6:10" ht="13.2">
       <c r="F342" s="2"/>
       <c r="J342" s="2"/>
     </row>
-    <row r="343" spans="6:10" ht="12.5">
+    <row r="343" spans="6:10" ht="13.2">
       <c r="F343" s="2"/>
       <c r="J343" s="2"/>
     </row>
-    <row r="344" spans="6:10" ht="12.5">
+    <row r="344" spans="6:10" ht="13.2">
       <c r="F344" s="2"/>
       <c r="J344" s="2"/>
     </row>
-    <row r="345" spans="6:10" ht="12.5">
+    <row r="345" spans="6:10" ht="13.2">
       <c r="F345" s="2"/>
       <c r="J345" s="2"/>
     </row>
-    <row r="346" spans="6:10" ht="12.5">
+    <row r="346" spans="6:10" ht="13.2">
       <c r="F346" s="2"/>
       <c r="J346" s="2"/>
     </row>
-    <row r="347" spans="6:10" ht="12.5">
+    <row r="347" spans="6:10" ht="13.2">
       <c r="F347" s="2"/>
       <c r="J347" s="2"/>
     </row>
-    <row r="348" spans="6:10" ht="12.5">
+    <row r="348" spans="6:10" ht="13.2">
       <c r="F348" s="2"/>
       <c r="J348" s="2"/>
     </row>
-    <row r="349" spans="6:10" ht="12.5">
+    <row r="349" spans="6:10" ht="13.2">
       <c r="F349" s="2"/>
       <c r="J349" s="2"/>
     </row>
-    <row r="350" spans="6:10" ht="12.5">
+    <row r="350" spans="6:10" ht="13.2">
       <c r="F350" s="2"/>
       <c r="J350" s="2"/>
     </row>
-    <row r="351" spans="6:10" ht="12.5">
+    <row r="351" spans="6:10" ht="13.2">
       <c r="F351" s="2"/>
       <c r="J351" s="2"/>
     </row>
-    <row r="352" spans="6:10" ht="12.5">
+    <row r="352" spans="6:10" ht="13.2">
       <c r="F352" s="2"/>
       <c r="J352" s="2"/>
     </row>
-    <row r="353" spans="6:10" ht="12.5">
+    <row r="353" spans="6:10" ht="13.2">
       <c r="F353" s="2"/>
       <c r="J353" s="2"/>
     </row>
-    <row r="354" spans="6:10" ht="12.5">
+    <row r="354" spans="6:10" ht="13.2">
       <c r="F354" s="2"/>
       <c r="J354" s="2"/>
     </row>
-    <row r="355" spans="6:10" ht="12.5">
+    <row r="355" spans="6:10" ht="13.2">
       <c r="F355" s="2"/>
       <c r="J355" s="2"/>
     </row>
-    <row r="356" spans="6:10" ht="12.5">
+    <row r="356" spans="6:10" ht="13.2">
       <c r="F356" s="2"/>
       <c r="J356" s="2"/>
     </row>
-    <row r="357" spans="6:10" ht="12.5">
+    <row r="357" spans="6:10" ht="13.2">
       <c r="F357" s="2"/>
       <c r="J357" s="2"/>
     </row>
-    <row r="358" spans="6:10" ht="12.5">
+    <row r="358" spans="6:10" ht="13.2">
       <c r="F358" s="2"/>
       <c r="J358" s="2"/>
     </row>
-    <row r="359" spans="6:10" ht="12.5">
+    <row r="359" spans="6:10" ht="13.2">
       <c r="F359" s="2"/>
       <c r="J359" s="2"/>
     </row>
-    <row r="360" spans="6:10" ht="12.5">
+    <row r="360" spans="6:10" ht="13.2">
       <c r="F360" s="2"/>
       <c r="J360" s="2"/>
     </row>
-    <row r="361" spans="6:10" ht="12.5">
+    <row r="361" spans="6:10" ht="13.2">
       <c r="F361" s="2"/>
       <c r="J361" s="2"/>
     </row>
-    <row r="362" spans="6:10" ht="12.5">
+    <row r="362" spans="6:10" ht="13.2">
       <c r="F362" s="2"/>
       <c r="J362" s="2"/>
     </row>
-    <row r="363" spans="6:10" ht="12.5">
+    <row r="363" spans="6:10" ht="13.2">
       <c r="F363" s="2"/>
       <c r="J363" s="2"/>
     </row>
-    <row r="364" spans="6:10" ht="12.5">
+    <row r="364" spans="6:10" ht="13.2">
       <c r="F364" s="2"/>
       <c r="J364" s="2"/>
     </row>
-    <row r="365" spans="6:10" ht="12.5">
+    <row r="365" spans="6:10" ht="13.2">
       <c r="F365" s="2"/>
       <c r="J365" s="2"/>
     </row>
-    <row r="366" spans="6:10" ht="12.5">
+    <row r="366" spans="6:10" ht="13.2">
       <c r="F366" s="2"/>
       <c r="J366" s="2"/>
     </row>
-    <row r="367" spans="6:10" ht="12.5">
+    <row r="367" spans="6:10" ht="13.2">
       <c r="F367" s="2"/>
       <c r="J367" s="2"/>
     </row>
-    <row r="368" spans="6:10" ht="12.5">
+    <row r="368" spans="6:10" ht="13.2">
       <c r="F368" s="2"/>
       <c r="J368" s="2"/>
     </row>
-    <row r="369" spans="6:10" ht="12.5">
+    <row r="369" spans="6:10" ht="13.2">
       <c r="F369" s="2"/>
       <c r="J369" s="2"/>
     </row>
-    <row r="370" spans="6:10" ht="12.5">
+    <row r="370" spans="6:10" ht="13.2">
       <c r="F370" s="2"/>
       <c r="J370" s="2"/>
     </row>
-    <row r="371" spans="6:10" ht="12.5">
+    <row r="371" spans="6:10" ht="13.2">
       <c r="F371" s="2"/>
       <c r="J371" s="2"/>
     </row>
-    <row r="372" spans="6:10" ht="12.5">
+    <row r="372" spans="6:10" ht="13.2">
       <c r="F372" s="2"/>
       <c r="J372" s="2"/>
     </row>
-    <row r="373" spans="6:10" ht="12.5">
+    <row r="373" spans="6:10" ht="13.2">
       <c r="F373" s="2"/>
       <c r="J373" s="2"/>
     </row>
-    <row r="374" spans="6:10" ht="12.5">
+    <row r="374" spans="6:10" ht="13.2">
       <c r="F374" s="2"/>
       <c r="J374" s="2"/>
     </row>
-    <row r="375" spans="6:10" ht="12.5">
+    <row r="375" spans="6:10" ht="13.2">
       <c r="F375" s="2"/>
       <c r="J375" s="2"/>
     </row>
-    <row r="376" spans="6:10" ht="12.5">
+    <row r="376" spans="6:10" ht="13.2">
       <c r="F376" s="2"/>
       <c r="J376" s="2"/>
     </row>
-    <row r="377" spans="6:10" ht="12.5">
+    <row r="377" spans="6:10" ht="13.2">
       <c r="F377" s="2"/>
       <c r="J377" s="2"/>
     </row>
-    <row r="378" spans="6:10" ht="12.5">
+    <row r="378" spans="6:10" ht="13.2">
       <c r="F378" s="2"/>
       <c r="J378" s="2"/>
     </row>
-    <row r="379" spans="6:10" ht="12.5">
+    <row r="379" spans="6:10" ht="13.2">
       <c r="F379" s="2"/>
       <c r="J379" s="2"/>
     </row>
-    <row r="380" spans="6:10" ht="12.5">
+    <row r="380" spans="6:10" ht="13.2">
       <c r="F380" s="2"/>
       <c r="J380" s="2"/>
     </row>
-    <row r="381" spans="6:10" ht="12.5">
+    <row r="381" spans="6:10" ht="13.2">
       <c r="F381" s="2"/>
       <c r="J381" s="2"/>
     </row>
-    <row r="382" spans="6:10" ht="12.5">
+    <row r="382" spans="6:10" ht="13.2">
       <c r="F382" s="2"/>
       <c r="J382" s="2"/>
     </row>
-    <row r="383" spans="6:10" ht="12.5">
+    <row r="383" spans="6:10" ht="13.2">
       <c r="F383" s="2"/>
       <c r="J383" s="2"/>
     </row>
-    <row r="384" spans="6:10" ht="12.5">
+    <row r="384" spans="6:10" ht="13.2">
       <c r="F384" s="2"/>
       <c r="J384" s="2"/>
     </row>
-    <row r="385" spans="6:10" ht="12.5">
+    <row r="385" spans="6:10" ht="13.2">
       <c r="F385" s="2"/>
       <c r="J385" s="2"/>
     </row>
-    <row r="386" spans="6:10" ht="12.5">
+    <row r="386" spans="6:10" ht="13.2">
       <c r="F386" s="2"/>
       <c r="J386" s="2"/>
     </row>
-    <row r="387" spans="6:10" ht="12.5">
+    <row r="387" spans="6:10" ht="13.2">
       <c r="F387" s="2"/>
       <c r="J387" s="2"/>
     </row>
-    <row r="388" spans="6:10" ht="12.5">
+    <row r="388" spans="6:10" ht="13.2">
       <c r="F388" s="2"/>
       <c r="J388" s="2"/>
     </row>
-    <row r="389" spans="6:10" ht="12.5">
+    <row r="389" spans="6:10" ht="13.2">
       <c r="F389" s="2"/>
       <c r="J389" s="2"/>
     </row>
-    <row r="390" spans="6:10" ht="12.5">
+    <row r="390" spans="6:10" ht="13.2">
       <c r="F390" s="2"/>
       <c r="J390" s="2"/>
     </row>
-    <row r="391" spans="6:10" ht="12.5">
+    <row r="391" spans="6:10" ht="13.2">
       <c r="F391" s="2"/>
       <c r="J391" s="2"/>
     </row>
-    <row r="392" spans="6:10" ht="12.5">
+    <row r="392" spans="6:10" ht="13.2">
       <c r="F392" s="2"/>
       <c r="J392" s="2"/>
     </row>
-    <row r="393" spans="6:10" ht="12.5">
+    <row r="393" spans="6:10" ht="13.2">
       <c r="F393" s="2"/>
       <c r="J393" s="2"/>
     </row>
-    <row r="394" spans="6:10" ht="12.5">
+    <row r="394" spans="6:10" ht="13.2">
       <c r="F394" s="2"/>
       <c r="J394" s="2"/>
     </row>
-    <row r="395" spans="6:10" ht="12.5">
+    <row r="395" spans="6:10" ht="13.2">
       <c r="F395" s="2"/>
       <c r="J395" s="2"/>
     </row>
-    <row r="396" spans="6:10" ht="12.5">
+    <row r="396" spans="6:10" ht="13.2">
       <c r="F396" s="2"/>
       <c r="J396" s="2"/>
     </row>
-    <row r="397" spans="6:10" ht="12.5">
+    <row r="397" spans="6:10" ht="13.2">
       <c r="F397" s="2"/>
       <c r="J397" s="2"/>
     </row>
-    <row r="398" spans="6:10" ht="12.5">
+    <row r="398" spans="6:10" ht="13.2">
       <c r="F398" s="2"/>
       <c r="J398" s="2"/>
     </row>
-    <row r="399" spans="6:10" ht="12.5">
+    <row r="399" spans="6:10" ht="13.2">
       <c r="F399" s="2"/>
       <c r="J399" s="2"/>
     </row>
-    <row r="400" spans="6:10" ht="12.5">
+    <row r="400" spans="6:10" ht="13.2">
       <c r="F400" s="2"/>
       <c r="J400" s="2"/>
     </row>
-    <row r="401" spans="6:10" ht="12.5">
+    <row r="401" spans="6:10" ht="13.2">
       <c r="F401" s="2"/>
       <c r="J401" s="2"/>
     </row>
-    <row r="402" spans="6:10" ht="12.5">
+    <row r="402" spans="6:10" ht="13.2">
       <c r="F402" s="2"/>
       <c r="J402" s="2"/>
     </row>
-    <row r="403" spans="6:10" ht="12.5">
+    <row r="403" spans="6:10" ht="13.2">
       <c r="F403" s="2"/>
       <c r="J403" s="2"/>
     </row>
-    <row r="404" spans="6:10" ht="12.5">
+    <row r="404" spans="6:10" ht="13.2">
       <c r="F404" s="2"/>
       <c r="J404" s="2"/>
     </row>
-    <row r="405" spans="6:10" ht="12.5">
+    <row r="405" spans="6:10" ht="13.2">
       <c r="F405" s="2"/>
       <c r="J405" s="2"/>
     </row>
-    <row r="406" spans="6:10" ht="12.5">
+    <row r="406" spans="6:10" ht="13.2">
       <c r="F406" s="2"/>
       <c r="J406" s="2"/>
     </row>
-    <row r="407" spans="6:10" ht="12.5">
+    <row r="407" spans="6:10" ht="13.2">
       <c r="F407" s="2"/>
       <c r="J407" s="2"/>
     </row>
-    <row r="408" spans="6:10" ht="12.5">
+    <row r="408" spans="6:10" ht="13.2">
       <c r="F408" s="2"/>
       <c r="J408" s="2"/>
     </row>
-    <row r="409" spans="6:10" ht="12.5">
+    <row r="409" spans="6:10" ht="13.2">
       <c r="F409" s="2"/>
       <c r="J409" s="2"/>
     </row>
-    <row r="410" spans="6:10" ht="12.5">
+    <row r="410" spans="6:10" ht="13.2">
       <c r="F410" s="2"/>
       <c r="J410" s="2"/>
     </row>
-    <row r="411" spans="6:10" ht="12.5">
+    <row r="411" spans="6:10" ht="13.2">
       <c r="F411" s="2"/>
       <c r="J411" s="2"/>
     </row>
-    <row r="412" spans="6:10" ht="12.5">
+    <row r="412" spans="6:10" ht="13.2">
       <c r="F412" s="2"/>
       <c r="J412" s="2"/>
     </row>
-    <row r="413" spans="6:10" ht="12.5">
+    <row r="413" spans="6:10" ht="13.2">
       <c r="F413" s="2"/>
       <c r="J413" s="2"/>
     </row>
-    <row r="414" spans="6:10" ht="12.5">
+    <row r="414" spans="6:10" ht="13.2">
       <c r="F414" s="2"/>
       <c r="J414" s="2"/>
     </row>
-    <row r="415" spans="6:10" ht="12.5">
+    <row r="415" spans="6:10" ht="13.2">
       <c r="F415" s="2"/>
       <c r="J415" s="2"/>
     </row>
-    <row r="416" spans="6:10" ht="12.5">
+    <row r="416" spans="6:10" ht="13.2">
       <c r="F416" s="2"/>
       <c r="J416" s="2"/>
     </row>
-    <row r="417" spans="6:10" ht="12.5">
+    <row r="417" spans="6:10" ht="13.2">
       <c r="F417" s="2"/>
       <c r="J417" s="2"/>
     </row>
-    <row r="418" spans="6:10" ht="12.5">
+    <row r="418" spans="6:10" ht="13.2">
       <c r="F418" s="2"/>
       <c r="J418" s="2"/>
     </row>
-    <row r="419" spans="6:10" ht="12.5">
+    <row r="419" spans="6:10" ht="13.2">
       <c r="F419" s="2"/>
       <c r="J419" s="2"/>
     </row>
-    <row r="420" spans="6:10" ht="12.5">
+    <row r="420" spans="6:10" ht="13.2">
       <c r="F420" s="2"/>
       <c r="J420" s="2"/>
     </row>
-    <row r="421" spans="6:10" ht="12.5">
+    <row r="421" spans="6:10" ht="13.2">
       <c r="F421" s="2"/>
       <c r="J421" s="2"/>
     </row>
-    <row r="422" spans="6:10" ht="12.5">
+    <row r="422" spans="6:10" ht="13.2">
       <c r="F422" s="2"/>
       <c r="J422" s="2"/>
     </row>
-    <row r="423" spans="6:10" ht="12.5">
+    <row r="423" spans="6:10" ht="13.2">
       <c r="F423" s="2"/>
       <c r="J423" s="2"/>
     </row>
-    <row r="424" spans="6:10" ht="12.5">
+    <row r="424" spans="6:10" ht="13.2">
       <c r="F424" s="2"/>
       <c r="J424" s="2"/>
     </row>
-    <row r="425" spans="6:10" ht="12.5">
+    <row r="425" spans="6:10" ht="13.2">
       <c r="F425" s="2"/>
       <c r="J425" s="2"/>
     </row>
-    <row r="426" spans="6:10" ht="12.5">
+    <row r="426" spans="6:10" ht="13.2">
       <c r="F426" s="2"/>
       <c r="J426" s="2"/>
     </row>
-    <row r="427" spans="6:10" ht="12.5">
+    <row r="427" spans="6:10" ht="13.2">
       <c r="F427" s="2"/>
       <c r="J427" s="2"/>
     </row>
-    <row r="428" spans="6:10" ht="12.5">
+    <row r="428" spans="6:10" ht="13.2">
       <c r="F428" s="2"/>
       <c r="J428" s="2"/>
     </row>
-    <row r="429" spans="6:10" ht="12.5">
+    <row r="429" spans="6:10" ht="13.2">
       <c r="F429" s="2"/>
       <c r="J429" s="2"/>
     </row>
-    <row r="430" spans="6:10" ht="12.5">
+    <row r="430" spans="6:10" ht="13.2">
       <c r="F430" s="2"/>
       <c r="J430" s="2"/>
     </row>
-    <row r="431" spans="6:10" ht="12.5">
+    <row r="431" spans="6:10" ht="13.2">
       <c r="F431" s="2"/>
       <c r="J431" s="2"/>
     </row>
-    <row r="432" spans="6:10" ht="12.5">
+    <row r="432" spans="6:10" ht="13.2">
       <c r="F432" s="2"/>
       <c r="J432" s="2"/>
     </row>
-    <row r="433" spans="6:10" ht="12.5">
+    <row r="433" spans="6:10" ht="13.2">
       <c r="F433" s="2"/>
       <c r="J433" s="2"/>
     </row>
-    <row r="434" spans="6:10" ht="12.5">
+    <row r="434" spans="6:10" ht="13.2">
       <c r="F434" s="2"/>
       <c r="J434" s="2"/>
     </row>
-    <row r="435" spans="6:10" ht="12.5">
+    <row r="435" spans="6:10" ht="13.2">
       <c r="F435" s="2"/>
       <c r="J435" s="2"/>
     </row>
-    <row r="436" spans="6:10" ht="12.5">
+    <row r="436" spans="6:10" ht="13.2">
       <c r="F436" s="2"/>
       <c r="J436" s="2"/>
     </row>
-    <row r="437" spans="6:10" ht="12.5">
+    <row r="437" spans="6:10" ht="13.2">
       <c r="F437" s="2"/>
       <c r="J437" s="2"/>
     </row>
-    <row r="438" spans="6:10" ht="12.5">
+    <row r="438" spans="6:10" ht="13.2">
       <c r="F438" s="2"/>
       <c r="J438" s="2"/>
     </row>
-    <row r="439" spans="6:10" ht="12.5">
+    <row r="439" spans="6:10" ht="13.2">
       <c r="F439" s="2"/>
       <c r="J439" s="2"/>
     </row>
-    <row r="440" spans="6:10" ht="12.5">
+    <row r="440" spans="6:10" ht="13.2">
       <c r="F440" s="2"/>
       <c r="J440" s="2"/>
     </row>
-    <row r="441" spans="6:10" ht="12.5">
+    <row r="441" spans="6:10" ht="13.2">
       <c r="F441" s="2"/>
       <c r="J441" s="2"/>
     </row>
-    <row r="442" spans="6:10" ht="12.5">
+    <row r="442" spans="6:10" ht="13.2">
       <c r="F442" s="2"/>
       <c r="J442" s="2"/>
     </row>
-    <row r="443" spans="6:10" ht="12.5">
+    <row r="443" spans="6:10" ht="13.2">
       <c r="F443" s="2"/>
       <c r="J443" s="2"/>
     </row>
-    <row r="444" spans="6:10" ht="12.5">
+    <row r="444" spans="6:10" ht="13.2">
       <c r="F444" s="2"/>
       <c r="J444" s="2"/>
     </row>
-    <row r="445" spans="6:10" ht="12.5">
+    <row r="445" spans="6:10" ht="13.2">
       <c r="F445" s="2"/>
       <c r="J445" s="2"/>
     </row>
-    <row r="446" spans="6:10" ht="12.5">
+    <row r="446" spans="6:10" ht="13.2">
       <c r="F446" s="2"/>
       <c r="J446" s="2"/>
     </row>
-    <row r="447" spans="6:10" ht="12.5">
+    <row r="447" spans="6:10" ht="13.2">
       <c r="F447" s="2"/>
       <c r="J447" s="2"/>
     </row>
-    <row r="448" spans="6:10" ht="12.5">
+    <row r="448" spans="6:10" ht="13.2">
       <c r="F448" s="2"/>
       <c r="J448" s="2"/>
     </row>
-    <row r="449" spans="6:10" ht="12.5">
+    <row r="449" spans="6:10" ht="13.2">
       <c r="F449" s="2"/>
       <c r="J449" s="2"/>
     </row>
-    <row r="450" spans="6:10" ht="12.5">
+    <row r="450" spans="6:10" ht="13.2">
       <c r="F450" s="2"/>
       <c r="J450" s="2"/>
     </row>
-    <row r="451" spans="6:10" ht="12.5">
+    <row r="451" spans="6:10" ht="13.2">
       <c r="F451" s="2"/>
       <c r="J451" s="2"/>
     </row>
-    <row r="452" spans="6:10" ht="12.5">
+    <row r="452" spans="6:10" ht="13.2">
       <c r="F452" s="2"/>
       <c r="J452" s="2"/>
     </row>
-    <row r="453" spans="6:10" ht="12.5">
+    <row r="453" spans="6:10" ht="13.2">
       <c r="F453" s="2"/>
       <c r="J453" s="2"/>
     </row>
-    <row r="454" spans="6:10" ht="12.5">
+    <row r="454" spans="6:10" ht="13.2">
       <c r="F454" s="2"/>
       <c r="J454" s="2"/>
     </row>
-    <row r="455" spans="6:10" ht="12.5">
+    <row r="455" spans="6:10" ht="13.2">
       <c r="F455" s="2"/>
       <c r="J455" s="2"/>
     </row>
-    <row r="456" spans="6:10" ht="12.5">
+    <row r="456" spans="6:10" ht="13.2">
       <c r="F456" s="2"/>
       <c r="J456" s="2"/>
     </row>
-    <row r="457" spans="6:10" ht="12.5">
+    <row r="457" spans="6:10" ht="13.2">
       <c r="F457" s="2"/>
       <c r="J457" s="2"/>
     </row>
-    <row r="458" spans="6:10" ht="12.5">
+    <row r="458" spans="6:10" ht="13.2">
       <c r="F458" s="2"/>
       <c r="J458" s="2"/>
     </row>
-    <row r="459" spans="6:10" ht="12.5">
+    <row r="459" spans="6:10" ht="13.2">
       <c r="F459" s="2"/>
       <c r="J459" s="2"/>
     </row>
-    <row r="460" spans="6:10" ht="12.5">
+    <row r="460" spans="6:10" ht="13.2">
       <c r="F460" s="2"/>
       <c r="J460" s="2"/>
     </row>
-    <row r="461" spans="6:10" ht="12.5">
+    <row r="461" spans="6:10" ht="13.2">
       <c r="F461" s="2"/>
       <c r="J461" s="2"/>
     </row>
-    <row r="462" spans="6:10" ht="12.5">
+    <row r="462" spans="6:10" ht="13.2">
       <c r="F462" s="2"/>
       <c r="J462" s="2"/>
     </row>
-    <row r="463" spans="6:10" ht="12.5">
+    <row r="463" spans="6:10" ht="13.2">
       <c r="F463" s="2"/>
       <c r="J463" s="2"/>
     </row>
-    <row r="464" spans="6:10" ht="12.5">
+    <row r="464" spans="6:10" ht="13.2">
       <c r="F464" s="2"/>
       <c r="J464" s="2"/>
     </row>
-    <row r="465" spans="6:10" ht="12.5">
+    <row r="465" spans="6:10" ht="13.2">
       <c r="F465" s="2"/>
       <c r="J465" s="2"/>
     </row>
-    <row r="466" spans="6:10" ht="12.5">
+    <row r="466" spans="6:10" ht="13.2">
       <c r="F466" s="2"/>
       <c r="J466" s="2"/>
     </row>
-    <row r="467" spans="6:10" ht="12.5">
+    <row r="467" spans="6:10" ht="13.2">
       <c r="F467" s="2"/>
       <c r="J467" s="2"/>
     </row>
-    <row r="468" spans="6:10" ht="12.5">
+    <row r="468" spans="6:10" ht="13.2">
       <c r="F468" s="2"/>
       <c r="J468" s="2"/>
     </row>
-    <row r="469" spans="6:10" ht="12.5">
+    <row r="469" spans="6:10" ht="13.2">
       <c r="F469" s="2"/>
       <c r="J469" s="2"/>
     </row>
-    <row r="470" spans="6:10" ht="12.5">
+    <row r="470" spans="6:10" ht="13.2">
       <c r="F470" s="2"/>
       <c r="J470" s="2"/>
     </row>
-    <row r="471" spans="6:10" ht="12.5">
+    <row r="471" spans="6:10" ht="13.2">
       <c r="F471" s="2"/>
       <c r="J471" s="2"/>
     </row>
-    <row r="472" spans="6:10" ht="12.5">
+    <row r="472" spans="6:10" ht="13.2">
       <c r="F472" s="2"/>
       <c r="J472" s="2"/>
     </row>
-    <row r="473" spans="6:10" ht="12.5">
+    <row r="473" spans="6:10" ht="13.2">
       <c r="F473" s="2"/>
       <c r="J473" s="2"/>
     </row>
-    <row r="474" spans="6:10" ht="12.5">
+    <row r="474" spans="6:10" ht="13.2">
       <c r="F474" s="2"/>
       <c r="J474" s="2"/>
     </row>
-    <row r="475" spans="6:10" ht="12.5">
+    <row r="475" spans="6:10" ht="13.2">
       <c r="F475" s="2"/>
       <c r="J475" s="2"/>
     </row>
-    <row r="476" spans="6:10" ht="12.5">
+    <row r="476" spans="6:10" ht="13.2">
       <c r="F476" s="2"/>
       <c r="J476" s="2"/>
     </row>
-    <row r="477" spans="6:10" ht="12.5">
+    <row r="477" spans="6:10" ht="13.2">
       <c r="F477" s="2"/>
       <c r="J477" s="2"/>
     </row>
-    <row r="478" spans="6:10" ht="12.5">
+    <row r="478" spans="6:10" ht="13.2">
       <c r="F478" s="2"/>
       <c r="J478" s="2"/>
     </row>
-    <row r="479" spans="6:10" ht="12.5">
+    <row r="479" spans="6:10" ht="13.2">
       <c r="F479" s="2"/>
       <c r="J479" s="2"/>
     </row>
-    <row r="480" spans="6:10" ht="12.5">
+    <row r="480" spans="6:10" ht="13.2">
       <c r="F480" s="2"/>
       <c r="J480" s="2"/>
     </row>
-    <row r="481" spans="6:10" ht="12.5">
+    <row r="481" spans="6:10" ht="13.2">
       <c r="F481" s="2"/>
       <c r="J481" s="2"/>
     </row>
-    <row r="482" spans="6:10" ht="12.5">
+    <row r="482" spans="6:10" ht="13.2">
       <c r="F482" s="2"/>
       <c r="J482" s="2"/>
     </row>
-    <row r="483" spans="6:10" ht="12.5">
+    <row r="483" spans="6:10" ht="13.2">
       <c r="F483" s="2"/>
       <c r="J483" s="2"/>
     </row>
-    <row r="484" spans="6:10" ht="12.5">
+    <row r="484" spans="6:10" ht="13.2">
       <c r="F484" s="2"/>
       <c r="J484" s="2"/>
     </row>
-    <row r="485" spans="6:10" ht="12.5">
+    <row r="485" spans="6:10" ht="13.2">
       <c r="F485" s="2"/>
       <c r="J485" s="2"/>
     </row>
-    <row r="486" spans="6:10" ht="12.5">
+    <row r="486" spans="6:10" ht="13.2">
       <c r="F486" s="2"/>
       <c r="J486" s="2"/>
     </row>
-    <row r="487" spans="6:10" ht="12.5">
+    <row r="487" spans="6:10" ht="13.2">
       <c r="F487" s="2"/>
       <c r="J487" s="2"/>
     </row>
-    <row r="488" spans="6:10" ht="12.5">
+    <row r="488" spans="6:10" ht="13.2">
       <c r="F488" s="2"/>
       <c r="J488" s="2"/>
     </row>
-    <row r="489" spans="6:10" ht="12.5">
+    <row r="489" spans="6:10" ht="13.2">
       <c r="F489" s="2"/>
       <c r="J489" s="2"/>
     </row>
-    <row r="490" spans="6:10" ht="12.5">
+    <row r="490" spans="6:10" ht="13.2">
       <c r="F490" s="2"/>
       <c r="J490" s="2"/>
     </row>
-    <row r="491" spans="6:10" ht="12.5">
+    <row r="491" spans="6:10" ht="13.2">
       <c r="F491" s="2"/>
       <c r="J491" s="2"/>
     </row>
-    <row r="492" spans="6:10" ht="12.5">
+    <row r="492" spans="6:10" ht="13.2">
       <c r="F492" s="2"/>
       <c r="J492" s="2"/>
     </row>
-    <row r="493" spans="6:10" ht="12.5">
+    <row r="493" spans="6:10" ht="13.2">
       <c r="F493" s="2"/>
       <c r="J493" s="2"/>
     </row>
-    <row r="494" spans="6:10" ht="12.5">
+    <row r="494" spans="6:10" ht="13.2">
       <c r="F494" s="2"/>
       <c r="J494" s="2"/>
     </row>
-    <row r="495" spans="6:10" ht="12.5">
+    <row r="495" spans="6:10" ht="13.2">
       <c r="F495" s="2"/>
       <c r="J495" s="2"/>
     </row>
-    <row r="496" spans="6:10" ht="12.5">
+    <row r="496" spans="6:10" ht="13.2">
       <c r="F496" s="2"/>
       <c r="J496" s="2"/>
     </row>
-    <row r="497" spans="6:10" ht="12.5">
+    <row r="497" spans="6:10" ht="13.2">
       <c r="F497" s="2"/>
       <c r="J497" s="2"/>
     </row>
-    <row r="498" spans="6:10" ht="12.5">
+    <row r="498" spans="6:10" ht="13.2">
       <c r="F498" s="2"/>
       <c r="J498" s="2"/>
     </row>
-    <row r="499" spans="6:10" ht="12.5">
+    <row r="499" spans="6:10" ht="13.2">
       <c r="F499" s="2"/>
       <c r="J499" s="2"/>
     </row>
-    <row r="500" spans="6:10" ht="12.5">
+    <row r="500" spans="6:10" ht="13.2">
       <c r="F500" s="2"/>
       <c r="J500" s="2"/>
     </row>
-    <row r="501" spans="6:10" ht="12.5">
+    <row r="501" spans="6:10" ht="13.2">
       <c r="F501" s="2"/>
       <c r="J501" s="2"/>
     </row>
-    <row r="502" spans="6:10" ht="12.5">
+    <row r="502" spans="6:10" ht="13.2">
       <c r="F502" s="2"/>
       <c r="J502" s="2"/>
     </row>
-    <row r="503" spans="6:10" ht="12.5">
+    <row r="503" spans="6:10" ht="13.2">
       <c r="F503" s="2"/>
       <c r="J503" s="2"/>
     </row>
-    <row r="504" spans="6:10" ht="12.5">
+    <row r="504" spans="6:10" ht="13.2">
       <c r="F504" s="2"/>
       <c r="J504" s="2"/>
     </row>
-    <row r="505" spans="6:10" ht="12.5">
+    <row r="505" spans="6:10" ht="13.2">
       <c r="F505" s="2"/>
       <c r="J505" s="2"/>
     </row>
-    <row r="506" spans="6:10" ht="12.5">
+    <row r="506" spans="6:10" ht="13.2">
       <c r="F506" s="2"/>
       <c r="J506" s="2"/>
     </row>
-    <row r="507" spans="6:10" ht="12.5">
+    <row r="507" spans="6:10" ht="13.2">
       <c r="F507" s="2"/>
       <c r="J507" s="2"/>
     </row>
-    <row r="508" spans="6:10" ht="12.5">
+    <row r="508" spans="6:10" ht="13.2">
       <c r="F508" s="2"/>
       <c r="J508" s="2"/>
     </row>
-    <row r="509" spans="6:10" ht="12.5">
+    <row r="509" spans="6:10" ht="13.2">
       <c r="F509" s="2"/>
       <c r="J509" s="2"/>
     </row>
-    <row r="510" spans="6:10" ht="12.5">
+    <row r="510" spans="6:10" ht="13.2">
       <c r="F510" s="2"/>
       <c r="J510" s="2"/>
     </row>
-    <row r="511" spans="6:10" ht="12.5">
+    <row r="511" spans="6:10" ht="13.2">
       <c r="F511" s="2"/>
       <c r="J511" s="2"/>
     </row>
-    <row r="512" spans="6:10" ht="12.5">
+    <row r="512" spans="6:10" ht="13.2">
       <c r="F512" s="2"/>
       <c r="J512" s="2"/>
     </row>
-    <row r="513" spans="6:10" ht="12.5">
+    <row r="513" spans="6:10" ht="13.2">
       <c r="F513" s="2"/>
       <c r="J513" s="2"/>
     </row>
-    <row r="514" spans="6:10" ht="12.5">
+    <row r="514" spans="6:10" ht="13.2">
       <c r="F514" s="2"/>
       <c r="J514" s="2"/>
     </row>
-    <row r="515" spans="6:10" ht="12.5">
+    <row r="515" spans="6:10" ht="13.2">
       <c r="F515" s="2"/>
       <c r="J515" s="2"/>
     </row>
-    <row r="516" spans="6:10" ht="12.5">
+    <row r="516" spans="6:10" ht="13.2">
       <c r="F516" s="2"/>
       <c r="J516" s="2"/>
     </row>
-    <row r="517" spans="6:10" ht="12.5">
+    <row r="517" spans="6:10" ht="13.2">
       <c r="F517" s="2"/>
       <c r="J517" s="2"/>
     </row>
-    <row r="518" spans="6:10" ht="12.5">
+    <row r="518" spans="6:10" ht="13.2">
       <c r="F518" s="2"/>
       <c r="J518" s="2"/>
     </row>
-    <row r="519" spans="6:10" ht="12.5">
+    <row r="519" spans="6:10" ht="13.2">
       <c r="F519" s="2"/>
       <c r="J519" s="2"/>
     </row>
-    <row r="520" spans="6:10" ht="12.5">
+    <row r="520" spans="6:10" ht="13.2">
       <c r="F520" s="2"/>
       <c r="J520" s="2"/>
     </row>
-    <row r="521" spans="6:10" ht="12.5">
+    <row r="521" spans="6:10" ht="13.2">
       <c r="F521" s="2"/>
       <c r="J521" s="2"/>
     </row>
-    <row r="522" spans="6:10" ht="12.5">
+    <row r="522" spans="6:10" ht="13.2">
       <c r="F522" s="2"/>
       <c r="J522" s="2"/>
     </row>
-    <row r="523" spans="6:10" ht="12.5">
+    <row r="523" spans="6:10" ht="13.2">
       <c r="F523" s="2"/>
       <c r="J523" s="2"/>
     </row>
-    <row r="524" spans="6:10" ht="12.5">
+    <row r="524" spans="6:10" ht="13.2">
       <c r="F524" s="2"/>
       <c r="J524" s="2"/>
     </row>
-    <row r="525" spans="6:10" ht="12.5">
+    <row r="525" spans="6:10" ht="13.2">
       <c r="F525" s="2"/>
       <c r="J525" s="2"/>
     </row>
-    <row r="526" spans="6:10" ht="12.5">
+    <row r="526" spans="6:10" ht="13.2">
       <c r="F526" s="2"/>
       <c r="J526" s="2"/>
     </row>
-    <row r="527" spans="6:10" ht="12.5">
+    <row r="527" spans="6:10" ht="13.2">
       <c r="F527" s="2"/>
       <c r="J527" s="2"/>
     </row>
-    <row r="528" spans="6:10" ht="12.5">
+    <row r="528" spans="6:10" ht="13.2">
       <c r="F528" s="2"/>
       <c r="J528" s="2"/>
     </row>
-    <row r="529" spans="6:10" ht="12.5">
+    <row r="529" spans="6:10" ht="13.2">
       <c r="F529" s="2"/>
       <c r="J529" s="2"/>
     </row>
-    <row r="530" spans="6:10" ht="12.5">
+    <row r="530" spans="6:10" ht="13.2">
       <c r="F530" s="2"/>
       <c r="J530" s="2"/>
     </row>
-    <row r="531" spans="6:10" ht="12.5">
+    <row r="531" spans="6:10" ht="13.2">
       <c r="F531" s="2"/>
       <c r="J531" s="2"/>
     </row>
-    <row r="532" spans="6:10" ht="12.5">
+    <row r="532" spans="6:10" ht="13.2">
       <c r="F532" s="2"/>
       <c r="J532" s="2"/>
     </row>
-    <row r="533" spans="6:10" ht="12.5">
+    <row r="533" spans="6:10" ht="13.2">
       <c r="F533" s="2"/>
       <c r="J533" s="2"/>
     </row>
-    <row r="534" spans="6:10" ht="12.5">
+    <row r="534" spans="6:10" ht="13.2">
       <c r="F534" s="2"/>
       <c r="J534" s="2"/>
     </row>
-    <row r="535" spans="6:10" ht="12.5">
+    <row r="535" spans="6:10" ht="13.2">
       <c r="F535" s="2"/>
       <c r="J535" s="2"/>
     </row>
-    <row r="536" spans="6:10" ht="12.5">
+    <row r="536" spans="6:10" ht="13.2">
       <c r="F536" s="2"/>
       <c r="J536" s="2"/>
     </row>
-    <row r="537" spans="6:10" ht="12.5">
+    <row r="537" spans="6:10" ht="13.2">
       <c r="F537" s="2"/>
       <c r="J537" s="2"/>
     </row>
-    <row r="538" spans="6:10" ht="12.5">
+    <row r="538" spans="6:10" ht="13.2">
       <c r="F538" s="2"/>
       <c r="J538" s="2"/>
     </row>
-    <row r="539" spans="6:10" ht="12.5">
+    <row r="539" spans="6:10" ht="13.2">
       <c r="F539" s="2"/>
       <c r="J539" s="2"/>
     </row>
-    <row r="540" spans="6:10" ht="12.5">
+    <row r="540" spans="6:10" ht="13.2">
       <c r="F540" s="2"/>
       <c r="J540" s="2"/>
     </row>
-    <row r="541" spans="6:10" ht="12.5">
+    <row r="541" spans="6:10" ht="13.2">
       <c r="F541" s="2"/>
       <c r="J541" s="2"/>
     </row>
-    <row r="542" spans="6:10" ht="12.5">
+    <row r="542" spans="6:10" ht="13.2">
       <c r="F542" s="2"/>
       <c r="J542" s="2"/>
     </row>
-    <row r="543" spans="6:10" ht="12.5">
+    <row r="543" spans="6:10" ht="13.2">
       <c r="F543" s="2"/>
       <c r="J543" s="2"/>
     </row>
-    <row r="544" spans="6:10" ht="12.5">
+    <row r="544" spans="6:10" ht="13.2">
       <c r="F544" s="2"/>
       <c r="J544" s="2"/>
     </row>
-    <row r="545" spans="6:10" ht="12.5">
+    <row r="545" spans="6:10" ht="13.2">
       <c r="F545" s="2"/>
       <c r="J545" s="2"/>
     </row>
-    <row r="546" spans="6:10" ht="12.5">
+    <row r="546" spans="6:10" ht="13.2">
       <c r="F546" s="2"/>
       <c r="J546" s="2"/>
     </row>
-    <row r="547" spans="6:10" ht="12.5">
+    <row r="547" spans="6:10" ht="13.2">
       <c r="F547" s="2"/>
       <c r="J547" s="2"/>
     </row>
-    <row r="548" spans="6:10" ht="12.5">
+    <row r="548" spans="6:10" ht="13.2">
       <c r="F548" s="2"/>
       <c r="J548" s="2"/>
     </row>
-    <row r="549" spans="6:10" ht="12.5">
+    <row r="549" spans="6:10" ht="13.2">
       <c r="F549" s="2"/>
       <c r="J549" s="2"/>
     </row>
-    <row r="550" spans="6:10" ht="12.5">
+    <row r="550" spans="6:10" ht="13.2">
       <c r="F550" s="2"/>
       <c r="J550" s="2"/>
     </row>
-    <row r="551" spans="6:10" ht="12.5">
+    <row r="551" spans="6:10" ht="13.2">
       <c r="F551" s="2"/>
       <c r="J551" s="2"/>
     </row>
-    <row r="552" spans="6:10" ht="12.5">
+    <row r="552" spans="6:10" ht="13.2">
       <c r="F552" s="2"/>
       <c r="J552" s="2"/>
     </row>
-    <row r="553" spans="6:10" ht="12.5">
+    <row r="553" spans="6:10" ht="13.2">
       <c r="F553" s="2"/>
       <c r="J553" s="2"/>
     </row>
-    <row r="554" spans="6:10" ht="12.5">
+    <row r="554" spans="6:10" ht="13.2">
       <c r="F554" s="2"/>
       <c r="J554" s="2"/>
     </row>
-    <row r="555" spans="6:10" ht="12.5">
+    <row r="555" spans="6:10" ht="13.2">
       <c r="F555" s="2"/>
       <c r="J555" s="2"/>
     </row>
-    <row r="556" spans="6:10" ht="12.5">
+    <row r="556" spans="6:10" ht="13.2">
       <c r="F556" s="2"/>
       <c r="J556" s="2"/>
     </row>
-    <row r="557" spans="6:10" ht="12.5">
+    <row r="557" spans="6:10" ht="13.2">
       <c r="F557" s="2"/>
       <c r="J557" s="2"/>
     </row>
-    <row r="558" spans="6:10" ht="12.5">
+    <row r="558" spans="6:10" ht="13.2">
       <c r="F558" s="2"/>
       <c r="J558" s="2"/>
     </row>
-    <row r="559" spans="6:10" ht="12.5">
+    <row r="559" spans="6:10" ht="13.2">
       <c r="F559" s="2"/>
       <c r="J559" s="2"/>
     </row>
-    <row r="560" spans="6:10" ht="12.5">
+    <row r="560" spans="6:10" ht="13.2">
       <c r="F560" s="2"/>
       <c r="J560" s="2"/>
     </row>
-    <row r="561" spans="6:10" ht="12.5">
+    <row r="561" spans="6:10" ht="13.2">
       <c r="F561" s="2"/>
       <c r="J561" s="2"/>
     </row>
-    <row r="562" spans="6:10" ht="12.5">
+    <row r="562" spans="6:10" ht="13.2">
       <c r="F562" s="2"/>
       <c r="J562" s="2"/>
     </row>
-    <row r="563" spans="6:10" ht="12.5">
+    <row r="563" spans="6:10" ht="13.2">
       <c r="F563" s="2"/>
       <c r="J563" s="2"/>
     </row>
-    <row r="564" spans="6:10" ht="12.5">
+    <row r="564" spans="6:10" ht="13.2">
       <c r="F564" s="2"/>
       <c r="J564" s="2"/>
     </row>
-    <row r="565" spans="6:10" ht="12.5">
+    <row r="565" spans="6:10" ht="13.2">
       <c r="F565" s="2"/>
       <c r="J565" s="2"/>
     </row>
-    <row r="566" spans="6:10" ht="12.5">
+    <row r="566" spans="6:10" ht="13.2">
       <c r="F566" s="2"/>
       <c r="J566" s="2"/>
     </row>
-    <row r="567" spans="6:10" ht="12.5">
+    <row r="567" spans="6:10" ht="13.2">
       <c r="F567" s="2"/>
       <c r="J567" s="2"/>
     </row>
-    <row r="568" spans="6:10" ht="12.5">
+    <row r="568" spans="6:10" ht="13.2">
       <c r="F568" s="2"/>
       <c r="J568" s="2"/>
     </row>
-    <row r="569" spans="6:10" ht="12.5">
+    <row r="569" spans="6:10" ht="13.2">
       <c r="F569" s="2"/>
       <c r="J569" s="2"/>
     </row>
-    <row r="570" spans="6:10" ht="12.5">
+    <row r="570" spans="6:10" ht="13.2">
       <c r="F570" s="2"/>
       <c r="J570" s="2"/>
     </row>
-    <row r="571" spans="6:10" ht="12.5">
+    <row r="571" spans="6:10" ht="13.2">
       <c r="F571" s="2"/>
       <c r="J571" s="2"/>
     </row>
-    <row r="572" spans="6:10" ht="12.5">
+    <row r="572" spans="6:10" ht="13.2">
       <c r="F572" s="2"/>
       <c r="J572" s="2"/>
     </row>
-    <row r="573" spans="6:10" ht="12.5">
+    <row r="573" spans="6:10" ht="13.2">
       <c r="F573" s="2"/>
       <c r="J573" s="2"/>
     </row>
-    <row r="574" spans="6:10" ht="12.5">
+    <row r="574" spans="6:10" ht="13.2">
       <c r="F574" s="2"/>
       <c r="J574" s="2"/>
     </row>
-    <row r="575" spans="6:10" ht="12.5">
+    <row r="575" spans="6:10" ht="13.2">
       <c r="F575" s="2"/>
       <c r="J575" s="2"/>
     </row>
-    <row r="576" spans="6:10" ht="12.5">
+    <row r="576" spans="6:10" ht="13.2">
       <c r="F576" s="2"/>
       <c r="J576" s="2"/>
     </row>
-    <row r="577" spans="6:10" ht="12.5">
+    <row r="577" spans="6:10" ht="13.2">
       <c r="F577" s="2"/>
       <c r="J577" s="2"/>
     </row>
-    <row r="578" spans="6:10" ht="12.5">
+    <row r="578" spans="6:10" ht="13.2">
       <c r="F578" s="2"/>
       <c r="J578" s="2"/>
     </row>
-    <row r="579" spans="6:10" ht="12.5">
+    <row r="579" spans="6:10" ht="13.2">
       <c r="F579" s="2"/>
       <c r="J579" s="2"/>
     </row>
-    <row r="580" spans="6:10" ht="12.5">
+    <row r="580" spans="6:10" ht="13.2">
       <c r="F580" s="2"/>
       <c r="J580" s="2"/>
     </row>
-    <row r="581" spans="6:10" ht="12.5">
+    <row r="581" spans="6:10" ht="13.2">
       <c r="F581" s="2"/>
       <c r="J581" s="2"/>
     </row>
-    <row r="582" spans="6:10" ht="12.5">
+    <row r="582" spans="6:10" ht="13.2">
       <c r="F582" s="2"/>
       <c r="J582" s="2"/>
     </row>
-    <row r="583" spans="6:10" ht="12.5">
+    <row r="583" spans="6:10" ht="13.2">
       <c r="F583" s="2"/>
       <c r="J583" s="2"/>
     </row>
-    <row r="584" spans="6:10" ht="12.5">
+    <row r="584" spans="6:10" ht="13.2">
       <c r="F584" s="2"/>
       <c r="J584" s="2"/>
     </row>
-    <row r="585" spans="6:10" ht="12.5">
+    <row r="585" spans="6:10" ht="13.2">
       <c r="F585" s="2"/>
       <c r="J585" s="2"/>
     </row>
-    <row r="586" spans="6:10" ht="12.5">
+    <row r="586" spans="6:10" ht="13.2">
       <c r="F586" s="2"/>
       <c r="J586" s="2"/>
     </row>
-    <row r="587" spans="6:10" ht="12.5">
+    <row r="587" spans="6:10" ht="13.2">
       <c r="F587" s="2"/>
       <c r="J587" s="2"/>
     </row>
-    <row r="588" spans="6:10" ht="12.5">
+    <row r="588" spans="6:10" ht="13.2">
       <c r="F588" s="2"/>
       <c r="J588" s="2"/>
     </row>
-    <row r="589" spans="6:10" ht="12.5">
+    <row r="589" spans="6:10" ht="13.2">
       <c r="F589" s="2"/>
       <c r="J589" s="2"/>
     </row>
-    <row r="590" spans="6:10" ht="12.5">
+    <row r="590" spans="6:10" ht="13.2">
       <c r="F590" s="2"/>
       <c r="J590" s="2"/>
     </row>
-    <row r="591" spans="6:10" ht="12.5">
+    <row r="591" spans="6:10" ht="13.2">
       <c r="F591" s="2"/>
       <c r="J591" s="2"/>
     </row>
-    <row r="592" spans="6:10" ht="12.5">
+    <row r="592" spans="6:10" ht="13.2">
       <c r="F592" s="2"/>
       <c r="J592" s="2"/>
     </row>
-    <row r="593" spans="6:10" ht="12.5">
+    <row r="593" spans="6:10" ht="13.2">
       <c r="F593" s="2"/>
       <c r="J593" s="2"/>
     </row>
-    <row r="594" spans="6:10" ht="12.5">
+    <row r="594" spans="6:10" ht="13.2">
       <c r="F594" s="2"/>
       <c r="J594" s="2"/>
     </row>
-    <row r="595" spans="6:10" ht="12.5">
+    <row r="595" spans="6:10" ht="13.2">
       <c r="F595" s="2"/>
       <c r="J595" s="2"/>
     </row>
-    <row r="596" spans="6:10" ht="12.5">
+    <row r="596" spans="6:10" ht="13.2">
       <c r="F596" s="2"/>
       <c r="J596" s="2"/>
     </row>
-    <row r="597" spans="6:10" ht="12.5">
+    <row r="597" spans="6:10" ht="13.2">
       <c r="F597" s="2"/>
       <c r="J597" s="2"/>
     </row>
-    <row r="598" spans="6:10" ht="12.5">
+    <row r="598" spans="6:10" ht="13.2">
       <c r="F598" s="2"/>
       <c r="J598" s="2"/>
     </row>
-    <row r="599" spans="6:10" ht="12.5">
+    <row r="599" spans="6:10" ht="13.2">
       <c r="F599" s="2"/>
       <c r="J599" s="2"/>
     </row>
-    <row r="600" spans="6:10" ht="12.5">
+    <row r="600" spans="6:10" ht="13.2">
       <c r="F600" s="2"/>
       <c r="J600" s="2"/>
     </row>
-    <row r="601" spans="6:10" ht="12.5">
+    <row r="601" spans="6:10" ht="13.2">
       <c r="F601" s="2"/>
       <c r="J601" s="2"/>
     </row>
-    <row r="602" spans="6:10" ht="12.5">
+    <row r="602" spans="6:10" ht="13.2">
       <c r="F602" s="2"/>
       <c r="J602" s="2"/>
     </row>
-    <row r="603" spans="6:10" ht="12.5">
+    <row r="603" spans="6:10" ht="13.2">
       <c r="F603" s="2"/>
       <c r="J603" s="2"/>
     </row>
-    <row r="604" spans="6:10" ht="12.5">
+    <row r="604" spans="6:10" ht="13.2">
       <c r="F604" s="2"/>
       <c r="J604" s="2"/>
     </row>
-    <row r="605" spans="6:10" ht="12.5">
+    <row r="605" spans="6:10" ht="13.2">
       <c r="F605" s="2"/>
       <c r="J605" s="2"/>
     </row>
-    <row r="606" spans="6:10" ht="12.5">
+    <row r="606" spans="6:10" ht="13.2">
       <c r="F606" s="2"/>
       <c r="J606" s="2"/>
     </row>
-    <row r="607" spans="6:10" ht="12.5">
+    <row r="607" spans="6:10" ht="13.2">
       <c r="F607" s="2"/>
       <c r="J607" s="2"/>
     </row>
-    <row r="608" spans="6:10" ht="12.5">
+    <row r="608" spans="6:10" ht="13.2">
       <c r="F608" s="2"/>
       <c r="J608" s="2"/>
     </row>
-    <row r="609" spans="6:10" ht="12.5">
+    <row r="609" spans="6:10" ht="13.2">
       <c r="F609" s="2"/>
       <c r="J609" s="2"/>
     </row>
-    <row r="610" spans="6:10" ht="12.5">
+    <row r="610" spans="6:10" ht="13.2">
       <c r="F610" s="2"/>
       <c r="J610" s="2"/>
     </row>
-    <row r="611" spans="6:10" ht="12.5">
+    <row r="611" spans="6:10" ht="13.2">
       <c r="F611" s="2"/>
       <c r="J611" s="2"/>
     </row>
-    <row r="612" spans="6:10" ht="12.5">
+    <row r="612" spans="6:10" ht="13.2">
       <c r="F612" s="2"/>
       <c r="J612" s="2"/>
     </row>
-    <row r="613" spans="6:10" ht="12.5">
+    <row r="613" spans="6:10" ht="13.2">
       <c r="F613" s="2"/>
       <c r="J613" s="2"/>
     </row>
-    <row r="614" spans="6:10" ht="12.5">
+    <row r="614" spans="6:10" ht="13.2">
       <c r="F614" s="2"/>
       <c r="J614" s="2"/>
     </row>
-    <row r="615" spans="6:10" ht="12.5">
+    <row r="615" spans="6:10" ht="13.2">
       <c r="F615" s="2"/>
       <c r="J615" s="2"/>
     </row>
-    <row r="616" spans="6:10" ht="12.5">
+    <row r="616" spans="6:10" ht="13.2">
       <c r="F616" s="2"/>
       <c r="J616" s="2"/>
     </row>
-    <row r="617" spans="6:10" ht="12.5">
+    <row r="617" spans="6:10" ht="13.2">
       <c r="F617" s="2"/>
       <c r="J617" s="2"/>
     </row>
-    <row r="618" spans="6:10" ht="12.5">
+    <row r="618" spans="6:10" ht="13.2">
       <c r="F618" s="2"/>
       <c r="J618" s="2"/>
     </row>
-    <row r="619" spans="6:10" ht="12.5">
+    <row r="619" spans="6:10" ht="13.2">
       <c r="F619" s="2"/>
       <c r="J619" s="2"/>
     </row>
-    <row r="620" spans="6:10" ht="12.5">
+    <row r="620" spans="6:10" ht="13.2">
       <c r="F620" s="2"/>
       <c r="J620" s="2"/>
     </row>
-    <row r="621" spans="6:10" ht="12.5">
+    <row r="621" spans="6:10" ht="13.2">
       <c r="F621" s="2"/>
       <c r="J621" s="2"/>
     </row>
-    <row r="622" spans="6:10" ht="12.5">
+    <row r="622" spans="6:10" ht="13.2">
       <c r="F622" s="2"/>
       <c r="J622" s="2"/>
     </row>
-    <row r="623" spans="6:10" ht="12.5">
+    <row r="623" spans="6:10" ht="13.2">
       <c r="F623" s="2"/>
       <c r="J623" s="2"/>
     </row>
-    <row r="624" spans="6:10" ht="12.5">
+    <row r="624" spans="6:10" ht="13.2">
       <c r="F624" s="2"/>
       <c r="J624" s="2"/>
     </row>
-    <row r="625" spans="6:10" ht="12.5">
+    <row r="625" spans="6:10" ht="13.2">
       <c r="F625" s="2"/>
       <c r="J625" s="2"/>
     </row>
-    <row r="626" spans="6:10" ht="12.5">
+    <row r="626" spans="6:10" ht="13.2">
       <c r="F626" s="2"/>
       <c r="J626" s="2"/>
     </row>
-    <row r="627" spans="6:10" ht="12.5">
+    <row r="627" spans="6:10" ht="13.2">
       <c r="F627" s="2"/>
       <c r="J627" s="2"/>
     </row>
-    <row r="628" spans="6:10" ht="12.5">
+    <row r="628" spans="6:10" ht="13.2">
       <c r="F628" s="2"/>
       <c r="J628" s="2"/>
     </row>
-    <row r="629" spans="6:10" ht="12.5">
+    <row r="629" spans="6:10" ht="13.2">
       <c r="F629" s="2"/>
       <c r="J629" s="2"/>
     </row>
-    <row r="630" spans="6:10" ht="12.5">
+    <row r="630" spans="6:10" ht="13.2">
       <c r="F630" s="2"/>
       <c r="J630" s="2"/>
     </row>
-    <row r="631" spans="6:10" ht="12.5">
+    <row r="631" spans="6:10" ht="13.2">
       <c r="F631" s="2"/>
       <c r="J631" s="2"/>
     </row>
-    <row r="632" spans="6:10" ht="12.5">
+    <row r="632" spans="6:10" ht="13.2">
       <c r="F632" s="2"/>
       <c r="J632" s="2"/>
     </row>
-    <row r="633" spans="6:10" ht="12.5">
+    <row r="633" spans="6:10" ht="13.2">
       <c r="F633" s="2"/>
       <c r="J633" s="2"/>
     </row>
-    <row r="634" spans="6:10" ht="12.5">
+    <row r="634" spans="6:10" ht="13.2">
       <c r="F634" s="2"/>
       <c r="J634" s="2"/>
     </row>
-    <row r="635" spans="6:10" ht="12.5">
+    <row r="635" spans="6:10" ht="13.2">
       <c r="F635" s="2"/>
       <c r="J635" s="2"/>
     </row>
-    <row r="636" spans="6:10" ht="12.5">
+    <row r="636" spans="6:10" ht="13.2">
       <c r="F636" s="2"/>
       <c r="J636" s="2"/>
     </row>
-    <row r="637" spans="6:10" ht="12.5">
+    <row r="637" spans="6:10" ht="13.2">
       <c r="F637" s="2"/>
       <c r="J637" s="2"/>
     </row>
-    <row r="638" spans="6:10" ht="12.5">
+    <row r="638" spans="6:10" ht="13.2">
       <c r="F638" s="2"/>
       <c r="J638" s="2"/>
     </row>
-    <row r="639" spans="6:10" ht="12.5">
+    <row r="639" spans="6:10" ht="13.2">
       <c r="F639" s="2"/>
       <c r="J639" s="2"/>
     </row>
-    <row r="640" spans="6:10" ht="12.5">
+    <row r="640" spans="6:10" ht="13.2">
       <c r="F640" s="2"/>
       <c r="J640" s="2"/>
     </row>
-    <row r="641" spans="6:10" ht="12.5">
+    <row r="641" spans="6:10" ht="13.2">
       <c r="F641" s="2"/>
       <c r="J641" s="2"/>
     </row>
-    <row r="642" spans="6:10" ht="12.5">
+    <row r="642" spans="6:10" ht="13.2">
       <c r="F642" s="2"/>
       <c r="J642" s="2"/>
     </row>
-    <row r="643" spans="6:10" ht="12.5">
+    <row r="643" spans="6:10" ht="13.2">
       <c r="F643" s="2"/>
       <c r="J643" s="2"/>
     </row>
-    <row r="644" spans="6:10" ht="12.5">
+    <row r="644" spans="6:10" ht="13.2">
       <c r="F644" s="2"/>
       <c r="J644" s="2"/>
     </row>
-    <row r="645" spans="6:10" ht="12.5">
+    <row r="645" spans="6:10" ht="13.2">
       <c r="F645" s="2"/>
       <c r="J645" s="2"/>
     </row>
-    <row r="646" spans="6:10" ht="12.5">
+    <row r="646" spans="6:10" ht="13.2">
       <c r="F646" s="2"/>
       <c r="J646" s="2"/>
     </row>
-    <row r="647" spans="6:10" ht="12.5">
+    <row r="647" spans="6:10" ht="13.2">
       <c r="F647" s="2"/>
       <c r="J647" s="2"/>
     </row>
-    <row r="648" spans="6:10" ht="12.5">
+    <row r="648" spans="6:10" ht="13.2">
       <c r="F648" s="2"/>
       <c r="J648" s="2"/>
     </row>
-    <row r="649" spans="6:10" ht="12.5">
+    <row r="649" spans="6:10" ht="13.2">
       <c r="F649" s="2"/>
       <c r="J649" s="2"/>
     </row>
-    <row r="650" spans="6:10" ht="12.5">
+    <row r="650" spans="6:10" ht="13.2">
       <c r="F650" s="2"/>
       <c r="J650" s="2"/>
     </row>
-    <row r="651" spans="6:10" ht="12.5">
+    <row r="651" spans="6:10" ht="13.2">
       <c r="F651" s="2"/>
       <c r="J651" s="2"/>
     </row>
-    <row r="652" spans="6:10" ht="12.5">
+    <row r="652" spans="6:10" ht="13.2">
       <c r="F652" s="2"/>
       <c r="J652" s="2"/>
     </row>
-    <row r="653" spans="6:10" ht="12.5">
+    <row r="653" spans="6:10" ht="13.2">
       <c r="F653" s="2"/>
       <c r="J653" s="2"/>
     </row>
-    <row r="654" spans="6:10" ht="12.5">
+    <row r="654" spans="6:10" ht="13.2">
       <c r="F654" s="2"/>
       <c r="J654" s="2"/>
     </row>
-    <row r="655" spans="6:10" ht="12.5">
+    <row r="655" spans="6:10" ht="13.2">
       <c r="F655" s="2"/>
       <c r="J655" s="2"/>
     </row>
-    <row r="656" spans="6:10" ht="12.5">
+    <row r="656" spans="6:10" ht="13.2">
       <c r="F656" s="2"/>
       <c r="J656" s="2"/>
     </row>
-    <row r="657" spans="6:10" ht="12.5">
+    <row r="657" spans="6:10" ht="13.2">
       <c r="F657" s="2"/>
       <c r="J657" s="2"/>
     </row>
-    <row r="658" spans="6:10" ht="12.5">
+    <row r="658" spans="6:10" ht="13.2">
       <c r="F658" s="2"/>
       <c r="J658" s="2"/>
     </row>
-    <row r="659" spans="6:10" ht="12.5">
+    <row r="659" spans="6:10" ht="13.2">
       <c r="F659" s="2"/>
       <c r="J659" s="2"/>
     </row>
-    <row r="660" spans="6:10" ht="12.5">
+    <row r="660" spans="6:10" ht="13.2">
       <c r="F660" s="2"/>
       <c r="J660" s="2"/>
     </row>
-    <row r="661" spans="6:10" ht="12.5">
+    <row r="661" spans="6:10" ht="13.2">
       <c r="F661" s="2"/>
       <c r="J661" s="2"/>
     </row>
-    <row r="662" spans="6:10" ht="12.5">
+    <row r="662" spans="6:10" ht="13.2">
       <c r="F662" s="2"/>
       <c r="J662" s="2"/>
     </row>
-    <row r="663" spans="6:10" ht="12.5">
+    <row r="663" spans="6:10" ht="13.2">
       <c r="F663" s="2"/>
       <c r="J663" s="2"/>
     </row>
-    <row r="664" spans="6:10" ht="12.5">
+    <row r="664" spans="6:10" ht="13.2">
       <c r="F664" s="2"/>
       <c r="J664" s="2"/>
     </row>
-    <row r="665" spans="6:10" ht="12.5">
+    <row r="665" spans="6:10" ht="13.2">
       <c r="F665" s="2"/>
       <c r="J665" s="2"/>
     </row>
-    <row r="666" spans="6:10" ht="12.5">
+    <row r="666" spans="6:10" ht="13.2">
       <c r="F666" s="2"/>
       <c r="J666" s="2"/>
     </row>
-    <row r="667" spans="6:10" ht="12.5">
+    <row r="667" spans="6:10" ht="13.2">
       <c r="F667" s="2"/>
       <c r="J667" s="2"/>
     </row>
-    <row r="668" spans="6:10" ht="12.5">
+    <row r="668" spans="6:10" ht="13.2">
       <c r="F668" s="2"/>
       <c r="J668" s="2"/>
     </row>
-    <row r="669" spans="6:10" ht="12.5">
+    <row r="669" spans="6:10" ht="13.2">
       <c r="F669" s="2"/>
       <c r="J669" s="2"/>
     </row>
-    <row r="670" spans="6:10" ht="12.5">
+    <row r="670" spans="6:10" ht="13.2">
       <c r="F670" s="2"/>
       <c r="J670" s="2"/>
     </row>
-    <row r="671" spans="6:10" ht="12.5">
+    <row r="671" spans="6:10" ht="13.2">
       <c r="F671" s="2"/>
       <c r="J671" s="2"/>
     </row>
-    <row r="672" spans="6:10" ht="12.5">
+    <row r="672" spans="6:10" ht="13.2">
       <c r="F672" s="2"/>
       <c r="J672" s="2"/>
     </row>
-    <row r="673" spans="6:10" ht="12.5">
+    <row r="673" spans="6:10" ht="13.2">
       <c r="F673" s="2"/>
       <c r="J673" s="2"/>
     </row>
-    <row r="674" spans="6:10" ht="12.5">
+    <row r="674" spans="6:10" ht="13.2">
       <c r="F674" s="2"/>
       <c r="J674" s="2"/>
     </row>
-    <row r="675" spans="6:10" ht="12.5">
+    <row r="675" spans="6:10" ht="13.2">
       <c r="F675" s="2"/>
       <c r="J675" s="2"/>
     </row>
-    <row r="676" spans="6:10" ht="12.5">
+    <row r="676" spans="6:10" ht="13.2">
       <c r="F676" s="2"/>
       <c r="J676" s="2"/>
     </row>
-    <row r="677" spans="6:10" ht="12.5">
+    <row r="677" spans="6:10" ht="13.2">
       <c r="F677" s="2"/>
       <c r="J677" s="2"/>
     </row>
-    <row r="678" spans="6:10" ht="12.5">
+    <row r="678" spans="6:10" ht="13.2">
       <c r="F678" s="2"/>
       <c r="J678" s="2"/>
     </row>
-    <row r="679" spans="6:10" ht="12.5">
+    <row r="679" spans="6:10" ht="13.2">
       <c r="F679" s="2"/>
       <c r="J679" s="2"/>
     </row>
-    <row r="680" spans="6:10" ht="12.5">
+    <row r="680" spans="6:10" ht="13.2">
       <c r="F680" s="2"/>
       <c r="J680" s="2"/>
     </row>
-    <row r="681" spans="6:10" ht="12.5">
+    <row r="681" spans="6:10" ht="13.2">
       <c r="F681" s="2"/>
       <c r="J681" s="2"/>
     </row>
-    <row r="682" spans="6:10" ht="12.5">
+    <row r="682" spans="6:10" ht="13.2">
       <c r="F682" s="2"/>
       <c r="J682" s="2"/>
     </row>
-    <row r="683" spans="6:10" ht="12.5">
+    <row r="683" spans="6:10" ht="13.2">
       <c r="F683" s="2"/>
       <c r="J683" s="2"/>
     </row>
-    <row r="684" spans="6:10" ht="12.5">
+    <row r="684" spans="6:10" ht="13.2">
       <c r="F684" s="2"/>
       <c r="J684" s="2"/>
     </row>
-    <row r="685" spans="6:10" ht="12.5">
+    <row r="685" spans="6:10" ht="13.2">
       <c r="F685" s="2"/>
       <c r="J685" s="2"/>
     </row>
-    <row r="686" spans="6:10" ht="12.5">
+    <row r="686" spans="6:10" ht="13.2">
       <c r="F686" s="2"/>
       <c r="J686" s="2"/>
     </row>
-    <row r="687" spans="6:10" ht="12.5">
+    <row r="687" spans="6:10" ht="13.2">
       <c r="F687" s="2"/>
       <c r="J687" s="2"/>
     </row>
-    <row r="688" spans="6:10" ht="12.5">
+    <row r="688" spans="6:10" ht="13.2">
       <c r="F688" s="2"/>
       <c r="J688" s="2"/>
     </row>
-    <row r="689" spans="6:10" ht="12.5">
+    <row r="689" spans="6:10" ht="13.2">
       <c r="F689" s="2"/>
       <c r="J689" s="2"/>
     </row>
-    <row r="690" spans="6:10" ht="12.5">
+    <row r="690" spans="6:10" ht="13.2">
       <c r="F690" s="2"/>
       <c r="J690" s="2"/>
     </row>
-    <row r="691" spans="6:10" ht="12.5">
+    <row r="691" spans="6:10" ht="13.2">
       <c r="F691" s="2"/>
       <c r="J691" s="2"/>
     </row>
-    <row r="692" spans="6:10" ht="12.5">
+    <row r="692" spans="6:10" ht="13.2">
       <c r="F692" s="2"/>
       <c r="J692" s="2"/>
     </row>
-    <row r="693" spans="6:10" ht="12.5">
+    <row r="693" spans="6:10" ht="13.2">
       <c r="F693" s="2"/>
       <c r="J693" s="2"/>
     </row>
-    <row r="694" spans="6:10" ht="12.5">
+    <row r="694" spans="6:10" ht="13.2">
       <c r="F694" s="2"/>
       <c r="J694" s="2"/>
     </row>
-    <row r="695" spans="6:10" ht="12.5">
+    <row r="695" spans="6:10" ht="13.2">
       <c r="F695" s="2"/>
       <c r="J695" s="2"/>
     </row>
-    <row r="696" spans="6:10" ht="12.5">
+    <row r="696" spans="6:10" ht="13.2">
       <c r="F696" s="2"/>
       <c r="J696" s="2"/>
     </row>
-    <row r="697" spans="6:10" ht="12.5">
+    <row r="697" spans="6:10" ht="13.2">
       <c r="F697" s="2"/>
       <c r="J697" s="2"/>
     </row>
-    <row r="698" spans="6:10" ht="12.5">
+    <row r="698" spans="6:10" ht="13.2">
       <c r="F698" s="2"/>
       <c r="J698" s="2"/>
     </row>
-    <row r="699" spans="6:10" ht="12.5">
+    <row r="699" spans="6:10" ht="13.2">
       <c r="F699" s="2"/>
       <c r="J699" s="2"/>
     </row>
-    <row r="700" spans="6:10" ht="12.5">
+    <row r="700" spans="6:10" ht="13.2">
       <c r="F700" s="2"/>
       <c r="J700" s="2"/>
     </row>
-    <row r="701" spans="6:10" ht="12.5">
+    <row r="701" spans="6:10" ht="13.2">
       <c r="F701" s="2"/>
       <c r="J701" s="2"/>
     </row>
-    <row r="702" spans="6:10" ht="12.5">
+    <row r="702" spans="6:10" ht="13.2">
       <c r="F702" s="2"/>
       <c r="J702" s="2"/>
     </row>
-    <row r="703" spans="6:10" ht="12.5">
+    <row r="703" spans="6:10" ht="13.2">
       <c r="F703" s="2"/>
       <c r="J703" s="2"/>
     </row>
-    <row r="704" spans="6:10" ht="12.5">
+    <row r="704" spans="6:10" ht="13.2">
       <c r="F704" s="2"/>
       <c r="J704" s="2"/>
     </row>
-    <row r="705" spans="6:10" ht="12.5">
+    <row r="705" spans="6:10" ht="13.2">
       <c r="F705" s="2"/>
       <c r="J705" s="2"/>
     </row>
-    <row r="706" spans="6:10" ht="12.5">
+    <row r="706" spans="6:10" ht="13.2">
       <c r="F706" s="2"/>
       <c r="J706" s="2"/>
     </row>
-    <row r="707" spans="6:10" ht="12.5">
+    <row r="707" spans="6:10" ht="13.2">
       <c r="F707" s="2"/>
       <c r="J707" s="2"/>
     </row>
-    <row r="708" spans="6:10" ht="12.5">
+    <row r="708" spans="6:10" ht="13.2">
       <c r="F708" s="2"/>
       <c r="J708" s="2"/>
     </row>
-    <row r="709" spans="6:10" ht="12.5">
+    <row r="709" spans="6:10" ht="13.2">
       <c r="F709" s="2"/>
       <c r="J709" s="2"/>
     </row>
-    <row r="710" spans="6:10" ht="12.5">
+    <row r="710" spans="6:10" ht="13.2">
       <c r="F710" s="2"/>
       <c r="J710" s="2"/>
     </row>
-    <row r="711" spans="6:10" ht="12.5">
+    <row r="711" spans="6:10" ht="13.2">
       <c r="F711" s="2"/>
       <c r="J711" s="2"/>
     </row>
-    <row r="712" spans="6:10" ht="12.5">
+    <row r="712" spans="6:10" ht="13.2">
       <c r="F712" s="2"/>
       <c r="J712" s="2"/>
     </row>
-    <row r="713" spans="6:10" ht="12.5">
+    <row r="713" spans="6:10" ht="13.2">
       <c r="F713" s="2"/>
       <c r="J713" s="2"/>
     </row>
-    <row r="714" spans="6:10" ht="12.5">
+    <row r="714" spans="6:10" ht="13.2">
       <c r="F714" s="2"/>
       <c r="J714" s="2"/>
     </row>
-    <row r="715" spans="6:10" ht="12.5">
+    <row r="715" spans="6:10" ht="13.2">
       <c r="F715" s="2"/>
       <c r="J715" s="2"/>
     </row>
-    <row r="716" spans="6:10" ht="12.5">
+    <row r="716" spans="6:10" ht="13.2">
       <c r="F716" s="2"/>
       <c r="J716" s="2"/>
     </row>
-    <row r="717" spans="6:10" ht="12.5">
+    <row r="717" spans="6:10" ht="13.2">
       <c r="F717" s="2"/>
       <c r="J717" s="2"/>
     </row>
-    <row r="718" spans="6:10" ht="12.5">
+    <row r="718" spans="6:10" ht="13.2">
       <c r="F718" s="2"/>
       <c r="J718" s="2"/>
     </row>
-    <row r="719" spans="6:10" ht="12.5">
+    <row r="719" spans="6:10" ht="13.2">
       <c r="F719" s="2"/>
       <c r="J719" s="2"/>
     </row>
-    <row r="720" spans="6:10" ht="12.5">
+    <row r="720" spans="6:10" ht="13.2">
       <c r="F720" s="2"/>
       <c r="J720" s="2"/>
     </row>
-    <row r="721" spans="6:10" ht="12.5">
+    <row r="721" spans="6:10" ht="13.2">
       <c r="F721" s="2"/>
       <c r="J721" s="2"/>
     </row>
-    <row r="722" spans="6:10" ht="12.5">
+    <row r="722" spans="6:10" ht="13.2">
       <c r="F722" s="2"/>
       <c r="J722" s="2"/>
     </row>
-    <row r="723" spans="6:10" ht="12.5">
+    <row r="723" spans="6:10" ht="13.2">
       <c r="F723" s="2"/>
       <c r="J723" s="2"/>
     </row>
-    <row r="724" spans="6:10" ht="12.5">
+    <row r="724" spans="6:10" ht="13.2">
       <c r="F724" s="2"/>
       <c r="J724" s="2"/>
     </row>
-    <row r="725" spans="6:10" ht="12.5">
+    <row r="725" spans="6:10" ht="13.2">
       <c r="F725" s="2"/>
       <c r="J725" s="2"/>
     </row>
-    <row r="726" spans="6:10" ht="12.5">
+    <row r="726" spans="6:10" ht="13.2">
       <c r="F726" s="2"/>
       <c r="J726" s="2"/>
     </row>
-    <row r="727" spans="6:10" ht="12.5">
+    <row r="727" spans="6:10" ht="13.2">
       <c r="F727" s="2"/>
       <c r="J727" s="2"/>
     </row>
-    <row r="728" spans="6:10" ht="12.5">
+    <row r="728" spans="6:10" ht="13.2">
       <c r="F728" s="2"/>
       <c r="J728" s="2"/>
     </row>
-    <row r="729" spans="6:10" ht="12.5">
+    <row r="729" spans="6:10" ht="13.2">
       <c r="F729" s="2"/>
       <c r="J729" s="2"/>
     </row>
-    <row r="730" spans="6:10" ht="12.5">
+    <row r="730" spans="6:10" ht="13.2">
       <c r="F730" s="2"/>
       <c r="J730" s="2"/>
     </row>
-    <row r="731" spans="6:10" ht="12.5">
+    <row r="731" spans="6:10" ht="13.2">
       <c r="F731" s="2"/>
       <c r="J731" s="2"/>
     </row>
-    <row r="732" spans="6:10" ht="12.5">
+    <row r="732" spans="6:10" ht="13.2">
       <c r="F732" s="2"/>
       <c r="J732" s="2"/>
     </row>
-    <row r="733" spans="6:10" ht="12.5">
+    <row r="733" spans="6:10" ht="13.2">
       <c r="F733" s="2"/>
       <c r="J733" s="2"/>
     </row>
-    <row r="734" spans="6:10" ht="12.5">
+    <row r="734" spans="6:10" ht="13.2">
       <c r="F734" s="2"/>
       <c r="J734" s="2"/>
     </row>
-    <row r="735" spans="6:10" ht="12.5">
+    <row r="735" spans="6:10" ht="13.2">
       <c r="F735" s="2"/>
       <c r="J735" s="2"/>
     </row>
-    <row r="736" spans="6:10" ht="12.5">
+    <row r="736" spans="6:10" ht="13.2">
       <c r="F736" s="2"/>
       <c r="J736" s="2"/>
     </row>
-    <row r="737" spans="6:10" ht="12.5">
+    <row r="737" spans="6:10" ht="13.2">
       <c r="F737" s="2"/>
       <c r="J737" s="2"/>
     </row>
-    <row r="738" spans="6:10" ht="12.5">
+    <row r="738" spans="6:10" ht="13.2">
       <c r="F738" s="2"/>
       <c r="J738" s="2"/>
     </row>
-    <row r="739" spans="6:10" ht="12.5">
+    <row r="739" spans="6:10" ht="13.2">
       <c r="F739" s="2"/>
       <c r="J739" s="2"/>
     </row>
-    <row r="740" spans="6:10" ht="12.5">
+    <row r="740" spans="6:10" ht="13.2">
       <c r="F740" s="2"/>
       <c r="J740" s="2"/>
     </row>
-    <row r="741" spans="6:10" ht="12.5">
+    <row r="741" spans="6:10" ht="13.2">
       <c r="F741" s="2"/>
       <c r="J741" s="2"/>
     </row>
-    <row r="742" spans="6:10" ht="12.5">
+    <row r="742" spans="6:10" ht="13.2">
       <c r="F742" s="2"/>
       <c r="J742" s="2"/>
     </row>
-    <row r="743" spans="6:10" ht="12.5">
+    <row r="743" spans="6:10" ht="13.2">
       <c r="F743" s="2"/>
       <c r="J743" s="2"/>
     </row>
-    <row r="744" spans="6:10" ht="12.5">
+    <row r="744" spans="6:10" ht="13.2">
       <c r="F744" s="2"/>
       <c r="J744" s="2"/>
     </row>
-    <row r="745" spans="6:10" ht="12.5">
+    <row r="745" spans="6:10" ht="13.2">
       <c r="F745" s="2"/>
       <c r="J745" s="2"/>
     </row>
-    <row r="746" spans="6:10" ht="12.5">
+    <row r="746" spans="6:10" ht="13.2">
       <c r="F746" s="2"/>
       <c r="J746" s="2"/>
     </row>
-    <row r="747" spans="6:10" ht="12.5">
+    <row r="747" spans="6:10" ht="13.2">
       <c r="F747" s="2"/>
       <c r="J747" s="2"/>
     </row>
-    <row r="748" spans="6:10" ht="12.5">
+    <row r="748" spans="6:10" ht="13.2">
       <c r="F748" s="2"/>
       <c r="J748" s="2"/>
     </row>
-    <row r="749" spans="6:10" ht="12.5">
+    <row r="749" spans="6:10" ht="13.2">
       <c r="F749" s="2"/>
       <c r="J749" s="2"/>
     </row>
-    <row r="750" spans="6:10" ht="12.5">
+    <row r="750" spans="6:10" ht="13.2">
       <c r="F750" s="2"/>
       <c r="J750" s="2"/>
     </row>
-    <row r="751" spans="6:10" ht="12.5">
+    <row r="751" spans="6:10" ht="13.2">
       <c r="F751" s="2"/>
       <c r="J751" s="2"/>
     </row>
-    <row r="752" spans="6:10" ht="12.5">
+    <row r="752" spans="6:10" ht="13.2">
       <c r="F752" s="2"/>
       <c r="J752" s="2"/>
     </row>
-    <row r="753" spans="6:10" ht="12.5">
+    <row r="753" spans="6:10" ht="13.2">
       <c r="F753" s="2"/>
       <c r="J753" s="2"/>
     </row>
-    <row r="754" spans="6:10" ht="12.5">
+    <row r="754" spans="6:10" ht="13.2">
       <c r="F754" s="2"/>
       <c r="J754" s="2"/>
     </row>
-    <row r="755" spans="6:10" ht="12.5">
+    <row r="755" spans="6:10" ht="13.2">
       <c r="F755" s="2"/>
       <c r="J755" s="2"/>
     </row>
-    <row r="756" spans="6:10" ht="12.5">
+    <row r="756" spans="6:10" ht="13.2">
       <c r="F756" s="2"/>
       <c r="J756" s="2"/>
     </row>
-    <row r="757" spans="6:10" ht="12.5">
+    <row r="757" spans="6:10" ht="13.2">
       <c r="F757" s="2"/>
       <c r="J757" s="2"/>
     </row>
-    <row r="758" spans="6:10" ht="12.5">
+    <row r="758" spans="6:10" ht="13.2">
       <c r="F758" s="2"/>
       <c r="J758" s="2"/>
     </row>
-    <row r="759" spans="6:10" ht="12.5">
+    <row r="759" spans="6:10" ht="13.2">
       <c r="F759" s="2"/>
       <c r="J759" s="2"/>
     </row>
-    <row r="760" spans="6:10" ht="12.5">
+    <row r="760" spans="6:10" ht="13.2">
       <c r="F760" s="2"/>
       <c r="J760" s="2"/>
     </row>
-    <row r="761" spans="6:10" ht="12.5">
+    <row r="761" spans="6:10" ht="13.2">
       <c r="F761" s="2"/>
       <c r="J761" s="2"/>
     </row>
-    <row r="762" spans="6:10" ht="12.5">
+    <row r="762" spans="6:10" ht="13.2">
       <c r="F762" s="2"/>
       <c r="J762" s="2"/>
     </row>
-    <row r="763" spans="6:10" ht="12.5">
+    <row r="763" spans="6:10" ht="13.2">
       <c r="F763" s="2"/>
       <c r="J763" s="2"/>
     </row>
-    <row r="764" spans="6:10" ht="12.5">
+    <row r="764" spans="6:10" ht="13.2">
       <c r="F764" s="2"/>
       <c r="J764" s="2"/>
     </row>
-    <row r="765" spans="6:10" ht="12.5">
+    <row r="765" spans="6:10" ht="13.2">
       <c r="F765" s="2"/>
       <c r="J765" s="2"/>
     </row>
-    <row r="766" spans="6:10" ht="12.5">
+    <row r="766" spans="6:10" ht="13.2">
       <c r="F766" s="2"/>
       <c r="J766" s="2"/>
     </row>
-    <row r="767" spans="6:10" ht="12.5">
+    <row r="767" spans="6:10" ht="13.2">
       <c r="F767" s="2"/>
       <c r="J767" s="2"/>
     </row>
-    <row r="768" spans="6:10" ht="12.5">
+    <row r="768" spans="6:10" ht="13.2">
       <c r="F768" s="2"/>
       <c r="J768" s="2"/>
     </row>
-    <row r="769" spans="6:10" ht="12.5">
+    <row r="769" spans="6:10" ht="13.2">
       <c r="F769" s="2"/>
       <c r="J769" s="2"/>
     </row>
-    <row r="770" spans="6:10" ht="12.5">
+    <row r="770" spans="6:10" ht="13.2">
       <c r="F770" s="2"/>
       <c r="J770" s="2"/>
     </row>
-    <row r="771" spans="6:10" ht="12.5">
+    <row r="771" spans="6:10" ht="13.2">
       <c r="F771" s="2"/>
       <c r="J771" s="2"/>
     </row>
-    <row r="772" spans="6:10" ht="12.5">
+    <row r="772" spans="6:10" ht="13.2">
       <c r="F772" s="2"/>
       <c r="J772" s="2"/>
     </row>
-    <row r="773" spans="6:10" ht="12.5">
+    <row r="773" spans="6:10" ht="13.2">
       <c r="F773" s="2"/>
       <c r="J773" s="2"/>
     </row>
-    <row r="774" spans="6:10" ht="12.5">
+    <row r="774" spans="6:10" ht="13.2">
       <c r="F774" s="2"/>
       <c r="J774" s="2"/>
     </row>
-    <row r="775" spans="6:10" ht="12.5">
+    <row r="775" spans="6:10" ht="13.2">
       <c r="F775" s="2"/>
       <c r="J775" s="2"/>
     </row>
-    <row r="776" spans="6:10" ht="12.5">
+    <row r="776" spans="6:10" ht="13.2">
       <c r="F776" s="2"/>
       <c r="J776" s="2"/>
     </row>
-    <row r="777" spans="6:10" ht="12.5">
+    <row r="777" spans="6:10" ht="13.2">
       <c r="F777" s="2"/>
       <c r="J777" s="2"/>
     </row>
-    <row r="778" spans="6:10" ht="12.5">
+    <row r="778" spans="6:10" ht="13.2">
       <c r="F778" s="2"/>
       <c r="J778" s="2"/>
     </row>
-    <row r="779" spans="6:10" ht="12.5">
+    <row r="779" spans="6:10" ht="13.2">
       <c r="F779" s="2"/>
       <c r="J779" s="2"/>
     </row>
-    <row r="780" spans="6:10" ht="12.5">
+    <row r="780" spans="6:10" ht="13.2">
       <c r="F780" s="2"/>
       <c r="J780" s="2"/>
     </row>
-    <row r="781" spans="6:10" ht="12.5">
+    <row r="781" spans="6:10" ht="13.2">
       <c r="F781" s="2"/>
       <c r="J781" s="2"/>
     </row>
-    <row r="782" spans="6:10" ht="12.5">
+    <row r="782" spans="6:10" ht="13.2">
       <c r="F782" s="2"/>
       <c r="J782" s="2"/>
     </row>
-    <row r="783" spans="6:10" ht="12.5">
+    <row r="783" spans="6:10" ht="13.2">
       <c r="F783" s="2"/>
       <c r="J783" s="2"/>
     </row>
-    <row r="784" spans="6:10" ht="12.5">
+    <row r="784" spans="6:10" ht="13.2">
       <c r="F784" s="2"/>
       <c r="J784" s="2"/>
     </row>
-    <row r="785" spans="6:10" ht="12.5">
+    <row r="785" spans="6:10" ht="13.2">
       <c r="F785" s="2"/>
       <c r="J785" s="2"/>
     </row>
-    <row r="786" spans="6:10" ht="12.5">
+    <row r="786" spans="6:10" ht="13.2">
       <c r="F786" s="2"/>
       <c r="J786" s="2"/>
     </row>
-    <row r="787" spans="6:10" ht="12.5">
+    <row r="787" spans="6:10" ht="13.2">
       <c r="F787" s="2"/>
       <c r="J787" s="2"/>
     </row>
-    <row r="788" spans="6:10" ht="12.5">
+    <row r="788" spans="6:10" ht="13.2">
       <c r="F788" s="2"/>
       <c r="J788" s="2"/>
     </row>
-    <row r="789" spans="6:10" ht="12.5">
+    <row r="789" spans="6:10" ht="13.2">
       <c r="F789" s="2"/>
       <c r="J789" s="2"/>
     </row>
-    <row r="790" spans="6:10" ht="12.5">
+    <row r="790" spans="6:10" ht="13.2">
       <c r="F790" s="2"/>
       <c r="J790" s="2"/>
     </row>
-    <row r="791" spans="6:10" ht="12.5">
+    <row r="791" spans="6:10" ht="13.2">
       <c r="F791" s="2"/>
       <c r="J791" s="2"/>
     </row>
-    <row r="792" spans="6:10" ht="12.5">
+    <row r="792" spans="6:10" ht="13.2">
       <c r="F792" s="2"/>
       <c r="J792" s="2"/>
     </row>
-    <row r="793" spans="6:10" ht="12.5">
+    <row r="793" spans="6:10" ht="13.2">
       <c r="F793" s="2"/>
       <c r="J793" s="2"/>
     </row>
-    <row r="794" spans="6:10" ht="12.5">
+    <row r="794" spans="6:10" ht="13.2">
       <c r="F794" s="2"/>
       <c r="J794" s="2"/>
     </row>
-    <row r="795" spans="6:10" ht="12.5">
+    <row r="795" spans="6:10" ht="13.2">
       <c r="F795" s="2"/>
       <c r="J795" s="2"/>
     </row>
-    <row r="796" spans="6:10" ht="12.5">
+    <row r="796" spans="6:10" ht="13.2">
       <c r="F796" s="2"/>
       <c r="J796" s="2"/>
     </row>
-    <row r="797" spans="6:10" ht="12.5">
+    <row r="797" spans="6:10" ht="13.2">
       <c r="F797" s="2"/>
       <c r="J797" s="2"/>
     </row>
-    <row r="798" spans="6:10" ht="12.5">
+    <row r="798" spans="6:10" ht="13.2">
       <c r="F798" s="2"/>
       <c r="J798" s="2"/>
     </row>
-    <row r="799" spans="6:10" ht="12.5">
+    <row r="799" spans="6:10" ht="13.2">
       <c r="F799" s="2"/>
       <c r="J799" s="2"/>
     </row>
-    <row r="800" spans="6:10" ht="12.5">
+    <row r="800" spans="6:10" ht="13.2">
       <c r="F800" s="2"/>
       <c r="J800" s="2"/>
     </row>
-    <row r="801" spans="6:10" ht="12.5">
+    <row r="801" spans="6:10" ht="13.2">
       <c r="F801" s="2"/>
       <c r="J801" s="2"/>
     </row>
-    <row r="802" spans="6:10" ht="12.5">
+    <row r="802" spans="6:10" ht="13.2">
       <c r="F802" s="2"/>
       <c r="J802" s="2"/>
     </row>
-    <row r="803" spans="6:10" ht="12.5">
+    <row r="803" spans="6:10" ht="13.2">
       <c r="F803" s="2"/>
       <c r="J803" s="2"/>
     </row>
-    <row r="804" spans="6:10" ht="12.5">
+    <row r="804" spans="6:10" ht="13.2">
       <c r="F804" s="2"/>
       <c r="J804" s="2"/>
     </row>
-    <row r="805" spans="6:10" ht="12.5">
+    <row r="805" spans="6:10" ht="13.2">
       <c r="F805" s="2"/>
       <c r="J805" s="2"/>
     </row>
-    <row r="806" spans="6:10" ht="12.5">
+    <row r="806" spans="6:10" ht="13.2">
       <c r="F806" s="2"/>
       <c r="J806" s="2"/>
     </row>
-    <row r="807" spans="6:10" ht="12.5">
+    <row r="807" spans="6:10" ht="13.2">
       <c r="F807" s="2"/>
       <c r="J807" s="2"/>
     </row>
-    <row r="808" spans="6:10" ht="12.5">
+    <row r="808" spans="6:10" ht="13.2">
       <c r="F808" s="2"/>
       <c r="J808" s="2"/>
     </row>
-    <row r="809" spans="6:10" ht="12.5">
+    <row r="809" spans="6:10" ht="13.2">
       <c r="F809" s="2"/>
       <c r="J809" s="2"/>
     </row>
-    <row r="810" spans="6:10" ht="12.5">
+    <row r="810" spans="6:10" ht="13.2">
       <c r="F810" s="2"/>
       <c r="J810" s="2"/>
     </row>
-    <row r="811" spans="6:10" ht="12.5">
+    <row r="811" spans="6:10" ht="13.2">
       <c r="F811" s="2"/>
       <c r="J811" s="2"/>
     </row>
-    <row r="812" spans="6:10" ht="12.5">
+    <row r="812" spans="6:10" ht="13.2">
       <c r="F812" s="2"/>
       <c r="J812" s="2"/>
     </row>
-    <row r="813" spans="6:10" ht="12.5">
+    <row r="813" spans="6:10" ht="13.2">
       <c r="F813" s="2"/>
       <c r="J813" s="2"/>
     </row>
-    <row r="814" spans="6:10" ht="12.5">
+    <row r="814" spans="6:10" ht="13.2">
       <c r="F814" s="2"/>
       <c r="J814" s="2"/>
     </row>
-    <row r="815" spans="6:10" ht="12.5">
+    <row r="815" spans="6:10" ht="13.2">
       <c r="F815" s="2"/>
       <c r="J815" s="2"/>
     </row>
-    <row r="816" spans="6:10" ht="12.5">
+    <row r="816" spans="6:10" ht="13.2">
       <c r="F816" s="2"/>
       <c r="J816" s="2"/>
     </row>
-    <row r="817" spans="6:10" ht="12.5">
+    <row r="817" spans="6:10" ht="13.2">
       <c r="F817" s="2"/>
       <c r="J817" s="2"/>
     </row>
-    <row r="818" spans="6:10" ht="12.5">
+    <row r="818" spans="6:10" ht="13.2">
       <c r="F818" s="2"/>
       <c r="J818" s="2"/>
     </row>
-    <row r="819" spans="6:10" ht="12.5">
+    <row r="819" spans="6:10" ht="13.2">
       <c r="F819" s="2"/>
       <c r="J819" s="2"/>
     </row>
-    <row r="820" spans="6:10" ht="12.5">
+    <row r="820" spans="6:10" ht="13.2">
       <c r="F820" s="2"/>
       <c r="J820" s="2"/>
     </row>
-    <row r="821" spans="6:10" ht="12.5">
+    <row r="821" spans="6:10" ht="13.2">
       <c r="F821" s="2"/>
       <c r="J821" s="2"/>
     </row>
-    <row r="822" spans="6:10" ht="12.5">
+    <row r="822" spans="6:10" ht="13.2">
       <c r="F822" s="2"/>
       <c r="J822" s="2"/>
     </row>
-    <row r="823" spans="6:10" ht="12.5">
+    <row r="823" spans="6:10" ht="13.2">
       <c r="F823" s="2"/>
       <c r="J823" s="2"/>
     </row>
-    <row r="824" spans="6:10" ht="12.5">
+    <row r="824" spans="6:10" ht="13.2">
       <c r="F824" s="2"/>
       <c r="J824" s="2"/>
     </row>
-    <row r="825" spans="6:10" ht="12.5">
+    <row r="825" spans="6:10" ht="13.2">
       <c r="F825" s="2"/>
       <c r="J825" s="2"/>
     </row>
-    <row r="826" spans="6:10" ht="12.5">
+    <row r="826" spans="6:10" ht="13.2">
       <c r="F826" s="2"/>
       <c r="J826" s="2"/>
     </row>
-    <row r="827" spans="6:10" ht="12.5">
+    <row r="827" spans="6:10" ht="13.2">
       <c r="F827" s="2"/>
       <c r="J827" s="2"/>
     </row>
-    <row r="828" spans="6:10" ht="12.5">
+    <row r="828" spans="6:10" ht="13.2">
       <c r="F828" s="2"/>
       <c r="J828" s="2"/>
     </row>
-    <row r="829" spans="6:10" ht="12.5">
+    <row r="829" spans="6:10" ht="13.2">
       <c r="F829" s="2"/>
       <c r="J829" s="2"/>
     </row>
-    <row r="830" spans="6:10" ht="12.5">
+    <row r="830" spans="6:10" ht="13.2">
       <c r="F830" s="2"/>
       <c r="J830" s="2"/>
     </row>
-    <row r="831" spans="6:10" ht="12.5">
+    <row r="831" spans="6:10" ht="13.2">
       <c r="F831" s="2"/>
       <c r="J831" s="2"/>
     </row>
-    <row r="832" spans="6:10" ht="12.5">
+    <row r="832" spans="6:10" ht="13.2">
       <c r="F832" s="2"/>
       <c r="J832" s="2"/>
     </row>
-    <row r="833" spans="6:10" ht="12.5">
+    <row r="833" spans="6:10" ht="13.2">
       <c r="F833" s="2"/>
       <c r="J833" s="2"/>
     </row>
-    <row r="834" spans="6:10" ht="12.5">
+    <row r="834" spans="6:10" ht="13.2">
       <c r="F834" s="2"/>
       <c r="J834" s="2"/>
     </row>
-    <row r="835" spans="6:10" ht="12.5">
+    <row r="835" spans="6:10" ht="13.2">
       <c r="F835" s="2"/>
       <c r="J835" s="2"/>
     </row>
-    <row r="836" spans="6:10" ht="12.5">
+    <row r="836" spans="6:10" ht="13.2">
       <c r="F836" s="2"/>
       <c r="J836" s="2"/>
     </row>
-    <row r="837" spans="6:10" ht="12.5">
+    <row r="837" spans="6:10" ht="13.2">
       <c r="F837" s="2"/>
       <c r="J837" s="2"/>
     </row>
-    <row r="838" spans="6:10" ht="12.5">
+    <row r="838" spans="6:10" ht="13.2">
       <c r="F838" s="2"/>
       <c r="J838" s="2"/>
     </row>
-    <row r="839" spans="6:10" ht="12.5">
+    <row r="839" spans="6:10" ht="13.2">
       <c r="F839" s="2"/>
       <c r="J839" s="2"/>
     </row>
-    <row r="840" spans="6:10" ht="12.5">
+    <row r="840" spans="6:10" ht="13.2">
       <c r="F840" s="2"/>
       <c r="J840" s="2"/>
     </row>
-    <row r="841" spans="6:10" ht="12.5">
+    <row r="841" spans="6:10" ht="13.2">
       <c r="F841" s="2"/>
       <c r="J841" s="2"/>
     </row>
-    <row r="842" spans="6:10" ht="12.5">
+    <row r="842" spans="6:10" ht="13.2">
       <c r="F842" s="2"/>
       <c r="J842" s="2"/>
     </row>
-    <row r="843" spans="6:10" ht="12.5">
+    <row r="843" spans="6:10" ht="13.2">
       <c r="F843" s="2"/>
       <c r="J843" s="2"/>
     </row>
-    <row r="844" spans="6:10" ht="12.5">
+    <row r="844" spans="6:10" ht="13.2">
       <c r="F844" s="2"/>
       <c r="J844" s="2"/>
     </row>
-    <row r="845" spans="6:10" ht="12.5">
+    <row r="845" spans="6:10" ht="13.2">
       <c r="F845" s="2"/>
       <c r="J845" s="2"/>
     </row>
-    <row r="846" spans="6:10" ht="12.5">
+    <row r="846" spans="6:10" ht="13.2">
       <c r="F846" s="2"/>
       <c r="J846" s="2"/>
     </row>
-    <row r="847" spans="6:10" ht="12.5">
+    <row r="847" spans="6:10" ht="13.2">
       <c r="F847" s="2"/>
       <c r="J847" s="2"/>
     </row>
-    <row r="848" spans="6:10" ht="12.5">
+    <row r="848" spans="6:10" ht="13.2">
       <c r="F848" s="2"/>
       <c r="J848" s="2"/>
     </row>
-    <row r="849" spans="6:10" ht="12.5">
+    <row r="849" spans="6:10" ht="13.2">
       <c r="F849" s="2"/>
       <c r="J849" s="2"/>
     </row>
-    <row r="850" spans="6:10" ht="12.5">
+    <row r="850" spans="6:10" ht="13.2">
       <c r="F850" s="2"/>
       <c r="J850" s="2"/>
     </row>
-    <row r="851" spans="6:10" ht="12.5">
+    <row r="851" spans="6:10" ht="13.2">
       <c r="F851" s="2"/>
       <c r="J851" s="2"/>
     </row>
-    <row r="852" spans="6:10" ht="12.5">
+    <row r="852" spans="6:10" ht="13.2">
       <c r="F852" s="2"/>
       <c r="J852" s="2"/>
     </row>
-    <row r="853" spans="6:10" ht="12.5">
+    <row r="853" spans="6:10" ht="13.2">
       <c r="F853" s="2"/>
       <c r="J853" s="2"/>
     </row>
-    <row r="854" spans="6:10" ht="12.5">
+    <row r="854" spans="6:10" ht="13.2">
       <c r="F854" s="2"/>
       <c r="J854" s="2"/>
     </row>
-    <row r="855" spans="6:10" ht="12.5">
+    <row r="855" spans="6:10" ht="13.2">
       <c r="F855" s="2"/>
       <c r="J855" s="2"/>
     </row>
-    <row r="856" spans="6:10" ht="12.5">
+    <row r="856" spans="6:10" ht="13.2">
       <c r="F856" s="2"/>
       <c r="J856" s="2"/>
     </row>
-    <row r="857" spans="6:10" ht="12.5">
+    <row r="857" spans="6:10" ht="13.2">
       <c r="F857" s="2"/>
       <c r="J857" s="2"/>
     </row>
-    <row r="858" spans="6:10" ht="12.5">
+    <row r="858" spans="6:10" ht="13.2">
       <c r="F858" s="2"/>
       <c r="J858" s="2"/>
     </row>
-    <row r="859" spans="6:10" ht="12.5">
+    <row r="859" spans="6:10" ht="13.2">
       <c r="F859" s="2"/>
       <c r="J859" s="2"/>
     </row>
-    <row r="860" spans="6:10" ht="12.5">
+    <row r="860" spans="6:10" ht="13.2">
       <c r="F860" s="2"/>
       <c r="J860" s="2"/>
     </row>
-    <row r="861" spans="6:10" ht="12.5">
+    <row r="861" spans="6:10" ht="13.2">
       <c r="F861" s="2"/>
       <c r="J861" s="2"/>
     </row>
-    <row r="862" spans="6:10" ht="12.5">
+    <row r="862" spans="6:10" ht="13.2">
       <c r="F862" s="2"/>
       <c r="J862" s="2"/>
     </row>
-    <row r="863" spans="6:10" ht="12.5">
+    <row r="863" spans="6:10" ht="13.2">
       <c r="F863" s="2"/>
       <c r="J863" s="2"/>
     </row>
-    <row r="864" spans="6:10" ht="12.5">
+    <row r="864" spans="6:10" ht="13.2">
       <c r="F864" s="2"/>
       <c r="J864" s="2"/>
     </row>
-    <row r="865" spans="6:10" ht="12.5">
+    <row r="865" spans="6:10" ht="13.2">
       <c r="F865" s="2"/>
       <c r="J865" s="2"/>
     </row>
-    <row r="866" spans="6:10" ht="12.5">
+    <row r="866" spans="6:10" ht="13.2">
       <c r="F866" s="2"/>
       <c r="J866" s="2"/>
     </row>
-    <row r="867" spans="6:10" ht="12.5">
+    <row r="867" spans="6:10" ht="13.2">
       <c r="F867" s="2"/>
       <c r="J867" s="2"/>
     </row>
-    <row r="868" spans="6:10" ht="12.5">
+    <row r="868" spans="6:10" ht="13.2">
       <c r="F868" s="2"/>
       <c r="J868" s="2"/>
     </row>
-    <row r="869" spans="6:10" ht="12.5">
+    <row r="869" spans="6:10" ht="13.2">
       <c r="F869" s="2"/>
       <c r="J869" s="2"/>
     </row>
-    <row r="870" spans="6:10" ht="12.5">
+    <row r="870" spans="6:10" ht="13.2">
       <c r="F870" s="2"/>
       <c r="J870" s="2"/>
     </row>
-    <row r="871" spans="6:10" ht="12.5">
+    <row r="871" spans="6:10" ht="13.2">
       <c r="F871" s="2"/>
       <c r="J871" s="2"/>
     </row>
-    <row r="872" spans="6:10" ht="12.5">
+    <row r="872" spans="6:10" ht="13.2">
       <c r="F872" s="2"/>
       <c r="J872" s="2"/>
     </row>
-    <row r="873" spans="6:10" ht="12.5">
+    <row r="873" spans="6:10" ht="13.2">
       <c r="F873" s="2"/>
       <c r="J873" s="2"/>
     </row>
-    <row r="874" spans="6:10" ht="12.5">
+    <row r="874" spans="6:10" ht="13.2">
       <c r="F874" s="2"/>
       <c r="J874" s="2"/>
     </row>
-    <row r="875" spans="6:10" ht="12.5">
+    <row r="875" spans="6:10" ht="13.2">
       <c r="F875" s="2"/>
       <c r="J875" s="2"/>
     </row>
-    <row r="876" spans="6:10" ht="12.5">
+    <row r="876" spans="6:10" ht="13.2">
       <c r="F876" s="2"/>
       <c r="J876" s="2"/>
     </row>
-    <row r="877" spans="6:10" ht="12.5">
+    <row r="877" spans="6:10" ht="13.2">
       <c r="F877" s="2"/>
       <c r="J877" s="2"/>
     </row>
-    <row r="878" spans="6:10" ht="12.5">
+    <row r="878" spans="6:10" ht="13.2">
       <c r="F878" s="2"/>
       <c r="J878" s="2"/>
     </row>
-    <row r="879" spans="6:10" ht="12.5">
+    <row r="879" spans="6:10" ht="13.2">
       <c r="F879" s="2"/>
       <c r="J879" s="2"/>
     </row>
-    <row r="880" spans="6:10" ht="12.5">
+    <row r="880" spans="6:10" ht="13.2">
       <c r="F880" s="2"/>
       <c r="J880" s="2"/>
     </row>
-    <row r="881" spans="6:10" ht="12.5">
+    <row r="881" spans="6:10" ht="13.2">
       <c r="F881" s="2"/>
       <c r="J881" s="2"/>
     </row>
-    <row r="882" spans="6:10" ht="12.5">
+    <row r="882" spans="6:10" ht="13.2">
       <c r="F882" s="2"/>
       <c r="J882" s="2"/>
     </row>
-    <row r="883" spans="6:10" ht="12.5">
+    <row r="883" spans="6:10" ht="13.2">
       <c r="F883" s="2"/>
       <c r="J883" s="2"/>
     </row>
-    <row r="884" spans="6:10" ht="12.5">
+    <row r="884" spans="6:10" ht="13.2">
       <c r="F884" s="2"/>
       <c r="J884" s="2"/>
     </row>
-    <row r="885" spans="6:10" ht="12.5">
+    <row r="885" spans="6:10" ht="13.2">
       <c r="F885" s="2"/>
       <c r="J885" s="2"/>
     </row>
-    <row r="886" spans="6:10" ht="12.5">
+    <row r="886" spans="6:10" ht="13.2">
       <c r="F886" s="2"/>
       <c r="J886" s="2"/>
     </row>
-    <row r="887" spans="6:10" ht="12.5">
+    <row r="887" spans="6:10" ht="13.2">
       <c r="F887" s="2"/>
       <c r="J887" s="2"/>
     </row>
-    <row r="888" spans="6:10" ht="12.5">
+    <row r="888" spans="6:10" ht="13.2">
       <c r="F888" s="2"/>
       <c r="J888" s="2"/>
     </row>
-    <row r="889" spans="6:10" ht="12.5">
+    <row r="889" spans="6:10" ht="13.2">
       <c r="F889" s="2"/>
       <c r="J889" s="2"/>
     </row>
-    <row r="890" spans="6:10" ht="12.5">
+    <row r="890" spans="6:10" ht="13.2">
       <c r="F890" s="2"/>
       <c r="J890" s="2"/>
     </row>
-    <row r="891" spans="6:10" ht="12.5">
+    <row r="891" spans="6:10" ht="13.2">
       <c r="F891" s="2"/>
       <c r="J891" s="2"/>
     </row>
-    <row r="892" spans="6:10" ht="12.5">
+    <row r="892" spans="6:10" ht="13.2">
       <c r="F892" s="2"/>
       <c r="J892" s="2"/>
     </row>
-    <row r="893" spans="6:10" ht="12.5">
+    <row r="893" spans="6:10" ht="13.2">
       <c r="F893" s="2"/>
       <c r="J893" s="2"/>
     </row>
-    <row r="894" spans="6:10" ht="12.5">
+    <row r="894" spans="6:10" ht="13.2">
       <c r="F894" s="2"/>
       <c r="J894" s="2"/>
     </row>
-    <row r="895" spans="6:10" ht="12.5">
+    <row r="895" spans="6:10" ht="13.2">
       <c r="F895" s="2"/>
       <c r="J895" s="2"/>
     </row>
-    <row r="896" spans="6:10" ht="12.5">
+    <row r="896" spans="6:10" ht="13.2">
       <c r="F896" s="2"/>
       <c r="J896" s="2"/>
     </row>
-    <row r="897" spans="6:10" ht="12.5">
+    <row r="897" spans="6:10" ht="13.2">
       <c r="F897" s="2"/>
       <c r="J897" s="2"/>
     </row>
-    <row r="898" spans="6:10" ht="12.5">
+    <row r="898" spans="6:10" ht="13.2">
       <c r="F898" s="2"/>
       <c r="J898" s="2"/>
     </row>
-    <row r="899" spans="6:10" ht="12.5">
+    <row r="899" spans="6:10" ht="13.2">
       <c r="F899" s="2"/>
       <c r="J899" s="2"/>
     </row>
-    <row r="900" spans="6:10" ht="12.5">
+    <row r="900" spans="6:10" ht="13.2">
       <c r="F900" s="2"/>
       <c r="J900" s="2"/>
     </row>
-    <row r="901" spans="6:10" ht="12.5">
+    <row r="901" spans="6:10" ht="13.2">
       <c r="F901" s="2"/>
       <c r="J901" s="2"/>
     </row>
-    <row r="902" spans="6:10" ht="12.5">
+    <row r="902" spans="6:10" ht="13.2">
       <c r="F902" s="2"/>
       <c r="J902" s="2"/>
     </row>
-    <row r="903" spans="6:10" ht="12.5">
+    <row r="903" spans="6:10" ht="13.2">
       <c r="F903" s="2"/>
       <c r="J903" s="2"/>
     </row>
-    <row r="904" spans="6:10" ht="12.5">
+    <row r="904" spans="6:10" ht="13.2">
       <c r="F904" s="2"/>
       <c r="J904" s="2"/>
     </row>
-    <row r="905" spans="6:10" ht="12.5">
+    <row r="905" spans="6:10" ht="13.2">
       <c r="F905" s="2"/>
       <c r="J905" s="2"/>
     </row>
-    <row r="906" spans="6:10" ht="12.5">
+    <row r="906" spans="6:10" ht="13.2">
       <c r="F906" s="2"/>
       <c r="J906" s="2"/>
     </row>
-    <row r="907" spans="6:10" ht="12.5">
+    <row r="907" spans="6:10" ht="13.2">
       <c r="F907" s="2"/>
       <c r="J907" s="2"/>
     </row>
-    <row r="908" spans="6:10" ht="12.5">
+    <row r="908" spans="6:10" ht="13.2">
       <c r="F908" s="2"/>
       <c r="J908" s="2"/>
     </row>
-    <row r="909" spans="6:10" ht="12.5">
+    <row r="909" spans="6:10" ht="13.2">
       <c r="F909" s="2"/>
       <c r="J909" s="2"/>
     </row>
-    <row r="910" spans="6:10" ht="12.5">
+    <row r="910" spans="6:10" ht="13.2">
       <c r="F910" s="2"/>
       <c r="J910" s="2"/>
     </row>
-    <row r="911" spans="6:10" ht="12.5">
+    <row r="911" spans="6:10" ht="13.2">
       <c r="F911" s="2"/>
       <c r="J911" s="2"/>
     </row>
-    <row r="912" spans="6:10" ht="12.5">
+    <row r="912" spans="6:10" ht="13.2">
       <c r="F912" s="2"/>
       <c r="J912" s="2"/>
     </row>
-    <row r="913" spans="6:10" ht="12.5">
+    <row r="913" spans="6:10" ht="13.2">
       <c r="F913" s="2"/>
       <c r="J913" s="2"/>
     </row>
-    <row r="914" spans="6:10" ht="12.5">
+    <row r="914" spans="6:10" ht="13.2">
       <c r="F914" s="2"/>
       <c r="J914" s="2"/>
     </row>
-    <row r="915" spans="6:10" ht="12.5">
+    <row r="915" spans="6:10" ht="13.2">
       <c r="F915" s="2"/>
       <c r="J915" s="2"/>
     </row>
-    <row r="916" spans="6:10" ht="12.5">
+    <row r="916" spans="6:10" ht="13.2">
       <c r="F916" s="2"/>
       <c r="J916" s="2"/>
     </row>
-    <row r="917" spans="6:10" ht="12.5">
+    <row r="917" spans="6:10" ht="13.2">
       <c r="F917" s="2"/>
       <c r="J917" s="2"/>
     </row>
-    <row r="918" spans="6:10" ht="12.5">
+    <row r="918" spans="6:10" ht="13.2">
       <c r="F918" s="2"/>
       <c r="J918" s="2"/>
     </row>
-    <row r="919" spans="6:10" ht="12.5">
+    <row r="919" spans="6:10" ht="13.2">
       <c r="F919" s="2"/>
       <c r="J919" s="2"/>
     </row>
-    <row r="920" spans="6:10" ht="12.5">
+    <row r="920" spans="6:10" ht="13.2">
       <c r="F920" s="2"/>
       <c r="J920" s="2"/>
     </row>
-    <row r="921" spans="6:10" ht="12.5">
+    <row r="921" spans="6:10" ht="13.2">
       <c r="F921" s="2"/>
       <c r="J921" s="2"/>
     </row>
-    <row r="922" spans="6:10" ht="12.5">
+    <row r="922" spans="6:10" ht="13.2">
       <c r="F922" s="2"/>
       <c r="J922" s="2"/>
     </row>
-    <row r="923" spans="6:10" ht="12.5">
+    <row r="923" spans="6:10" ht="13.2">
       <c r="F923" s="2"/>
       <c r="J923" s="2"/>
     </row>
-    <row r="924" spans="6:10" ht="12.5">
+    <row r="924" spans="6:10" ht="13.2">
       <c r="F924" s="2"/>
       <c r="J924" s="2"/>
     </row>
-    <row r="925" spans="6:10" ht="12.5">
+    <row r="925" spans="6:10" ht="13.2">
       <c r="F925" s="2"/>
       <c r="J925" s="2"/>
     </row>
-    <row r="926" spans="6:10" ht="12.5">
+    <row r="926" spans="6:10" ht="13.2">
       <c r="F926" s="2"/>
       <c r="J926" s="2"/>
     </row>
-    <row r="927" spans="6:10" ht="12.5">
+    <row r="927" spans="6:10" ht="13.2">
       <c r="F927" s="2"/>
       <c r="J927" s="2"/>
     </row>
-    <row r="928" spans="6:10" ht="12.5">
+    <row r="928" spans="6:10" ht="13.2">
       <c r="F928" s="2"/>
       <c r="J928" s="2"/>
     </row>
-    <row r="929" spans="6:10" ht="12.5">
+    <row r="929" spans="6:10" ht="13.2">
       <c r="F929" s="2"/>
       <c r="J929" s="2"/>
     </row>
-    <row r="930" spans="6:10" ht="12.5">
+    <row r="930" spans="6:10" ht="13.2">
       <c r="F930" s="2"/>
       <c r="J930" s="2"/>
     </row>
-    <row r="931" spans="6:10" ht="12.5">
+    <row r="931" spans="6:10" ht="13.2">
       <c r="F931" s="2"/>
       <c r="J931" s="2"/>
     </row>
-    <row r="932" spans="6:10" ht="12.5">
+    <row r="932" spans="6:10" ht="13.2">
       <c r="F932" s="2"/>
       <c r="J932" s="2"/>
     </row>
-    <row r="933" spans="6:10" ht="12.5">
+    <row r="933" spans="6:10" ht="13.2">
       <c r="F933" s="2"/>
       <c r="J933" s="2"/>
     </row>
-    <row r="934" spans="6:10" ht="12.5">
+    <row r="934" spans="6:10" ht="13.2">
       <c r="F934" s="2"/>
       <c r="J934" s="2"/>
     </row>
-    <row r="935" spans="6:10" ht="12.5">
+    <row r="935" spans="6:10" ht="13.2">
       <c r="F935" s="2"/>
       <c r="J935" s="2"/>
     </row>
-    <row r="936" spans="6:10" ht="12.5">
+    <row r="936" spans="6:10" ht="13.2">
       <c r="F936" s="2"/>
       <c r="J936" s="2"/>
     </row>
-    <row r="937" spans="6:10" ht="12.5">
+    <row r="937" spans="6:10" ht="13.2">
       <c r="F937" s="2"/>
       <c r="J937" s="2"/>
     </row>
-    <row r="938" spans="6:10" ht="12.5">
+    <row r="938" spans="6:10" ht="13.2">
       <c r="F938" s="2"/>
       <c r="J938" s="2"/>
     </row>
-    <row r="939" spans="6:10" ht="12.5">
+    <row r="939" spans="6:10" ht="13.2">
       <c r="F939" s="2"/>
       <c r="J939" s="2"/>
     </row>
-    <row r="940" spans="6:10" ht="12.5">
+    <row r="940" spans="6:10" ht="13.2">
       <c r="F940" s="2"/>
       <c r="J940" s="2"/>
     </row>
-    <row r="941" spans="6:10" ht="12.5">
+    <row r="941" spans="6:10" ht="13.2">
       <c r="F941" s="2"/>
       <c r="J941" s="2"/>
     </row>
-    <row r="942" spans="6:10" ht="12.5">
+    <row r="942" spans="6:10" ht="13.2">
       <c r="F942" s="2"/>
       <c r="J942" s="2"/>
     </row>
-    <row r="943" spans="6:10" ht="12.5">
+    <row r="943" spans="6:10" ht="13.2">
       <c r="F943" s="2"/>
       <c r="J943" s="2"/>
     </row>
-    <row r="944" spans="6:10" ht="12.5">
+    <row r="944" spans="6:10" ht="13.2">
       <c r="F944" s="2"/>
       <c r="J944" s="2"/>
     </row>
-    <row r="945" spans="6:10" ht="12.5">
+    <row r="945" spans="6:10" ht="13.2">
       <c r="F945" s="2"/>
       <c r="J945" s="2"/>
     </row>
-    <row r="946" spans="6:10" ht="12.5">
+    <row r="946" spans="6:10" ht="13.2">
       <c r="F946" s="2"/>
       <c r="J946" s="2"/>
     </row>
-    <row r="947" spans="6:10" ht="12.5">
+    <row r="947" spans="6:10" ht="13.2">
       <c r="F947" s="2"/>
       <c r="J947" s="2"/>
     </row>
-    <row r="948" spans="6:10" ht="12.5">
+    <row r="948" spans="6:10" ht="13.2">
       <c r="F948" s="2"/>
       <c r="J948" s="2"/>
     </row>
-    <row r="949" spans="6:10" ht="12.5">
+    <row r="949" spans="6:10" ht="13.2">
       <c r="F949" s="2"/>
       <c r="J949" s="2"/>
     </row>
-    <row r="950" spans="6:10" ht="12.5">
+    <row r="950" spans="6:10" ht="13.2">
       <c r="F950" s="2"/>
       <c r="J950" s="2"/>
     </row>
-    <row r="951" spans="6:10" ht="12.5">
+    <row r="951" spans="6:10" ht="13.2">
       <c r="F951" s="2"/>
       <c r="J951" s="2"/>
     </row>
-    <row r="952" spans="6:10" ht="12.5">
+    <row r="952" spans="6:10" ht="13.2">
       <c r="F952" s="2"/>
       <c r="J952" s="2"/>
     </row>
-    <row r="953" spans="6:10" ht="12.5">
+    <row r="953" spans="6:10" ht="13.2">
       <c r="F953" s="2"/>
       <c r="J953" s="2"/>
     </row>
-    <row r="954" spans="6:10" ht="12.5">
+    <row r="954" spans="6:10" ht="13.2">
       <c r="F954" s="2"/>
       <c r="J954" s="2"/>
     </row>
-    <row r="955" spans="6:10" ht="12.5">
+    <row r="955" spans="6:10" ht="13.2">
       <c r="F955" s="2"/>
       <c r="J955" s="2"/>
     </row>
-    <row r="956" spans="6:10" ht="12.5">
+    <row r="956" spans="6:10" ht="13.2">
       <c r="F956" s="2"/>
       <c r="J956" s="2"/>
     </row>
-    <row r="957" spans="6:10" ht="12.5">
+    <row r="957" spans="6:10" ht="13.2">
       <c r="F957" s="2"/>
       <c r="J957" s="2"/>
     </row>
-    <row r="958" spans="6:10" ht="12.5">
+    <row r="958" spans="6:10" ht="13.2">
       <c r="F958" s="2"/>
       <c r="J958" s="2"/>
     </row>
-    <row r="959" spans="6:10" ht="12.5">
+    <row r="959" spans="6:10" ht="13.2">
       <c r="F959" s="2"/>
       <c r="J959" s="2"/>
     </row>
-    <row r="960" spans="6:10" ht="12.5">
+    <row r="960" spans="6:10" ht="13.2">
       <c r="F960" s="2"/>
       <c r="J960" s="2"/>
     </row>
-    <row r="961" spans="6:10" ht="12.5">
+    <row r="961" spans="6:10" ht="13.2">
       <c r="F961" s="2"/>
       <c r="J961" s="2"/>
     </row>
-    <row r="962" spans="6:10" ht="12.5">
+    <row r="962" spans="6:10" ht="13.2">
       <c r="F962" s="2"/>
       <c r="J962" s="2"/>
     </row>
-    <row r="963" spans="6:10" ht="12.5">
+    <row r="963" spans="6:10" ht="13.2">
       <c r="F963" s="2"/>
       <c r="J963" s="2"/>
     </row>
-    <row r="964" spans="6:10" ht="12.5">
+    <row r="964" spans="6:10" ht="13.2">
       <c r="F964" s="2"/>
       <c r="J964" s="2"/>
     </row>
-    <row r="965" spans="6:10" ht="12.5">
+    <row r="965" spans="6:10" ht="13.2">
       <c r="F965" s="2"/>
       <c r="J965" s="2"/>
     </row>
-    <row r="966" spans="6:10" ht="12.5">
+    <row r="966" spans="6:10" ht="13.2">
       <c r="F966" s="2"/>
       <c r="J966" s="2"/>
     </row>
-    <row r="967" spans="6:10" ht="12.5">
+    <row r="967" spans="6:10" ht="13.2">
       <c r="F967" s="2"/>
       <c r="J967" s="2"/>
     </row>
-    <row r="968" spans="6:10" ht="12.5">
+    <row r="968" spans="6:10" ht="13.2">
       <c r="F968" s="2"/>
       <c r="J968" s="2"/>
     </row>
-    <row r="969" spans="6:10" ht="12.5">
+    <row r="969" spans="6:10" ht="13.2">
       <c r="F969" s="2"/>
       <c r="J969" s="2"/>
     </row>
-    <row r="970" spans="6:10" ht="12.5">
+    <row r="970" spans="6:10" ht="13.2">
       <c r="F970" s="2"/>
       <c r="J970" s="2"/>
     </row>
-    <row r="971" spans="6:10" ht="12.5">
+    <row r="971" spans="6:10" ht="13.2">
       <c r="F971" s="2"/>
       <c r="J971" s="2"/>
     </row>
-    <row r="972" spans="6:10" ht="12.5">
+    <row r="972" spans="6:10" ht="13.2">
       <c r="F972" s="2"/>
       <c r="J972" s="2"/>
     </row>
-    <row r="973" spans="6:10" ht="12.5">
+    <row r="973" spans="6:10" ht="13.2">
       <c r="F973" s="2"/>
       <c r="J973" s="2"/>
     </row>
-    <row r="974" spans="6:10" ht="12.5">
+    <row r="974" spans="6:10" ht="13.2">
       <c r="F974" s="2"/>
       <c r="J974" s="2"/>
     </row>
-    <row r="975" spans="6:10" ht="12.5">
+    <row r="975" spans="6:10" ht="13.2">
       <c r="F975" s="2"/>
       <c r="J975" s="2"/>
     </row>
-    <row r="976" spans="6:10" ht="12.5">
+    <row r="976" spans="6:10" ht="13.2">
       <c r="F976" s="2"/>
       <c r="J976" s="2"/>
     </row>
-    <row r="977" spans="6:10" ht="12.5">
+    <row r="977" spans="6:10" ht="13.2">
       <c r="F977" s="2"/>
       <c r="J977" s="2"/>
     </row>
-    <row r="978" spans="6:10" ht="12.5">
+    <row r="978" spans="6:10" ht="13.2">
       <c r="F978" s="2"/>
       <c r="J978" s="2"/>
     </row>
-    <row r="979" spans="6:10" ht="12.5">
+    <row r="979" spans="6:10" ht="13.2">
       <c r="F979" s="2"/>
       <c r="J979" s="2"/>
     </row>
-    <row r="980" spans="6:10" ht="12.5">
+    <row r="980" spans="6:10" ht="13.2">
       <c r="F980" s="2"/>
       <c r="J980" s="2"/>
     </row>
-    <row r="981" spans="6:10" ht="12.5">
+    <row r="981" spans="6:10" ht="13.2">
       <c r="F981" s="2"/>
       <c r="J981" s="2"/>
     </row>
-    <row r="982" spans="6:10" ht="12.5">
+    <row r="982" spans="6:10" ht="13.2">
       <c r="F982" s="2"/>
       <c r="J982" s="2"/>
     </row>
-    <row r="983" spans="6:10" ht="12.5">
+    <row r="983" spans="6:10" ht="13.2">
       <c r="F983" s="2"/>
       <c r="J983" s="2"/>
     </row>
-    <row r="984" spans="6:10" ht="12.5">
+    <row r="984" spans="6:10" ht="13.2">
       <c r="F984" s="2"/>
       <c r="J984" s="2"/>
     </row>
-    <row r="985" spans="6:10" ht="12.5">
+    <row r="985" spans="6:10" ht="13.2">
       <c r="F985" s="2"/>
       <c r="J985" s="2"/>
     </row>
-    <row r="986" spans="6:10" ht="12.5">
+    <row r="986" spans="6:10" ht="13.2">
       <c r="F986" s="2"/>
       <c r="J986" s="2"/>
     </row>
-    <row r="987" spans="6:10" ht="12.5">
+    <row r="987" spans="6:10" ht="13.2">
       <c r="F987" s="2"/>
       <c r="J987" s="2"/>
     </row>
-    <row r="988" spans="6:10" ht="12.5">
+    <row r="988" spans="6:10" ht="13.2">
       <c r="F988" s="2"/>
       <c r="J988" s="2"/>
     </row>
-    <row r="989" spans="6:10" ht="12.5">
+    <row r="989" spans="6:10" ht="13.2">
       <c r="F989" s="2"/>
       <c r="J989" s="2"/>
     </row>
-    <row r="990" spans="6:10" ht="12.5">
+    <row r="990" spans="6:10" ht="13.2">
       <c r="F990" s="2"/>
       <c r="J990" s="2"/>
     </row>
-    <row r="991" spans="6:10" ht="12.5">
+    <row r="991" spans="6:10" ht="13.2">
       <c r="F991" s="2"/>
       <c r="J991" s="2"/>
     </row>
-    <row r="992" spans="6:10" ht="12.5">
+    <row r="992" spans="6:10" ht="13.2">
       <c r="F992" s="2"/>
       <c r="J992" s="2"/>
     </row>
-    <row r="993" spans="6:10" ht="12.5">
+    <row r="993" spans="6:10" ht="13.2">
       <c r="F993" s="2"/>
       <c r="J993" s="2"/>
     </row>
-    <row r="994" spans="6:10" ht="12.5">
+    <row r="994" spans="6:10" ht="13.2">
       <c r="F994" s="2"/>
       <c r="J994" s="2"/>
     </row>
-    <row r="995" spans="6:10" ht="12.5">
+    <row r="995" spans="6:10" ht="13.2">
       <c r="F995" s="2"/>
       <c r="J995" s="2"/>
     </row>
-    <row r="996" spans="6:10" ht="12.5">
+    <row r="996" spans="6:10" ht="13.2">
       <c r="F996" s="2"/>
       <c r="J996" s="2"/>
     </row>
-    <row r="997" spans="6:10" ht="12.5">
+    <row r="997" spans="6:10" ht="13.2">
       <c r="F997" s="2"/>
       <c r="J997" s="2"/>
     </row>
-    <row r="998" spans="6:10" ht="12.5">
+    <row r="998" spans="6:10" ht="13.2">
       <c r="F998" s="2"/>
       <c r="J998" s="2"/>
     </row>
-    <row r="999" spans="6:10" ht="12.5">
+    <row r="999" spans="6:10" ht="13.2">
       <c r="F999" s="2"/>
       <c r="J999" s="2"/>
     </row>
-    <row r="1000" spans="6:10" ht="12.5">
+    <row r="1000" spans="6:10" ht="13.2">
       <c r="F1000" s="2"/>
       <c r="J1000" s="2"/>
     </row>
-    <row r="1001" spans="6:10" ht="12.5">
+    <row r="1001" spans="6:10" ht="13.2">
       <c r="F1001" s="2"/>
       <c r="J1001" s="2"/>
     </row>
-    <row r="1002" spans="6:10" ht="12.5">
+    <row r="1002" spans="6:10" ht="13.2">
       <c r="F1002" s="2"/>
       <c r="J1002" s="2"/>
     </row>
-    <row r="1003" spans="6:10" ht="12.5">
+    <row r="1003" spans="6:10" ht="13.2">
       <c r="F1003" s="2"/>
       <c r="J1003" s="2"/>
     </row>
-    <row r="1004" spans="6:10" ht="12.5">
+    <row r="1004" spans="6:10" ht="13.2">
       <c r="F1004" s="2"/>
       <c r="J1004" s="2"/>
     </row>
-    <row r="1005" spans="6:10" ht="12.5">
+    <row r="1005" spans="6:10" ht="13.2">
       <c r="F1005" s="2"/>
       <c r="J1005" s="2"/>
     </row>
-    <row r="1006" spans="6:10" ht="12.5">
+    <row r="1006" spans="6:10" ht="13.2">
       <c r="F1006" s="2"/>
       <c r="J1006" s="2"/>
     </row>
-    <row r="1007" spans="6:10" ht="12.5">
+    <row r="1007" spans="6:10" ht="13.2">
       <c r="F1007" s="2"/>
       <c r="J1007" s="2"/>
     </row>
-    <row r="1008" spans="6:10" ht="12.5">
+    <row r="1008" spans="6:10" ht="13.2">
       <c r="F1008" s="2"/>
       <c r="J1008" s="2"/>
     </row>
-    <row r="1009" spans="6:10" ht="12.5">
+    <row r="1009" spans="6:10" ht="13.2">
       <c r="F1009" s="2"/>
       <c r="J1009" s="2"/>
     </row>
-    <row r="1010" spans="6:10" ht="12.5">
+    <row r="1010" spans="6:10" ht="13.2">
       <c r="F1010" s="2"/>
       <c r="J1010" s="2"/>
     </row>
-    <row r="1011" spans="6:10" ht="12.5">
+    <row r="1011" spans="6:10" ht="13.2">
       <c r="F1011" s="2"/>
       <c r="J1011" s="2"/>
     </row>
-    <row r="1012" spans="6:10" ht="12.5">
+    <row r="1012" spans="6:10" ht="13.2">
       <c r="F1012" s="2"/>
       <c r="J1012" s="2"/>
     </row>
-    <row r="1013" spans="6:10" ht="12.5">
+    <row r="1013" spans="6:10" ht="13.2">
       <c r="F1013" s="2"/>
       <c r="J1013" s="2"/>
     </row>
-    <row r="1014" spans="6:10" ht="12.5">
+    <row r="1014" spans="6:10" ht="13.2">
       <c r="F1014" s="2"/>
       <c r="J1014" s="2"/>
     </row>
-    <row r="1015" spans="6:10" ht="12.5">
+    <row r="1015" spans="6:10" ht="13.2">
       <c r="F1015" s="2"/>
       <c r="J1015" s="2"/>
     </row>
-    <row r="1016" spans="6:10" ht="12.5">
+    <row r="1016" spans="6:10" ht="13.2">
       <c r="F1016" s="2"/>
       <c r="J1016" s="2"/>
     </row>
-    <row r="1017" spans="6:10" ht="12.5">
+    <row r="1017" spans="6:10" ht="13.2">
       <c r="F1017" s="2"/>
       <c r="J1017" s="2"/>
     </row>
-    <row r="1018" spans="6:10" ht="12.5">
+    <row r="1018" spans="6:10" ht="13.2">
       <c r="F1018" s="2"/>
       <c r="J1018" s="2"/>
     </row>
-    <row r="1019" spans="6:10" ht="12.5">
+    <row r="1019" spans="6:10" ht="13.2">
       <c r="F1019" s="2"/>
       <c r="J1019" s="2"/>
     </row>
-    <row r="1020" spans="6:10" ht="12.5">
+    <row r="1020" spans="6:10" ht="13.2">
       <c r="F1020" s="2"/>
       <c r="J1020" s="2"/>
     </row>
-    <row r="1021" spans="6:10" ht="12.5">
+    <row r="1021" spans="6:10" ht="13.2">
       <c r="F1021" s="2"/>
       <c r="J1021" s="2"/>
     </row>
-    <row r="1022" spans="6:10" ht="12.5">
+    <row r="1022" spans="6:10" ht="13.2">
       <c r="F1022" s="2"/>
       <c r="J1022" s="2"/>
     </row>
-    <row r="1023" spans="6:10" ht="12.5">
+    <row r="1023" spans="6:10" ht="13.2">
       <c r="F1023" s="2"/>
       <c r="J1023" s="2"/>
     </row>
-    <row r="1024" spans="6:10" ht="12.5">
+    <row r="1024" spans="6:10" ht="13.2">
       <c r="F1024" s="2"/>
       <c r="J1024" s="2"/>
     </row>
-    <row r="1025" spans="6:10" ht="12.5">
+    <row r="1025" spans="6:10" ht="13.2">
       <c r="F1025" s="2"/>
       <c r="J1025" s="2"/>
     </row>
-    <row r="1026" spans="6:10" ht="12.5">
+    <row r="1026" spans="6:10" ht="13.2">
       <c r="F1026" s="2"/>
       <c r="J1026" s="2"/>
     </row>
-    <row r="1027" spans="6:10" ht="12.5">
+    <row r="1027" spans="6:10" ht="13.2">
       <c r="F1027" s="2"/>
       <c r="J1027" s="2"/>
     </row>
-    <row r="1028" spans="6:10" ht="12.5">
+    <row r="1028" spans="6:10" ht="13.2">
       <c r="F1028" s="2"/>
       <c r="J1028" s="2"/>
     </row>
-    <row r="1029" spans="6:10" ht="12.5">
+    <row r="1029" spans="6:10" ht="13.2">
       <c r="F1029" s="2"/>
       <c r="J1029" s="2"/>
     </row>
-    <row r="1030" spans="6:10" ht="12.5">
+    <row r="1030" spans="6:10" ht="13.2">
       <c r="F1030" s="2"/>
       <c r="J1030" s="2"/>
     </row>
-    <row r="1031" spans="6:10" ht="12.5">
+    <row r="1031" spans="6:10" ht="13.2">
       <c r="F1031" s="2"/>
       <c r="J1031" s="2"/>
     </row>
-    <row r="1032" spans="6:10" ht="12.5">
+    <row r="1032" spans="6:10" ht="13.2">
       <c r="F1032" s="2"/>
       <c r="J1032" s="2"/>
     </row>
-    <row r="1033" spans="6:10" ht="12.5">
+    <row r="1033" spans="6:10" ht="13.2">
       <c r="F1033" s="2"/>
       <c r="J1033" s="2"/>
     </row>
-    <row r="1034" spans="6:10" ht="12.5">
+    <row r="1034" spans="6:10" ht="13.2">
       <c r="F1034" s="2"/>
       <c r="J1034" s="2"/>
     </row>
-    <row r="1035" spans="6:10" ht="12.5">
+    <row r="1035" spans="6:10" ht="13.2">
       <c r="F1035" s="2"/>
       <c r="J1035" s="2"/>
     </row>
-    <row r="1036" spans="6:10" ht="12.5">
+    <row r="1036" spans="6:10" ht="13.2">
       <c r="F1036" s="2"/>
       <c r="J1036" s="2"/>
     </row>
-    <row r="1037" spans="6:10" ht="12.5">
+    <row r="1037" spans="6:10" ht="13.2">
       <c r="F1037" s="2"/>
       <c r="J1037" s="2"/>
     </row>
-    <row r="1038" spans="6:10" ht="12.5">
+    <row r="1038" spans="6:10" ht="13.2">
       <c r="F1038" s="2"/>
       <c r="J1038" s="2"/>
     </row>
-    <row r="1039" spans="6:10" ht="12.5">
+    <row r="1039" spans="6:10" ht="13.2">
       <c r="F1039" s="2"/>
       <c r="J1039" s="2"/>
     </row>
-    <row r="1040" spans="6:10" ht="12.5">
+    <row r="1040" spans="6:10" ht="13.2">
       <c r="F1040" s="2"/>
       <c r="J1040" s="2"/>
     </row>
-    <row r="1041" spans="6:10" ht="12.5">
+    <row r="1041" spans="6:10" ht="13.2">
       <c r="F1041" s="2"/>
       <c r="J1041" s="2"/>
     </row>
-    <row r="1042" spans="6:10" ht="12.5">
+    <row r="1042" spans="6:10" ht="13.2">
       <c r="F1042" s="2"/>
       <c r="J1042" s="2"/>
     </row>
-    <row r="1043" spans="6:10" ht="12.5">
+    <row r="1043" spans="6:10" ht="13.2">
       <c r="F1043" s="2"/>
       <c r="J1043" s="2"/>
     </row>
-    <row r="1044" spans="6:10" ht="12.5">
+    <row r="1044" spans="6:10" ht="13.2">
       <c r="F1044" s="2"/>
       <c r="J1044" s="2"/>
     </row>
-    <row r="1045" spans="6:10" ht="12.5">
+    <row r="1045" spans="6:10" ht="13.2">
       <c r="F1045" s="2"/>
       <c r="J1045" s="2"/>
     </row>
-    <row r="1046" spans="6:10" ht="12.5">
+    <row r="1046" spans="6:10" ht="13.2">
       <c r="F1046" s="2"/>
       <c r="J1046" s="2"/>
     </row>
-    <row r="1047" spans="6:10" ht="12.5">
+    <row r="1047" spans="6:10" ht="13.2">
       <c r="F1047" s="2"/>
       <c r="J1047" s="2"/>
     </row>
-    <row r="1048" spans="6:10" ht="12.5">
+    <row r="1048" spans="6:10" ht="13.2">
       <c r="F1048" s="2"/>
       <c r="J1048" s="2"/>
     </row>
-    <row r="1049" spans="6:10" ht="12.5">
+    <row r="1049" spans="6:10" ht="13.2">
       <c r="F1049" s="2"/>
       <c r="J1049" s="2"/>
     </row>
-    <row r="1050" spans="6:10" ht="12.5">
+    <row r="1050" spans="6:10" ht="13.2">
       <c r="F1050" s="2"/>
       <c r="J1050" s="2"/>
     </row>
-    <row r="1051" spans="6:10" ht="12.5">
+    <row r="1051" spans="6:10" ht="13.2">
       <c r="F1051" s="2"/>
       <c r="J1051" s="2"/>
     </row>
-    <row r="1052" spans="6:10" ht="12.5">
+    <row r="1052" spans="6:10" ht="13.2">
       <c r="F1052" s="2"/>
       <c r="J1052" s="2"/>
     </row>
-    <row r="1053" spans="6:10" ht="12.5">
+    <row r="1053" spans="6:10" ht="13.2">
       <c r="F1053" s="2"/>
       <c r="J1053" s="2"/>
     </row>
-    <row r="1054" spans="6:10" ht="12.5">
+    <row r="1054" spans="6:10" ht="13.2">
       <c r="F1054" s="2"/>
       <c r="J1054" s="2"/>
     </row>
-    <row r="1055" spans="6:10" ht="12.5">
+    <row r="1055" spans="6:10" ht="13.2">
       <c r="F1055" s="2"/>
       <c r="J1055" s="2"/>
     </row>
-    <row r="1056" spans="6:10" ht="12.5">
+    <row r="1056" spans="6:10" ht="13.2">
       <c r="F1056" s="2"/>
       <c r="J1056" s="2"/>
     </row>
-    <row r="1057" spans="6:10" ht="12.5">
+    <row r="1057" spans="6:10" ht="13.2">
       <c r="F1057" s="2"/>
       <c r="J1057" s="2"/>
     </row>
-    <row r="1058" spans="6:10" ht="12.5">
+    <row r="1058" spans="6:10" ht="13.2">
       <c r="F1058" s="2"/>
       <c r="J1058" s="2"/>
     </row>
-    <row r="1059" spans="6:10" ht="12.5">
+    <row r="1059" spans="6:10" ht="13.2">
       <c r="F1059" s="2"/>
       <c r="J1059" s="2"/>
     </row>
-    <row r="1060" spans="6:10" ht="12.5">
+    <row r="1060" spans="6:10" ht="13.2">
       <c r="F1060" s="2"/>
       <c r="J1060" s="2"/>
     </row>
-    <row r="1061" spans="6:10" ht="12.5">
+    <row r="1061" spans="6:10" ht="13.2">
       <c r="F1061" s="2"/>
       <c r="J1061" s="2"/>
     </row>
-    <row r="1062" spans="6:10" ht="12.5">
+    <row r="1062" spans="6:10" ht="13.2">
       <c r="F1062" s="2"/>
       <c r="J1062" s="2"/>
     </row>
-    <row r="1063" spans="6:10" ht="12.5">
+    <row r="1063" spans="6:10" ht="13.2">
       <c r="F1063" s="2"/>
       <c r="J1063" s="2"/>
     </row>
-    <row r="1064" spans="6:10" ht="12.5">
+    <row r="1064" spans="6:10" ht="13.2">
       <c r="F1064" s="2"/>
       <c r="J1064" s="2"/>
     </row>
-    <row r="1065" spans="6:10" ht="12.5">
+    <row r="1065" spans="6:10" ht="13.2">
       <c r="F1065" s="2"/>
       <c r="J1065" s="2"/>
     </row>
-    <row r="1066" spans="6:10" ht="12.5">
+    <row r="1066" spans="6:10" ht="13.2">
       <c r="F1066" s="2"/>
       <c r="J1066" s="2"/>
     </row>
-    <row r="1067" spans="6:10" ht="12.5">
+    <row r="1067" spans="6:10" ht="13.2">
       <c r="F1067" s="2"/>
       <c r="J1067" s="2"/>
     </row>
-    <row r="1068" spans="6:10" ht="12.5">
+    <row r="1068" spans="6:10" ht="13.2">
       <c r="F1068" s="2"/>
       <c r="J1068" s="2"/>
     </row>
-    <row r="1069" spans="6:10" ht="12.5">
+    <row r="1069" spans="6:10" ht="13.2">
       <c r="F1069" s="2"/>
       <c r="J1069" s="2"/>
     </row>
-    <row r="1070" spans="6:10" ht="12.5">
+    <row r="1070" spans="6:10" ht="13.2">
       <c r="F1070" s="2"/>
       <c r="J1070" s="2"/>
     </row>
-    <row r="1071" spans="6:10" ht="12.5">
+    <row r="1071" spans="6:10" ht="13.2">
       <c r="F1071" s="2"/>
       <c r="J1071" s="2"/>
     </row>
-    <row r="1072" spans="6:10" ht="12.5">
+    <row r="1072" spans="6:10" ht="13.2">
       <c r="F1072" s="2"/>
       <c r="J1072" s="2"/>
     </row>
-    <row r="1073" spans="6:10" ht="12.5">
+    <row r="1073" spans="6:10" ht="13.2">
       <c r="F1073" s="2"/>
       <c r="J1073" s="2"/>
     </row>
-    <row r="1074" spans="6:10" ht="12.5">
+    <row r="1074" spans="6:10" ht="13.2">
       <c r="F1074" s="2"/>
       <c r="J1074" s="2"/>
     </row>
-    <row r="1075" spans="6:10" ht="12.5">
+    <row r="1075" spans="6:10" ht="13.2">
       <c r="F1075" s="2"/>
       <c r="J1075" s="2"/>
     </row>
-    <row r="1076" spans="6:10" ht="12.5">
+    <row r="1076" spans="6:10" ht="13.2">
       <c r="F1076" s="2"/>
       <c r="J1076" s="2"/>
     </row>
-    <row r="1077" spans="6:10" ht="12.5">
+    <row r="1077" spans="6:10" ht="13.2">
       <c r="F1077" s="2"/>
       <c r="J1077" s="2"/>
     </row>
-    <row r="1078" spans="6:10" ht="12.5">
+    <row r="1078" spans="6:10" ht="13.2">
       <c r="F1078" s="2"/>
       <c r="J1078" s="2"/>
     </row>
-    <row r="1079" spans="6:10" ht="12.5">
+    <row r="1079" spans="6:10" ht="13.2">
       <c r="F1079" s="2"/>
       <c r="J1079" s="2"/>
     </row>
-    <row r="1080" spans="6:10" ht="12.5">
+    <row r="1080" spans="6:10" ht="13.2">
       <c r="F1080" s="2"/>
       <c r="J1080" s="2"/>
     </row>
-    <row r="1081" spans="6:10" ht="12.5">
+    <row r="1081" spans="6:10" ht="13.2">
       <c r="F1081" s="2"/>
       <c r="J1081" s="2"/>
     </row>
-    <row r="1082" spans="6:10" ht="12.5">
+    <row r="1082" spans="6:10" ht="13.2">
       <c r="F1082" s="2"/>
       <c r="J1082" s="2"/>
     </row>
-    <row r="1083" spans="6:10" ht="12.5">
+    <row r="1083" spans="6:10" ht="13.2">
       <c r="F1083" s="2"/>
       <c r="J1083" s="2"/>
     </row>
-    <row r="1084" spans="6:10" ht="12.5">
+    <row r="1084" spans="6:10" ht="13.2">
       <c r="F1084" s="2"/>
       <c r="J1084" s="2"/>
     </row>
-    <row r="1085" spans="6:10" ht="12.5">
+    <row r="1085" spans="6:10" ht="13.2">
       <c r="F1085" s="2"/>
       <c r="J1085" s="2"/>
     </row>
-    <row r="1086" spans="6:10" ht="12.5">
+    <row r="1086" spans="6:10" ht="13.2">
       <c r="F1086" s="2"/>
       <c r="J1086" s="2"/>
     </row>
-    <row r="1087" spans="6:10" ht="12.5">
+    <row r="1087" spans="6:10" ht="13.2">
       <c r="F1087" s="2"/>
       <c r="J1087" s="2"/>
     </row>
-    <row r="1088" spans="6:10" ht="12.5">
+    <row r="1088" spans="6:10" ht="13.2">
       <c r="F1088" s="2"/>
       <c r="J1088" s="2"/>
     </row>
-    <row r="1089" spans="6:10" ht="12.5">
+    <row r="1089" spans="6:10" ht="13.2">
       <c r="F1089" s="2"/>
       <c r="J1089" s="2"/>
     </row>
-    <row r="1090" spans="6:10" ht="12.5">
+    <row r="1090" spans="6:10" ht="13.2">
       <c r="F1090" s="2"/>
       <c r="J1090" s="2"/>
     </row>
-    <row r="1091" spans="6:10" ht="12.5">
+    <row r="1091" spans="6:10" ht="13.2">
       <c r="F1091" s="2"/>
       <c r="J1091" s="2"/>
     </row>
-    <row r="1092" spans="6:10" ht="12.5">
+    <row r="1092" spans="6:10" ht="13.2">
       <c r="F1092" s="2"/>
       <c r="J1092" s="2"/>
     </row>
-    <row r="1093" spans="6:10" ht="12.5">
+    <row r="1093" spans="6:10" ht="13.2">
       <c r="F1093" s="2"/>
       <c r="J1093" s="2"/>
     </row>
-    <row r="1094" spans="6:10" ht="12.5">
+    <row r="1094" spans="6:10" ht="13.2">
       <c r="F1094" s="2"/>
       <c r="J1094" s="2"/>
     </row>
-    <row r="1095" spans="6:10" ht="12.5">
+    <row r="1095" spans="6:10" ht="13.2">
       <c r="F1095" s="2"/>
       <c r="J1095" s="2"/>
     </row>
-    <row r="1096" spans="6:10" ht="12.5">
+    <row r="1096" spans="6:10" ht="13.2">
       <c r="F1096" s="2"/>
       <c r="J1096" s="2"/>
     </row>
-    <row r="1097" spans="6:10" ht="12.5">
+    <row r="1097" spans="6:10" ht="13.2">
       <c r="F1097" s="2"/>
       <c r="J1097" s="2"/>
     </row>
-    <row r="1098" spans="6:10" ht="12.5">
+    <row r="1098" spans="6:10" ht="13.2">
       <c r="F1098" s="2"/>
       <c r="J1098" s="2"/>
     </row>
-    <row r="1099" spans="6:10" ht="12.5">
+    <row r="1099" spans="6:10" ht="13.2">
       <c r="F1099" s="2"/>
       <c r="J1099" s="2"/>
     </row>
-    <row r="1100" spans="6:10" ht="12.5">
+    <row r="1100" spans="6:10" ht="13.2">
       <c r="F1100" s="2"/>
       <c r="J1100" s="2"/>
     </row>
-    <row r="1101" spans="6:10" ht="12.5">
+    <row r="1101" spans="6:10" ht="13.2">
       <c r="F1101" s="2"/>
       <c r="J1101" s="2"/>
     </row>
-    <row r="1102" spans="6:10" ht="12.5">
+    <row r="1102" spans="6:10" ht="13.2">
       <c r="F1102" s="2"/>
       <c r="J1102" s="2"/>
     </row>
-    <row r="1103" spans="6:10" ht="12.5">
+    <row r="1103" spans="6:10" ht="13.2">
       <c r="F1103" s="2"/>
       <c r="J1103" s="2"/>
     </row>
-    <row r="1104" spans="6:10" ht="12.5">
+    <row r="1104" spans="6:10" ht="13.2">
       <c r="F1104" s="2"/>
       <c r="J1104" s="2"/>
     </row>
-    <row r="1105" spans="6:10" ht="12.5">
+    <row r="1105" spans="6:10" ht="13.2">
       <c r="F1105" s="2"/>
       <c r="J1105" s="2"/>
     </row>
-    <row r="1106" spans="6:10" ht="12.5">
+    <row r="1106" spans="6:10" ht="13.2">
       <c r="F1106" s="2"/>
       <c r="J1106" s="2"/>
     </row>
-    <row r="1107" spans="6:10" ht="12.5">
+    <row r="1107" spans="6:10" ht="13.2">
       <c r="F1107" s="2"/>
       <c r="J1107" s="2"/>
     </row>
-    <row r="1108" spans="6:10" ht="12.5">
+    <row r="1108" spans="6:10" ht="13.2">
       <c r="F1108" s="2"/>
       <c r="J1108" s="2"/>
     </row>
-    <row r="1109" spans="6:10" ht="12.5">
+    <row r="1109" spans="6:10" ht="13.2">
       <c r="F1109" s="2"/>
       <c r="J1109" s="2"/>
     </row>
-    <row r="1110" spans="6:10" ht="12.5">
+    <row r="1110" spans="6:10" ht="13.2">
       <c r="F1110" s="2"/>
       <c r="J1110" s="2"/>
     </row>
-    <row r="1111" spans="6:10" ht="12.5">
+    <row r="1111" spans="6:10" ht="13.2">
       <c r="F1111" s="2"/>
       <c r="J1111" s="2"/>
     </row>
-    <row r="1112" spans="6:10" ht="12.5">
+    <row r="1112" spans="6:10" ht="13.2">
       <c r="F1112" s="2"/>
       <c r="J1112" s="2"/>
     </row>
-    <row r="1113" spans="6:10" ht="12.5">
+    <row r="1113" spans="6:10" ht="13.2">
       <c r="F1113" s="2"/>
       <c r="J1113" s="2"/>
     </row>
-    <row r="1114" spans="6:10" ht="12.5">
+    <row r="1114" spans="6:10" ht="13.2">
       <c r="F1114" s="2"/>
       <c r="J1114" s="2"/>
     </row>
-    <row r="1115" spans="6:10" ht="12.5">
+    <row r="1115" spans="6:10" ht="13.2">
       <c r="F1115" s="2"/>
       <c r="J1115" s="2"/>
     </row>
-    <row r="1116" spans="6:10" ht="12.5">
+    <row r="1116" spans="6:10" ht="13.2">
       <c r="F1116" s="2"/>
       <c r="J1116" s="2"/>
     </row>
-    <row r="1117" spans="6:10" ht="12.5">
+    <row r="1117" spans="6:10" ht="13.2">
       <c r="F1117" s="2"/>
       <c r="J1117" s="2"/>
     </row>
-    <row r="1118" spans="6:10" ht="12.5">
+    <row r="1118" spans="6:10" ht="13.2">
       <c r="F1118" s="2"/>
       <c r="J1118" s="2"/>
     </row>
-    <row r="1119" spans="6:10" ht="12.5">
+    <row r="1119" spans="6:10" ht="13.2">
       <c r="F1119" s="2"/>
       <c r="J1119" s="2"/>
     </row>
-    <row r="1120" spans="6:10" ht="12.5">
+    <row r="1120" spans="6:10" ht="13.2">
       <c r="F1120" s="2"/>
       <c r="J1120" s="2"/>
     </row>
-    <row r="1121" spans="6:10" ht="12.5">
+    <row r="1121" spans="6:10" ht="13.2">
       <c r="F1121" s="2"/>
       <c r="J1121" s="2"/>
     </row>
-    <row r="1122" spans="6:10" ht="12.5">
+    <row r="1122" spans="6:10" ht="13.2">
       <c r="F1122" s="2"/>
       <c r="J1122" s="2"/>
     </row>
-    <row r="1123" spans="6:10" ht="12.5">
+    <row r="1123" spans="6:10" ht="13.2">
       <c r="F1123" s="2"/>
       <c r="J1123" s="2"/>
     </row>
-    <row r="1124" spans="6:10" ht="12.5">
+    <row r="1124" spans="6:10" ht="13.2">
       <c r="F1124" s="2"/>
       <c r="J1124" s="2"/>
     </row>
-    <row r="1125" spans="6:10" ht="12.5">
+    <row r="1125" spans="6:10" ht="13.2">
       <c r="F1125" s="2"/>
       <c r="J1125" s="2"/>
     </row>
-    <row r="1126" spans="6:10" ht="12.5">
+    <row r="1126" spans="6:10" ht="13.2">
       <c r="F1126" s="2"/>
       <c r="J1126" s="2"/>
     </row>
-    <row r="1127" spans="6:10" ht="12.5">
+    <row r="1127" spans="6:10" ht="13.2">
       <c r="F1127" s="2"/>
       <c r="J1127" s="2"/>
     </row>
-    <row r="1128" spans="6:10" ht="12.5">
+    <row r="1128" spans="6:10" ht="13.2">
       <c r="F1128" s="2"/>
       <c r="J1128" s="2"/>
     </row>

--- a/mts_hahaton/searcher/file.xlsx
+++ b/mts_hahaton/searcher/file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavri\Programming\MTS-Hahaton\mts_hahaton\searcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A21DD28-1BD8-4E4E-A94F-EEBE1625701D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3F6608-D039-4709-88D4-9DDD7B13FBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="652">
   <si>
     <t xml:space="preserve">Подразделение 1 </t>
   </si>
@@ -1334,6 +1334,648 @@
   </si>
   <si>
     <t>Зайцева</t>
+  </si>
+  <si>
+    <t>xutor-asaza51@mail.ru</t>
+  </si>
+  <si>
+    <t>xadazud_iya10@yandex.ru</t>
+  </si>
+  <si>
+    <t>bemabi-bivi32@list.ru</t>
+  </si>
+  <si>
+    <t>dok-akafike82@bk.ru</t>
+  </si>
+  <si>
+    <t>yeley_ibole71@internet.ru</t>
+  </si>
+  <si>
+    <t>gitihib_ajo54@inbox.ru</t>
+  </si>
+  <si>
+    <t>zeripa-wuvu10@inbox.ru</t>
+  </si>
+  <si>
+    <t>nobate-ziwu33@yahoo.com</t>
+  </si>
+  <si>
+    <t>tivoy_anipi44@list.ru</t>
+  </si>
+  <si>
+    <t>cuto-devivu58@bk.ru</t>
+  </si>
+  <si>
+    <t>rev_efiwimi95@aol.com</t>
+  </si>
+  <si>
+    <t>jeye_sabica11@internet.ru</t>
+  </si>
+  <si>
+    <t>xokecav_ibi37@internet.ru</t>
+  </si>
+  <si>
+    <t>poba-sivife5@inbox.ru</t>
+  </si>
+  <si>
+    <t>fit-ematumi48@yahoo.com</t>
+  </si>
+  <si>
+    <t>lufat_izowi94@list.ru</t>
+  </si>
+  <si>
+    <t>tomorij-izo54@inbox.ru</t>
+  </si>
+  <si>
+    <t>lera_podifu67@inbox.ru</t>
+  </si>
+  <si>
+    <t>wil_ovufete57@internet.ru</t>
+  </si>
+  <si>
+    <t>rugabix-ovo2@bk.ru</t>
+  </si>
+  <si>
+    <t>seyapo_heso31@internet.ru</t>
+  </si>
+  <si>
+    <t>zuzut-obabi30@list.ru</t>
+  </si>
+  <si>
+    <t>log_axayika94@hotmail.com</t>
+  </si>
+  <si>
+    <t>cehi_napipu16@aol.com</t>
+  </si>
+  <si>
+    <t>ximex_ucede30@inbox.ru</t>
+  </si>
+  <si>
+    <t>xobe-pufaxa91@bk.ru</t>
+  </si>
+  <si>
+    <t>hapi_kojeco67@bk.ru</t>
+  </si>
+  <si>
+    <t>tezij_ewizu38@bk.ru</t>
+  </si>
+  <si>
+    <t>migateg_ido82@list.ru</t>
+  </si>
+  <si>
+    <t>givu_mafupu29@aol.com</t>
+  </si>
+  <si>
+    <t>jaya-sokiwi95@internet.ru</t>
+  </si>
+  <si>
+    <t>surosik_aho74@yahoo.com</t>
+  </si>
+  <si>
+    <t>vipoxe-xaza12@mail.ru</t>
+  </si>
+  <si>
+    <t>xiw-amopaca63@gmail.com</t>
+  </si>
+  <si>
+    <t>sobov-etole92@hotmail.com</t>
+  </si>
+  <si>
+    <t>tivawar_oni61@list.ru</t>
+  </si>
+  <si>
+    <t>nif-onaxazu91@bk.ru</t>
+  </si>
+  <si>
+    <t>jovem-egixo30@list.ru</t>
+  </si>
+  <si>
+    <t>podexi-lemu64@mail.ru</t>
+  </si>
+  <si>
+    <t>woran_ehude73@yandex.ru</t>
+  </si>
+  <si>
+    <t>xuba-licace70@bk.ru</t>
+  </si>
+  <si>
+    <t>bifub_ohoti14@yahoo.com</t>
+  </si>
+  <si>
+    <t>sako-takusi31@gmail.com</t>
+  </si>
+  <si>
+    <t>fim-atobome5@hotmail.com</t>
+  </si>
+  <si>
+    <t>nufu_riboje96@bk.ru</t>
+  </si>
+  <si>
+    <t>tolekoh-uji33@list.ru</t>
+  </si>
+  <si>
+    <t>lar_ikibide92@bk.ru</t>
+  </si>
+  <si>
+    <t>tihej_uwawa10@yandex.ru</t>
+  </si>
+  <si>
+    <t>mij_ovokamu25@hotmail.com</t>
+  </si>
+  <si>
+    <t>pixevu_yusu1@yandex.ru</t>
+  </si>
+  <si>
+    <t>buc-ewituho76@internet.ru</t>
+  </si>
+  <si>
+    <t>lipuvi-daro42@gmail.com</t>
+  </si>
+  <si>
+    <t>pux_urikaxa94@bk.ru</t>
+  </si>
+  <si>
+    <t>losanor-ufo20@gmail.com</t>
+  </si>
+  <si>
+    <t>barinic-avo14@bk.ru</t>
+  </si>
+  <si>
+    <t>mapiga-pawo71@gmail.com</t>
+  </si>
+  <si>
+    <t>roxemub-uye95@yandex.ru</t>
+  </si>
+  <si>
+    <t>paxoc_ugaji4@yahoo.com</t>
+  </si>
+  <si>
+    <t>fezu_xuyape35@mail.ru</t>
+  </si>
+  <si>
+    <t>vubon_ijuxi47@yahoo.com</t>
+  </si>
+  <si>
+    <t>vomul_adojo77@internet.ru</t>
+  </si>
+  <si>
+    <t>huhuruv-iyu45@hotmail.com</t>
+  </si>
+  <si>
+    <t>wagad_igama10@hotmail.com</t>
+  </si>
+  <si>
+    <t>goro-vokane46@mail.ru</t>
+  </si>
+  <si>
+    <t>muya_bufome67@inbox.ru</t>
+  </si>
+  <si>
+    <t>puxu_visexu63@aol.com</t>
+  </si>
+  <si>
+    <t>val-enudoye26@gmail.com</t>
+  </si>
+  <si>
+    <t>lurolak_ehe86@yahoo.com</t>
+  </si>
+  <si>
+    <t>sowu_gozeti48@mail.ru</t>
+  </si>
+  <si>
+    <t>hohu_jozice15@list.ru</t>
+  </si>
+  <si>
+    <t>dun_ujelobi3@internet.ru</t>
+  </si>
+  <si>
+    <t>xunocah_uho51@inbox.ru</t>
+  </si>
+  <si>
+    <t>sobovu-tevi49@inbox.ru</t>
+  </si>
+  <si>
+    <t>dedidap-ike57@inbox.ru</t>
+  </si>
+  <si>
+    <t>cogubez-epe45@gmail.com</t>
+  </si>
+  <si>
+    <t>jasak_erefu48@gmail.com</t>
+  </si>
+  <si>
+    <t>zida_puboxa51@mail.ru</t>
+  </si>
+  <si>
+    <t>puy_uhuxaha36@mail.ru</t>
+  </si>
+  <si>
+    <t>daloza-weje61@bk.ru</t>
+  </si>
+  <si>
+    <t>goney_axiyo89@aol.com</t>
+  </si>
+  <si>
+    <t>xuwu-tixiku76@mail.ru</t>
+  </si>
+  <si>
+    <t>wifin_icuhe96@yandex.ru</t>
+  </si>
+  <si>
+    <t>sozage_sefa55@yahoo.com</t>
+  </si>
+  <si>
+    <t>dogeta_sefu56@yandex.ru</t>
+  </si>
+  <si>
+    <t>zar-etosado40@yandex.ru</t>
+  </si>
+  <si>
+    <t>kahan_ecawi19@yandex.ru</t>
+  </si>
+  <si>
+    <t>danigit_ozi78@mail.ru</t>
+  </si>
+  <si>
+    <t>gusepa_libo96@mail.ru</t>
+  </si>
+  <si>
+    <t>zucuwit-ila20@yahoo.com</t>
+  </si>
+  <si>
+    <t>bupuvu-guja39@internet.ru</t>
+  </si>
+  <si>
+    <t>luyemi-vaji72@bk.ru</t>
+  </si>
+  <si>
+    <t>wix_asezisi8@internet.ru</t>
+  </si>
+  <si>
+    <t>kupapez-upa29@bk.ru</t>
+  </si>
+  <si>
+    <t>gilo_gexiki41@hotmail.com</t>
+  </si>
+  <si>
+    <t>jupo_wesaro47@yandex.ru</t>
+  </si>
+  <si>
+    <t>pabix-ariti1@yahoo.com</t>
+  </si>
+  <si>
+    <t>labu-bifazi81@yandex.ru</t>
+  </si>
+  <si>
+    <t>polalix-iwe35@internet.ru</t>
+  </si>
+  <si>
+    <t>tumum-eroze7@yahoo.com</t>
+  </si>
+  <si>
+    <t>sodiy-ujiyo99@internet.ru</t>
+  </si>
+  <si>
+    <t>sok-adeloju57@yandex.ru</t>
+  </si>
+  <si>
+    <t>tevazo-vupi40@aol.com</t>
+  </si>
+  <si>
+    <t>menino-dozo72@internet.ru</t>
+  </si>
+  <si>
+    <t>minut_emeza26@internet.ru</t>
+  </si>
+  <si>
+    <t>woyatu-zeki5@list.ru</t>
+  </si>
+  <si>
+    <t>neca-fodelo20@aol.com</t>
+  </si>
+  <si>
+    <t>zurin_usavi76@yahoo.com</t>
+  </si>
+  <si>
+    <t>yahomav-oyo7@gmail.com</t>
+  </si>
+  <si>
+    <t>kur-afazayi12@yandex.ru</t>
+  </si>
+  <si>
+    <t>loyugal-aja9@aol.com</t>
+  </si>
+  <si>
+    <t>haye-suwizu31@mail.ru</t>
+  </si>
+  <si>
+    <t>levosok-ode16@inbox.ru</t>
+  </si>
+  <si>
+    <t>vejisej-obo10@gmail.com</t>
+  </si>
+  <si>
+    <t>goy_epoloma41@list.ru</t>
+  </si>
+  <si>
+    <t>fetem-okozu92@bk.ru</t>
+  </si>
+  <si>
+    <t>fonuhos_ini86@mail.ru</t>
+  </si>
+  <si>
+    <t>sajudu-fika61@internet.ru</t>
+  </si>
+  <si>
+    <t>legi-nuvele58@internet.ru</t>
+  </si>
+  <si>
+    <t>gey_oveyuvi8@internet.ru</t>
+  </si>
+  <si>
+    <t>reravof-ece85@yahoo.com</t>
+  </si>
+  <si>
+    <t>yez-etitayi10@inbox.ru</t>
+  </si>
+  <si>
+    <t>mopa-vakimi67@gmail.com</t>
+  </si>
+  <si>
+    <t>huxej_olino44@inbox.ru</t>
+  </si>
+  <si>
+    <t>vefe-hudeja46@yahoo.com</t>
+  </si>
+  <si>
+    <t>yurokaj-ija46@yahoo.com</t>
+  </si>
+  <si>
+    <t>xug_evuvasi76@inbox.ru</t>
+  </si>
+  <si>
+    <t>jew_ehujabu99@yandex.ru</t>
+  </si>
+  <si>
+    <t>nud-iwubeje91@yahoo.com</t>
+  </si>
+  <si>
+    <t>lite_yapiya86@yahoo.com</t>
+  </si>
+  <si>
+    <t>kiced_ozija65@yahoo.com</t>
+  </si>
+  <si>
+    <t>nod-urowule27@mail.ru</t>
+  </si>
+  <si>
+    <t>juyij_ipogi99@aol.com</t>
+  </si>
+  <si>
+    <t>xiki-hanedo67@bk.ru</t>
+  </si>
+  <si>
+    <t>nayus_iwabi23@gmail.com</t>
+  </si>
+  <si>
+    <t>gan-ofekupo12@hotmail.com</t>
+  </si>
+  <si>
+    <t>sapij-ikelo22@mail.ru</t>
+  </si>
+  <si>
+    <t>zoyijil_ixo93@internet.ru</t>
+  </si>
+  <si>
+    <t>kar-ezazuku67@inbox.ru</t>
+  </si>
+  <si>
+    <t>peki-marupa81@hotmail.com</t>
+  </si>
+  <si>
+    <t>way_acalila86@aol.com</t>
+  </si>
+  <si>
+    <t>fihapex_eja73@hotmail.com</t>
+  </si>
+  <si>
+    <t>gijowu_vosa97@gmail.com</t>
+  </si>
+  <si>
+    <t>xese_horaha86@mail.ru</t>
+  </si>
+  <si>
+    <t>guh_ejopiwe1@yahoo.com</t>
+  </si>
+  <si>
+    <t>cosu_fajipa52@list.ru</t>
+  </si>
+  <si>
+    <t>lalafok-imu25@bk.ru</t>
+  </si>
+  <si>
+    <t>mefiju_kofa16@inbox.ru</t>
+  </si>
+  <si>
+    <t>nolifi_bama60@aol.com</t>
+  </si>
+  <si>
+    <t>wozat-awatu90@list.ru</t>
+  </si>
+  <si>
+    <t>tahibi_poha88@list.ru</t>
+  </si>
+  <si>
+    <t>geheha_goze46@gmail.com</t>
+  </si>
+  <si>
+    <t>lexokek-era33@mail.ru</t>
+  </si>
+  <si>
+    <t>zipupu_moye62@aol.com</t>
+  </si>
+  <si>
+    <t>bifuco_zite51@internet.ru</t>
+  </si>
+  <si>
+    <t>roye-kisora43@gmail.com</t>
+  </si>
+  <si>
+    <t>gelame-cogo20@list.ru</t>
+  </si>
+  <si>
+    <t>kuvu_nucovo46@hotmail.com</t>
+  </si>
+  <si>
+    <t>yoway-umeri94@inbox.ru</t>
+  </si>
+  <si>
+    <t>fepoc_ecele22@aol.com</t>
+  </si>
+  <si>
+    <t>rije-befugo71@gmail.com</t>
+  </si>
+  <si>
+    <t>baxe_gusure19@mail.ru</t>
+  </si>
+  <si>
+    <t>kusoki_yeki16@inbox.ru</t>
+  </si>
+  <si>
+    <t>nuzuza-sotu25@mail.ru</t>
+  </si>
+  <si>
+    <t>wulol_ejehe74@gmail.com</t>
+  </si>
+  <si>
+    <t>pat_ehukoga32@yandex.ru</t>
+  </si>
+  <si>
+    <t>wepu-fazuso77@aol.com</t>
+  </si>
+  <si>
+    <t>gorayey-ivi56@yahoo.com</t>
+  </si>
+  <si>
+    <t>saz_uwoberu21@bk.ru</t>
+  </si>
+  <si>
+    <t>kayavov-eyu62@list.ru</t>
+  </si>
+  <si>
+    <t>xofuh-atipu79@list.ru</t>
+  </si>
+  <si>
+    <t>ribukay-ipi34@yandex.ru</t>
+  </si>
+  <si>
+    <t>zaxavu_koti43@yahoo.com</t>
+  </si>
+  <si>
+    <t>yajej-asidi38@yahoo.com</t>
+  </si>
+  <si>
+    <t>sigapo-yumo83@internet.ru</t>
+  </si>
+  <si>
+    <t>xacov_ihaji56@list.ru</t>
+  </si>
+  <si>
+    <t>siwud-ebepe6@bk.ru</t>
+  </si>
+  <si>
+    <t>fabiraj_ewi60@mail.ru</t>
+  </si>
+  <si>
+    <t>zuduw_ihelu33@yahoo.com</t>
+  </si>
+  <si>
+    <t>tafagu_sora3@mail.ru</t>
+  </si>
+  <si>
+    <t>turuf-iwira64@aol.com</t>
+  </si>
+  <si>
+    <t>rajixu-giba34@bk.ru</t>
+  </si>
+  <si>
+    <t>wak_exanuro36@yahoo.com</t>
+  </si>
+  <si>
+    <t>yidubat-ede61@inbox.ru</t>
+  </si>
+  <si>
+    <t>vopu-dobeje30@yahoo.com</t>
+  </si>
+  <si>
+    <t>mikok_ifofu86@list.ru</t>
+  </si>
+  <si>
+    <t>sajidin_oge55@mail.ru</t>
+  </si>
+  <si>
+    <t>goti_kuhori62@gmail.com</t>
+  </si>
+  <si>
+    <t>lat_eyubunu44@list.ru</t>
+  </si>
+  <si>
+    <t>cose-zutujo86@gmail.com</t>
+  </si>
+  <si>
+    <t>jov_oxenide41@aol.com</t>
+  </si>
+  <si>
+    <t>taw-itodoxo12@mail.ru</t>
+  </si>
+  <si>
+    <t>foku-kibesu98@bk.ru</t>
+  </si>
+  <si>
+    <t>viy-okatowo2@aol.com</t>
+  </si>
+  <si>
+    <t>xubobo-joni21@bk.ru</t>
+  </si>
+  <si>
+    <t>zox_ufomuwa60@gmail.com</t>
+  </si>
+  <si>
+    <t>gos-iluledu23@internet.ru</t>
+  </si>
+  <si>
+    <t>koriv_uxifa25@internet.ru</t>
+  </si>
+  <si>
+    <t>saz-izeluku32@aol.com</t>
+  </si>
+  <si>
+    <t>kisodoy-oki94@inbox.ru</t>
+  </si>
+  <si>
+    <t>radikul_ehu92@yandex.ru</t>
+  </si>
+  <si>
+    <t>hama-pevayo33@internet.ru</t>
+  </si>
+  <si>
+    <t>cawifo_duha35@list.ru</t>
+  </si>
+  <si>
+    <t>zagobil_iho10@inbox.ru</t>
+  </si>
+  <si>
+    <t>somes-otuli5@internet.ru</t>
+  </si>
+  <si>
+    <t>dusaro-geto5@gmail.com</t>
+  </si>
+  <si>
+    <t>zelasu_xiwa26@gmail.com</t>
+  </si>
+  <si>
+    <t>gituf-evera95@yahoo.com</t>
+  </si>
+  <si>
+    <t>lule_vebigi42@mail.ru</t>
+  </si>
+  <si>
+    <t>jis-iredana58@gmail.com</t>
+  </si>
+  <si>
+    <t>lusema-vune41@bk.ru</t>
+  </si>
+  <si>
+    <t>dokede-gove37@gmail.com</t>
+  </si>
+  <si>
+    <t>nesatup-uwa16@bk.ru</t>
+  </si>
+  <si>
+    <t>powed_asobe66@gmail.com</t>
+  </si>
+  <si>
+    <t>nuxavu-seri52@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -1666,20 +2308,21 @@
   </sheetPr>
   <dimension ref="A1:M1128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
     <col min="2" max="2" width="40.44140625" customWidth="1"/>
     <col min="3" max="3" width="45.109375" customWidth="1"/>
     <col min="4" max="4" width="30.109375" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" customWidth="1"/>
-    <col min="6" max="6" width="45.21875" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.88671875" customWidth="1"/>
     <col min="12" max="12" width="33.44140625" customWidth="1"/>
+    <col min="13" max="13" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.2">
@@ -1752,6 +2395,9 @@
       <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="M2" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="13.2">
       <c r="A3" s="1" t="s">
@@ -1784,6 +2430,9 @@
       <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="M3" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="13.2">
       <c r="A4" s="1" t="s">
@@ -1818,6 +2467,9 @@
       <c r="L4" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="M4" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="13.2">
       <c r="A5" s="1" t="s">
@@ -1852,6 +2504,9 @@
       <c r="L5" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="M5" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="13.2">
       <c r="A6" s="1" t="s">
@@ -1886,6 +2541,9 @@
       <c r="L6" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="M6" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="13.2">
       <c r="A7" s="1" t="s">
@@ -1920,6 +2578,9 @@
       <c r="L7" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M7" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="13.2">
       <c r="A8" s="1" t="s">
@@ -1954,6 +2615,9 @@
       <c r="L8" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="M8" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="13.2">
       <c r="A9" s="1" t="s">
@@ -1988,6 +2652,9 @@
       <c r="L9" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="M9" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="13.2">
       <c r="A10" s="1" t="s">
@@ -2022,6 +2689,9 @@
       <c r="L10" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="M10" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="13.2">
       <c r="A11" s="1" t="s">
@@ -2056,6 +2726,9 @@
       <c r="L11" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="M11" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="13.2">
       <c r="A12" s="1" t="s">
@@ -2090,6 +2763,9 @@
       <c r="L12" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="M12" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="13.2">
       <c r="A13" s="1" t="s">
@@ -2124,6 +2800,9 @@
       <c r="L13" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="M13" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="13.2">
       <c r="A14" s="1" t="s">
@@ -2158,6 +2837,9 @@
       <c r="L14" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="M14" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="13.2">
       <c r="A15" s="1" t="s">
@@ -2192,6 +2874,9 @@
       <c r="L15" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="M15" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="13.2">
       <c r="A16" s="1" t="s">
@@ -2226,8 +2911,11 @@
       <c r="L16" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="13.2">
+      <c r="M16" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="13.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2260,8 +2948,11 @@
       <c r="L17" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="13.2">
+      <c r="M17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="13.2">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -2294,8 +2985,11 @@
       <c r="L18" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="13.2">
+      <c r="M18" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="13.2">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -2328,8 +3022,11 @@
       <c r="L19" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="13.2">
+      <c r="M19" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="13.2">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -2362,8 +3059,11 @@
       <c r="L20" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="13.2">
+      <c r="M20" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="13.2">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -2396,8 +3096,11 @@
       <c r="L21" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="13.2">
+      <c r="M21" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="13.2">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -2430,8 +3133,11 @@
       <c r="L22" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="13.2">
+      <c r="M22" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="13.2">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -2464,8 +3170,11 @@
       <c r="L23" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="13.2">
+      <c r="M23" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="13.2">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -2498,8 +3207,11 @@
       <c r="L24" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="13.2">
+      <c r="M24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="13.2">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -2532,8 +3244,11 @@
       <c r="L25" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="13.2">
+      <c r="M25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="13.2">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -2566,8 +3281,11 @@
       <c r="L26" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="13.2">
+      <c r="M26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="13.2">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -2600,8 +3318,11 @@
       <c r="L27" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="13.2">
+      <c r="M27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="13.2">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -2634,8 +3355,11 @@
       <c r="L28" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="13.2">
+      <c r="M28" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="13.2">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -2668,8 +3392,11 @@
       <c r="L29" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="13.2">
+      <c r="M29" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="13.2">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -2702,8 +3429,11 @@
       <c r="L30" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="13.2">
+      <c r="M30" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="13.2">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -2736,8 +3466,11 @@
       <c r="L31" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="13.2">
+      <c r="M31" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="13.2">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -2770,8 +3503,11 @@
       <c r="L32" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="13.2">
+      <c r="M32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="13.2">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -2802,8 +3538,11 @@
       <c r="L33" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="13.2">
+      <c r="M33" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="13.2">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -2836,8 +3575,11 @@
       <c r="L34" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="13.2">
+      <c r="M34" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="13.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -2872,8 +3614,11 @@
       <c r="L35" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="13.2">
+      <c r="M35" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="13.2">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -2908,8 +3653,11 @@
       <c r="L36" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="13.2">
+      <c r="M36" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="13.2">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -2944,8 +3692,11 @@
       <c r="L37" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="13.2">
+      <c r="M37" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="13.2">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -2980,8 +3731,11 @@
       <c r="L38" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="13.2">
+      <c r="M38" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="13.2">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -3016,8 +3770,11 @@
       <c r="L39" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="13.2">
+      <c r="M39" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="13.2">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -3052,8 +3809,11 @@
       <c r="L40" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="13.2">
+      <c r="M40" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="13.2">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -3088,8 +3848,11 @@
       <c r="L41" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="13.2">
+      <c r="M41" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="13.2">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -3124,8 +3887,11 @@
       <c r="L42" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="13.2">
+      <c r="M42" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="13.2">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -3160,8 +3926,11 @@
       <c r="L43" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="13.2">
+      <c r="M43" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="13.2">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -3196,8 +3965,11 @@
       <c r="L44" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="13.2">
+      <c r="M44" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="13.2">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
@@ -3232,8 +4004,11 @@
       <c r="L45" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="13.2">
+      <c r="M45" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="13.2">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
@@ -3268,8 +4043,11 @@
       <c r="L46" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="13.2">
+      <c r="M46" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="13.2">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
@@ -3304,8 +4082,11 @@
       <c r="L47" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="13.2">
+      <c r="M47" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="13.2">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -3340,8 +4121,11 @@
       <c r="L48" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="13.2">
+      <c r="M48" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="13.2">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
@@ -3376,8 +4160,11 @@
       <c r="L49" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="13.2">
+      <c r="M49" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="13.2">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -3412,8 +4199,11 @@
       <c r="L50" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="13.2">
+      <c r="M50" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="13.2">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
@@ -3448,8 +4238,11 @@
       <c r="L51" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="13.2">
+      <c r="M51" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="13.2">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
@@ -3484,8 +4277,11 @@
       <c r="L52" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="13.2">
+      <c r="M52" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="13.2">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
@@ -3520,8 +4316,11 @@
       <c r="L53" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="13.2">
+      <c r="M53" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="13.2">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
@@ -3556,8 +4355,11 @@
       <c r="L54" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="13.2">
+      <c r="M54" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="13.2">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
@@ -3592,8 +4394,11 @@
       <c r="L55" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="13.2">
+      <c r="M55" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="13.2">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -3628,8 +4433,11 @@
       <c r="L56" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="13.2">
+      <c r="M56" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="13.2">
       <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
@@ -3664,8 +4472,11 @@
       <c r="L57" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="13.2">
+      <c r="M57" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="13.2">
       <c r="A58" s="1" t="s">
         <v>13</v>
       </c>
@@ -3700,8 +4511,11 @@
       <c r="L58" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="13.2">
+      <c r="M58" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="13.2">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
@@ -3736,8 +4550,11 @@
       <c r="L59" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="13.2">
+      <c r="M59" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="13.2">
       <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
@@ -3772,8 +4589,11 @@
       <c r="L60" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="13.2">
+      <c r="M60" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="13.2">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -3806,8 +4626,11 @@
       <c r="L61" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="13.2">
+      <c r="M61" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="13.2">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -3840,8 +4663,11 @@
       <c r="L62" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="13.2">
+      <c r="M62" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="13.2">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
@@ -3874,8 +4700,11 @@
       <c r="L63" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="13.2">
+      <c r="M63" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="13.2">
       <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
@@ -3908,8 +4737,11 @@
       <c r="L64" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="13.2">
+      <c r="M64" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="13.2">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
@@ -3942,8 +4774,11 @@
       <c r="L65" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="13.2">
+      <c r="M65" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="13.2">
       <c r="A66" s="1" t="s">
         <v>13</v>
       </c>
@@ -3976,8 +4811,11 @@
       <c r="L66" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="13.2">
+      <c r="M66" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="13.2">
       <c r="A67" s="1" t="s">
         <v>13</v>
       </c>
@@ -4010,8 +4848,11 @@
       <c r="L67" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="13.2">
+      <c r="M67" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="13.2">
       <c r="A68" s="1" t="s">
         <v>222</v>
       </c>
@@ -4040,8 +4881,11 @@
       <c r="L68" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="16.5" customHeight="1">
+      <c r="M68" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="16.5" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>222</v>
       </c>
@@ -4072,8 +4916,11 @@
       <c r="L69" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="13.2">
+      <c r="M69" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="13.2">
       <c r="A70" s="1" t="s">
         <v>222</v>
       </c>
@@ -4106,8 +4953,11 @@
       <c r="L70" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="13.2">
+      <c r="M70" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="13.2">
       <c r="A71" s="1" t="s">
         <v>222</v>
       </c>
@@ -4142,8 +4992,11 @@
       <c r="L71" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" ht="13.2">
+      <c r="M71" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="13.2">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -4178,8 +5031,11 @@
       <c r="L72" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="13.2">
+      <c r="M72" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="13.2">
       <c r="A73" s="1" t="s">
         <v>222</v>
       </c>
@@ -4214,8 +5070,11 @@
       <c r="L73" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="13.2">
+      <c r="M73" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="13.2">
       <c r="A74" s="1" t="s">
         <v>222</v>
       </c>
@@ -4250,8 +5109,11 @@
       <c r="L74" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="13.2">
+      <c r="M74" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="13.2">
       <c r="A75" s="1" t="s">
         <v>222</v>
       </c>
@@ -4286,8 +5148,11 @@
       <c r="L75" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="13.2">
+      <c r="M75" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="13.2">
       <c r="A76" s="1" t="s">
         <v>222</v>
       </c>
@@ -4322,8 +5187,11 @@
       <c r="L76" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="13.2">
+      <c r="M76" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="13.2">
       <c r="A77" s="1" t="s">
         <v>222</v>
       </c>
@@ -4358,8 +5226,11 @@
       <c r="L77" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="13.2">
+      <c r="M77" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="13.2">
       <c r="A78" s="1" t="s">
         <v>222</v>
       </c>
@@ -4394,8 +5265,11 @@
       <c r="L78" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="13.2">
+      <c r="M78" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="13.2">
       <c r="A79" s="1" t="s">
         <v>222</v>
       </c>
@@ -4430,8 +5304,11 @@
       <c r="L79" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="13.2">
+      <c r="M79" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="13.2">
       <c r="A80" s="1" t="s">
         <v>222</v>
       </c>
@@ -4466,8 +5343,11 @@
       <c r="L80" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="13.2">
+      <c r="M80" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="13.2">
       <c r="A81" s="1" t="s">
         <v>222</v>
       </c>
@@ -4502,8 +5382,11 @@
       <c r="L81" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="13.2">
+      <c r="M81" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="13.2">
       <c r="A82" s="1" t="s">
         <v>222</v>
       </c>
@@ -4538,8 +5421,11 @@
       <c r="L82" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="13.2">
+      <c r="M82" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="13.2">
       <c r="A83" s="1" t="s">
         <v>222</v>
       </c>
@@ -4574,8 +5460,11 @@
       <c r="L83" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="16.5" customHeight="1">
+      <c r="M83" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="16.5" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>222</v>
       </c>
@@ -4610,8 +5499,11 @@
       <c r="L84" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="16.5" customHeight="1">
+      <c r="M84" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="16.5" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>222</v>
       </c>
@@ -4646,8 +5538,11 @@
       <c r="L85" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="16.5" customHeight="1">
+      <c r="M85" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="16.5" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>222</v>
       </c>
@@ -4682,8 +5577,11 @@
       <c r="L86" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="16.5" customHeight="1">
+      <c r="M86" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="16.5" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>222</v>
       </c>
@@ -4718,8 +5616,11 @@
       <c r="L87" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="16.5" customHeight="1">
+      <c r="M87" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="16.5" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>222</v>
       </c>
@@ -4752,8 +5653,11 @@
       <c r="L88" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="16.5" customHeight="1">
+      <c r="M88" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="16.5" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>222</v>
       </c>
@@ -4788,8 +5692,11 @@
       <c r="L89" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="16.5" customHeight="1">
+      <c r="M89" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="16.5" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>222</v>
       </c>
@@ -4824,8 +5731,11 @@
       <c r="L90" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="16.5" customHeight="1">
+      <c r="M90" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="16.5" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>222</v>
       </c>
@@ -4860,8 +5770,11 @@
       <c r="L91" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="13.2">
+      <c r="M91" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="13.2">
       <c r="A92" s="1" t="s">
         <v>222</v>
       </c>
@@ -4896,8 +5809,11 @@
       <c r="L92" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="13.2">
+      <c r="M92" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="13.2">
       <c r="A93" s="1" t="s">
         <v>222</v>
       </c>
@@ -4932,8 +5848,11 @@
       <c r="L93" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="13.2">
+      <c r="M93" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="13.2">
       <c r="A94" s="1" t="s">
         <v>222</v>
       </c>
@@ -4968,8 +5887,11 @@
       <c r="L94" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="13.2">
+      <c r="M94" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="13.2">
       <c r="A95" s="1" t="s">
         <v>222</v>
       </c>
@@ -5004,8 +5926,11 @@
       <c r="L95" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="13.2">
+      <c r="M95" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="13.2">
       <c r="A96" s="1" t="s">
         <v>222</v>
       </c>
@@ -5040,8 +5965,11 @@
       <c r="L96" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="13.2">
+      <c r="M96" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="13.2">
       <c r="A97" s="1" t="s">
         <v>222</v>
       </c>
@@ -5076,8 +6004,11 @@
       <c r="L97" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="13.2">
+      <c r="M97" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="13.2">
       <c r="A98" s="1" t="s">
         <v>222</v>
       </c>
@@ -5112,8 +6043,11 @@
       <c r="L98" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="13.2">
+      <c r="M98" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="13.2">
       <c r="A99" s="1" t="s">
         <v>222</v>
       </c>
@@ -5148,8 +6082,11 @@
       <c r="L99" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="13.2">
+      <c r="M99" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="13.2">
       <c r="A100" s="1" t="s">
         <v>222</v>
       </c>
@@ -5184,8 +6121,11 @@
       <c r="L100" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="13.2">
+      <c r="M100" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="13.2">
       <c r="A101" s="1" t="s">
         <v>222</v>
       </c>
@@ -5220,8 +6160,11 @@
       <c r="L101" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="13.2">
+      <c r="M101" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="13.2">
       <c r="A102" s="1" t="s">
         <v>222</v>
       </c>
@@ -5256,8 +6199,11 @@
       <c r="L102" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="13.2">
+      <c r="M102" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="13.2">
       <c r="A103" s="1" t="s">
         <v>222</v>
       </c>
@@ -5292,8 +6238,11 @@
       <c r="L103" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="13.2">
+      <c r="M103" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="13.2">
       <c r="A104" s="1" t="s">
         <v>222</v>
       </c>
@@ -5328,8 +6277,11 @@
       <c r="L104" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="13.2">
+      <c r="M104" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="13.2">
       <c r="A105" s="1" t="s">
         <v>222</v>
       </c>
@@ -5360,8 +6312,11 @@
       <c r="L105" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="13.2">
+      <c r="M105" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="13.2">
       <c r="A106" s="1" t="s">
         <v>222</v>
       </c>
@@ -5394,8 +6349,11 @@
       <c r="L106" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="13.2">
+      <c r="M106" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="13.2">
       <c r="A107" s="1" t="s">
         <v>222</v>
       </c>
@@ -5428,8 +6386,11 @@
       <c r="L107" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" ht="13.2">
+      <c r="M107" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="13.2">
       <c r="A108" s="1" t="s">
         <v>222</v>
       </c>
@@ -5462,8 +6423,11 @@
       <c r="L108" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" ht="13.2">
+      <c r="M108" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="13.2">
       <c r="A109" s="1" t="s">
         <v>222</v>
       </c>
@@ -5496,8 +6460,11 @@
       <c r="L109" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" ht="13.2">
+      <c r="M109" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="13.2">
       <c r="A110" s="1" t="s">
         <v>222</v>
       </c>
@@ -5530,8 +6497,11 @@
       <c r="L110" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" ht="13.2">
+      <c r="M110" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="13.2">
       <c r="A111" s="1" t="s">
         <v>222</v>
       </c>
@@ -5564,8 +6534,11 @@
       <c r="L111" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" ht="13.2">
+      <c r="M111" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="13.2">
       <c r="A112" s="1" t="s">
         <v>222</v>
       </c>
@@ -5598,8 +6571,11 @@
       <c r="L112" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="13.2">
+      <c r="M112" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="13.2">
       <c r="A113" s="1" t="s">
         <v>222</v>
       </c>
@@ -5632,8 +6608,11 @@
       <c r="L113" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" ht="13.2">
+      <c r="M113" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="13.2">
       <c r="A114" s="1" t="s">
         <v>222</v>
       </c>
@@ -5666,8 +6645,11 @@
       <c r="L114" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" ht="13.2">
+      <c r="M114" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="13.2">
       <c r="A115" s="1" t="s">
         <v>222</v>
       </c>
@@ -5700,8 +6682,11 @@
       <c r="L115" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" ht="13.2">
+      <c r="M115" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="13.2">
       <c r="A116" s="1" t="s">
         <v>222</v>
       </c>
@@ -5734,8 +6719,11 @@
       <c r="L116" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="13.2">
+      <c r="M116" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="13.2">
       <c r="A117" s="1" t="s">
         <v>222</v>
       </c>
@@ -5768,8 +6756,11 @@
       <c r="L117" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" ht="13.2">
+      <c r="M117" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="13.2">
       <c r="A118" s="1" t="s">
         <v>222</v>
       </c>
@@ -5802,8 +6793,11 @@
       <c r="L118" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" ht="13.2">
+      <c r="M118" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="13.2">
       <c r="A119" s="1" t="s">
         <v>222</v>
       </c>
@@ -5835,8 +6829,11 @@
       <c r="L119" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" ht="13.2">
+      <c r="M119" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="13.2">
       <c r="A120" s="1" t="s">
         <v>222</v>
       </c>
@@ -5868,8 +6865,11 @@
       <c r="L120" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" ht="13.2">
+      <c r="M120" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="13.2">
       <c r="A121" s="1" t="s">
         <v>222</v>
       </c>
@@ -5901,8 +6901,11 @@
       <c r="L121" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" ht="13.2">
+      <c r="M121" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="13.2">
       <c r="A122" s="1" t="s">
         <v>222</v>
       </c>
@@ -5934,8 +6937,11 @@
       <c r="L122" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" ht="13.2">
+      <c r="M122" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="13.2">
       <c r="A123" s="1" t="s">
         <v>222</v>
       </c>
@@ -5967,8 +6973,11 @@
       <c r="L123" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" ht="13.2">
+      <c r="M123" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="13.2">
       <c r="A124" s="1" t="s">
         <v>222</v>
       </c>
@@ -6000,8 +7009,11 @@
       <c r="L124" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" ht="13.2">
+      <c r="M124" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="13.2">
       <c r="A125" s="1" t="s">
         <v>222</v>
       </c>
@@ -6033,8 +7045,11 @@
       <c r="L125" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" ht="13.2">
+      <c r="M125" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="13.2">
       <c r="A126" s="1" t="s">
         <v>222</v>
       </c>
@@ -6066,8 +7081,11 @@
       <c r="L126" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" ht="13.2">
+      <c r="M126" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="13.2">
       <c r="A127" s="1" t="s">
         <v>222</v>
       </c>
@@ -6099,8 +7117,11 @@
       <c r="L127" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" ht="13.2">
+      <c r="M127" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="13.2">
       <c r="A128" s="1" t="s">
         <v>222</v>
       </c>
@@ -6132,8 +7153,11 @@
       <c r="L128" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" ht="13.2">
+      <c r="M128" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="13.2">
       <c r="A129" s="1" t="s">
         <v>222</v>
       </c>
@@ -6165,8 +7189,11 @@
       <c r="L129" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" ht="13.2">
+      <c r="M129" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="13.2">
       <c r="A130" s="1" t="s">
         <v>222</v>
       </c>
@@ -6198,8 +7225,11 @@
       <c r="L130" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" ht="13.2">
+      <c r="M130" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="13.2">
       <c r="A131" s="1" t="s">
         <v>222</v>
       </c>
@@ -6231,8 +7261,11 @@
       <c r="L131" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" ht="13.2">
+      <c r="M131" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="13.2">
       <c r="A132" s="1" t="s">
         <v>222</v>
       </c>
@@ -6264,8 +7297,11 @@
       <c r="L132" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" ht="13.2">
+      <c r="M132" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="13.2">
       <c r="A133" s="1" t="s">
         <v>222</v>
       </c>
@@ -6297,8 +7333,11 @@
       <c r="L133" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" ht="13.2">
+      <c r="M133" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="13.2">
       <c r="A134" s="1" t="s">
         <v>222</v>
       </c>
@@ -6330,8 +7369,11 @@
       <c r="L134" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" ht="13.2">
+      <c r="M134" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="13.2">
       <c r="A135" s="1" t="s">
         <v>222</v>
       </c>
@@ -6363,8 +7405,11 @@
       <c r="L135" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" ht="13.2">
+      <c r="M135" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="13.2">
       <c r="A136" s="1" t="s">
         <v>222</v>
       </c>
@@ -6396,8 +7441,11 @@
       <c r="L136" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" ht="13.2">
+      <c r="M136" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="13.2">
       <c r="A137" s="1" t="s">
         <v>222</v>
       </c>
@@ -6429,8 +7477,11 @@
       <c r="L137" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" ht="13.2">
+      <c r="M137" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="13.2">
       <c r="A138" s="1" t="s">
         <v>222</v>
       </c>
@@ -6462,8 +7513,11 @@
       <c r="L138" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" ht="13.2">
+      <c r="M138" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="13.2">
       <c r="A139" s="1" t="s">
         <v>222</v>
       </c>
@@ -6495,8 +7549,11 @@
       <c r="L139" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" ht="13.2">
+      <c r="M139" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="13.2">
       <c r="A140" s="1" t="s">
         <v>222</v>
       </c>
@@ -6528,8 +7585,11 @@
       <c r="L140" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" ht="13.2">
+      <c r="M140" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="13.2">
       <c r="A141" s="1" t="s">
         <v>222</v>
       </c>
@@ -6561,8 +7621,11 @@
       <c r="L141" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" ht="13.2">
+      <c r="M141" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="13.2">
       <c r="A142" s="1" t="s">
         <v>222</v>
       </c>
@@ -6594,8 +7657,11 @@
       <c r="L142" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" ht="13.2">
+      <c r="M142" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="13.2">
       <c r="A143" s="1" t="s">
         <v>222</v>
       </c>
@@ -6627,8 +7693,11 @@
       <c r="L143" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" ht="13.2">
+      <c r="M143" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="13.2">
       <c r="A144" s="1" t="s">
         <v>222</v>
       </c>
@@ -6660,8 +7729,11 @@
       <c r="L144" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" ht="13.2">
+      <c r="M144" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="13.2">
       <c r="A145" s="1" t="s">
         <v>354</v>
       </c>
@@ -6690,8 +7762,11 @@
       <c r="L145" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" ht="13.2">
+      <c r="M145" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="13.2">
       <c r="A146" s="1" t="s">
         <v>354</v>
       </c>
@@ -6722,8 +7797,11 @@
       <c r="L146" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="13.2">
+      <c r="M146" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="13.2">
       <c r="A147" s="1" t="s">
         <v>354</v>
       </c>
@@ -6756,8 +7834,11 @@
       <c r="L147" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" ht="13.2">
+      <c r="M147" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="13.2">
       <c r="A148" s="1" t="s">
         <v>354</v>
       </c>
@@ -6792,8 +7873,11 @@
       <c r="L148" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" ht="13.2">
+      <c r="M148" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="13.2">
       <c r="A149" s="1" t="s">
         <v>354</v>
       </c>
@@ -6828,8 +7912,11 @@
       <c r="L149" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" ht="13.2">
+      <c r="M149" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="13.2">
       <c r="A150" s="1" t="s">
         <v>354</v>
       </c>
@@ -6864,8 +7951,11 @@
       <c r="L150" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" ht="13.2">
+      <c r="M150" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="13.2">
       <c r="A151" s="1" t="s">
         <v>354</v>
       </c>
@@ -6900,8 +7990,11 @@
       <c r="L151" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" ht="13.2">
+      <c r="M151" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="13.2">
       <c r="A152" s="1" t="s">
         <v>354</v>
       </c>
@@ -6936,8 +8029,11 @@
       <c r="L152" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" ht="13.2">
+      <c r="M152" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="13.2">
       <c r="A153" s="1" t="s">
         <v>354</v>
       </c>
@@ -6972,8 +8068,11 @@
       <c r="L153" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" ht="13.2">
+      <c r="M153" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="13.2">
       <c r="A154" s="1" t="s">
         <v>354</v>
       </c>
@@ -7008,8 +8107,11 @@
       <c r="L154" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" ht="13.2">
+      <c r="M154" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="13.2">
       <c r="A155" s="1" t="s">
         <v>354</v>
       </c>
@@ -7044,8 +8146,11 @@
       <c r="L155" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" ht="13.2">
+      <c r="M155" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="13.2">
       <c r="A156" s="1" t="s">
         <v>354</v>
       </c>
@@ -7080,8 +8185,11 @@
       <c r="L156" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" ht="13.2">
+      <c r="M156" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="13.2">
       <c r="A157" s="1" t="s">
         <v>354</v>
       </c>
@@ -7116,8 +8224,11 @@
       <c r="L157" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" ht="13.2">
+      <c r="M157" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="13.2">
       <c r="A158" s="1" t="s">
         <v>354</v>
       </c>
@@ -7152,8 +8263,11 @@
       <c r="L158" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" ht="13.2">
+      <c r="M158" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="13.2">
       <c r="A159" s="1" t="s">
         <v>354</v>
       </c>
@@ -7188,8 +8302,11 @@
       <c r="L159" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" ht="13.2">
+      <c r="M159" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="13.2">
       <c r="A160" s="1" t="s">
         <v>354</v>
       </c>
@@ -7224,8 +8341,11 @@
       <c r="L160" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" ht="13.2">
+      <c r="M160" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="13.2">
       <c r="A161" s="1" t="s">
         <v>354</v>
       </c>
@@ -7260,8 +8380,11 @@
       <c r="L161" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" ht="13.2">
+      <c r="M161" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="13.2">
       <c r="A162" s="1" t="s">
         <v>354</v>
       </c>
@@ -7296,8 +8419,11 @@
       <c r="L162" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" ht="13.2">
+      <c r="M162" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="13.2">
       <c r="A163" s="1" t="s">
         <v>354</v>
       </c>
@@ -7332,8 +8458,11 @@
       <c r="L163" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" ht="13.2">
+      <c r="M163" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="13.2">
       <c r="A164" s="1" t="s">
         <v>354</v>
       </c>
@@ -7368,8 +8497,11 @@
       <c r="L164" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" ht="13.2">
+      <c r="M164" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="13.2">
       <c r="A165" s="1" t="s">
         <v>354</v>
       </c>
@@ -7402,8 +8534,11 @@
       <c r="L165" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" ht="13.2">
+      <c r="M165" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="13.2">
       <c r="A166" s="1" t="s">
         <v>354</v>
       </c>
@@ -7438,8 +8573,11 @@
       <c r="L166" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" ht="13.2">
+      <c r="M166" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="13.2">
       <c r="A167" s="1" t="s">
         <v>354</v>
       </c>
@@ -7474,8 +8612,11 @@
       <c r="L167" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" ht="13.2">
+      <c r="M167" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="13.2">
       <c r="A168" s="1" t="s">
         <v>354</v>
       </c>
@@ -7510,8 +8651,11 @@
       <c r="L168" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" ht="13.2">
+      <c r="M168" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="13.2">
       <c r="A169" s="1" t="s">
         <v>354</v>
       </c>
@@ -7546,8 +8690,11 @@
       <c r="L169" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" ht="13.2">
+      <c r="M169" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="13.2">
       <c r="A170" s="1" t="s">
         <v>354</v>
       </c>
@@ -7582,8 +8729,11 @@
       <c r="L170" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" ht="13.2">
+      <c r="M170" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="13.2">
       <c r="A171" s="1" t="s">
         <v>354</v>
       </c>
@@ -7618,8 +8768,11 @@
       <c r="L171" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" ht="13.2">
+      <c r="M171" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="13.2">
       <c r="A172" s="1" t="s">
         <v>354</v>
       </c>
@@ -7654,8 +8807,11 @@
       <c r="L172" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" ht="13.2">
+      <c r="M172" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="13.2">
       <c r="A173" s="1" t="s">
         <v>354</v>
       </c>
@@ -7690,8 +8846,11 @@
       <c r="L173" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" ht="13.2">
+      <c r="M173" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="13.2">
       <c r="A174" s="1" t="s">
         <v>354</v>
       </c>
@@ -7726,8 +8885,11 @@
       <c r="L174" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" ht="13.2">
+      <c r="M174" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="13.2">
       <c r="A175" s="1" t="s">
         <v>354</v>
       </c>
@@ -7762,8 +8924,11 @@
       <c r="L175" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" ht="13.2">
+      <c r="M175" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="13.2">
       <c r="A176" s="1" t="s">
         <v>354</v>
       </c>
@@ -7798,8 +8963,11 @@
       <c r="L176" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" ht="13.2">
+      <c r="M176" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="13.2">
       <c r="A177" s="1" t="s">
         <v>354</v>
       </c>
@@ -7834,8 +9002,11 @@
       <c r="L177" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" ht="13.2">
+      <c r="M177" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="13.2">
       <c r="A178" s="1" t="s">
         <v>354</v>
       </c>
@@ -7870,8 +9041,11 @@
       <c r="L178" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" ht="13.2">
+      <c r="M178" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="13.2">
       <c r="A179" s="1" t="s">
         <v>354</v>
       </c>
@@ -7902,8 +9076,11 @@
       <c r="L179" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" ht="13.2">
+      <c r="M179" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="13.2">
       <c r="A180" s="1" t="s">
         <v>354</v>
       </c>
@@ -7936,8 +9113,11 @@
       <c r="L180" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" ht="13.2">
+      <c r="M180" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="13.2">
       <c r="A181" s="1" t="s">
         <v>354</v>
       </c>
@@ -7970,8 +9150,11 @@
       <c r="L181" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" ht="13.2">
+      <c r="M181" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="13.2">
       <c r="A182" s="1" t="s">
         <v>354</v>
       </c>
@@ -8004,8 +9187,11 @@
       <c r="L182" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" ht="13.2">
+      <c r="M182" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="13.2">
       <c r="A183" s="1" t="s">
         <v>354</v>
       </c>
@@ -8038,8 +9224,11 @@
       <c r="L183" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" ht="13.2">
+      <c r="M183" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="13.2">
       <c r="A184" s="1" t="s">
         <v>354</v>
       </c>
@@ -8072,8 +9261,11 @@
       <c r="L184" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" ht="13.2">
+      <c r="M184" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="13.2">
       <c r="A185" s="1" t="s">
         <v>354</v>
       </c>
@@ -8106,8 +9298,11 @@
       <c r="L185" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" ht="13.2">
+      <c r="M185" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="13.2">
       <c r="A186" s="1" t="s">
         <v>354</v>
       </c>
@@ -8140,8 +9335,11 @@
       <c r="L186" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" ht="13.2">
+      <c r="M186" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="13.2">
       <c r="A187" s="1" t="s">
         <v>354</v>
       </c>
@@ -8174,8 +9372,11 @@
       <c r="L187" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" ht="13.2">
+      <c r="M187" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="13.2">
       <c r="A188" s="1" t="s">
         <v>354</v>
       </c>
@@ -8208,8 +9409,11 @@
       <c r="L188" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" ht="13.2">
+      <c r="M188" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="13.2">
       <c r="A189" s="1" t="s">
         <v>354</v>
       </c>
@@ -8242,8 +9446,11 @@
       <c r="L189" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" ht="13.2">
+      <c r="M189" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="13.2">
       <c r="A190" s="1" t="s">
         <v>354</v>
       </c>
@@ -8276,8 +9483,11 @@
       <c r="L190" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" ht="13.2">
+      <c r="M190" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="13.2">
       <c r="A191" s="1" t="s">
         <v>354</v>
       </c>
@@ -8310,8 +9520,11 @@
       <c r="L191" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" ht="13.2">
+      <c r="M191" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="13.2">
       <c r="A192" s="1" t="s">
         <v>354</v>
       </c>
@@ -8343,8 +9556,11 @@
       <c r="L192" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" ht="13.2">
+      <c r="M192" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="13.2">
       <c r="A193" s="1" t="s">
         <v>354</v>
       </c>
@@ -8376,8 +9592,11 @@
       <c r="L193" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" ht="13.2">
+      <c r="M193" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="13.2">
       <c r="A194" s="1" t="s">
         <v>354</v>
       </c>
@@ -8409,8 +9628,11 @@
       <c r="L194" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" ht="13.2">
+      <c r="M194" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="13.2">
       <c r="A195" s="1" t="s">
         <v>354</v>
       </c>
@@ -8442,8 +9664,11 @@
       <c r="L195" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" ht="13.2">
+      <c r="M195" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="13.2">
       <c r="A196" s="1" t="s">
         <v>354</v>
       </c>
@@ -8475,8 +9700,11 @@
       <c r="L196" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" ht="13.2">
+      <c r="M196" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="13.2">
       <c r="A197" s="1" t="s">
         <v>354</v>
       </c>
@@ -8508,8 +9736,11 @@
       <c r="L197" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" ht="13.2">
+      <c r="M197" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="13.2">
       <c r="A198" s="1" t="s">
         <v>354</v>
       </c>
@@ -8541,8 +9772,11 @@
       <c r="L198" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" ht="13.2">
+      <c r="M198" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" ht="13.2">
       <c r="A199" s="1" t="s">
         <v>354</v>
       </c>
@@ -8574,8 +9808,11 @@
       <c r="L199" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" ht="13.2">
+      <c r="M199" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" ht="13.2">
       <c r="A200" s="1" t="s">
         <v>354</v>
       </c>
@@ -8607,8 +9844,11 @@
       <c r="L200" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" ht="13.2">
+      <c r="M200" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" ht="13.2">
       <c r="A201" s="1" t="s">
         <v>354</v>
       </c>
@@ -8640,8 +9880,11 @@
       <c r="L201" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" ht="13.2">
+      <c r="M201" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" ht="13.2">
       <c r="A202" s="1" t="s">
         <v>354</v>
       </c>
@@ -8673,8 +9916,11 @@
       <c r="L202" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" ht="13.2">
+      <c r="M202" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" ht="13.2">
       <c r="A203" s="1" t="s">
         <v>354</v>
       </c>
@@ -8706,8 +9952,11 @@
       <c r="L203" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" ht="13.2">
+      <c r="M203" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" ht="13.2">
       <c r="A204" s="1" t="s">
         <v>354</v>
       </c>
@@ -8739,8 +9988,11 @@
       <c r="L204" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" ht="13.2">
+      <c r="M204" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" ht="13.2">
       <c r="A205" s="1" t="s">
         <v>354</v>
       </c>
@@ -8772,8 +10024,11 @@
       <c r="L205" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" ht="13.2">
+      <c r="M205" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" ht="13.2">
       <c r="A206" s="1" t="s">
         <v>354</v>
       </c>
@@ -8805,8 +10060,11 @@
       <c r="L206" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" ht="13.2">
+      <c r="M206" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" ht="13.2">
       <c r="A207" s="1" t="s">
         <v>354</v>
       </c>
@@ -8838,8 +10096,11 @@
       <c r="L207" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" ht="13.2">
+      <c r="M207" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" ht="13.2">
       <c r="A208" s="1" t="s">
         <v>354</v>
       </c>
@@ -8871,8 +10132,11 @@
       <c r="L208" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" ht="13.2">
+      <c r="M208" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" ht="13.2">
       <c r="A209" s="1" t="s">
         <v>354</v>
       </c>
@@ -8904,8 +10168,11 @@
       <c r="L209" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" ht="13.2">
+      <c r="M209" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" ht="13.2">
       <c r="A210" s="1" t="s">
         <v>354</v>
       </c>
@@ -8937,8 +10204,11 @@
       <c r="L210" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" ht="13.2">
+      <c r="M210" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" ht="13.2">
       <c r="A211" s="1" t="s">
         <v>354</v>
       </c>
@@ -8970,8 +10240,11 @@
       <c r="L211" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" ht="13.2">
+      <c r="M211" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" ht="13.2">
       <c r="A212" s="1" t="s">
         <v>354</v>
       </c>
@@ -9003,8 +10276,11 @@
       <c r="L212" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" ht="13.2">
+      <c r="M212" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="13.2">
       <c r="A213" s="1" t="s">
         <v>354</v>
       </c>
@@ -9036,8 +10312,11 @@
       <c r="L213" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" ht="13.2">
+      <c r="M213" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="13.2">
       <c r="A214" s="1" t="s">
         <v>354</v>
       </c>
@@ -9069,8 +10348,11 @@
       <c r="L214" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" ht="13.2">
+      <c r="M214" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" ht="13.2">
       <c r="A215" s="1" t="s">
         <v>354</v>
       </c>
@@ -9102,40 +10384,43 @@
       <c r="L215" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" ht="13.2">
+      <c r="M215" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" ht="13.2">
       <c r="F216" s="2"/>
       <c r="J216" s="7"/>
     </row>
-    <row r="217" spans="1:12" ht="13.2">
+    <row r="217" spans="1:13" ht="13.2">
       <c r="F217" s="2"/>
       <c r="J217" s="7"/>
     </row>
-    <row r="218" spans="1:12" ht="13.2">
+    <row r="218" spans="1:13" ht="13.2">
       <c r="F218" s="2"/>
       <c r="J218" s="7"/>
     </row>
-    <row r="219" spans="1:12" ht="13.2">
+    <row r="219" spans="1:13" ht="13.2">
       <c r="F219" s="2"/>
       <c r="J219" s="7"/>
     </row>
-    <row r="220" spans="1:12" ht="13.2">
+    <row r="220" spans="1:13" ht="13.2">
       <c r="F220" s="2"/>
       <c r="J220" s="7"/>
     </row>
-    <row r="221" spans="1:12" ht="13.2">
+    <row r="221" spans="1:13" ht="13.2">
       <c r="F221" s="2"/>
       <c r="J221" s="7"/>
     </row>
-    <row r="222" spans="1:12" ht="13.2">
+    <row r="222" spans="1:13" ht="13.2">
       <c r="F222" s="2"/>
       <c r="J222" s="7"/>
     </row>
-    <row r="223" spans="1:12" ht="13.2">
+    <row r="223" spans="1:13" ht="13.2">
       <c r="F223" s="2"/>
       <c r="J223" s="7"/>
     </row>
-    <row r="224" spans="1:12" ht="13.2">
+    <row r="224" spans="1:13" ht="13.2">
       <c r="F224" s="2"/>
       <c r="J224" s="7"/>
     </row>
